--- a/data/time_series/annual_cashflows_data.xlsx
+++ b/data/time_series/annual_cashflows_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A84CE-A6F1-4E9F-896E-567D4B931E1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E5445A-9B3D-4CD4-BB4A-37A6B709CCB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="1" r:id="rId1"/>
     <sheet name="Service Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="PVFB" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -404,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027456B0-4AAC-4E49-B406-E9435788ACC8}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1800,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B07887-8F52-4ACD-9003-CB270BD2655C}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,4 +3191,1400 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8773CC19-A081-4E73-B051-09B33C10AE79}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>1191188083</v>
+      </c>
+      <c r="D2">
+        <v>263594852</v>
+      </c>
+      <c r="E2">
+        <v>413445883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>1248499566</v>
+      </c>
+      <c r="D3">
+        <v>295780608</v>
+      </c>
+      <c r="E3">
+        <v>453555576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>1307271855</v>
+      </c>
+      <c r="D4">
+        <v>330113229</v>
+      </c>
+      <c r="E4">
+        <v>494129422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>1367042353</v>
+      </c>
+      <c r="D5">
+        <v>366427094</v>
+      </c>
+      <c r="E5">
+        <v>636735159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B6">
+        <v>4.5</v>
+      </c>
+      <c r="C6">
+        <v>1427103788</v>
+      </c>
+      <c r="D6">
+        <v>404119980</v>
+      </c>
+      <c r="E6">
+        <v>789591285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B7">
+        <v>5.5</v>
+      </c>
+      <c r="C7">
+        <v>1484452079</v>
+      </c>
+      <c r="D7">
+        <v>442990038</v>
+      </c>
+      <c r="E7">
+        <v>852563078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B8">
+        <v>6.5</v>
+      </c>
+      <c r="C8">
+        <v>1536363515</v>
+      </c>
+      <c r="D8">
+        <v>482225574</v>
+      </c>
+      <c r="E8">
+        <v>914676335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B9">
+        <v>7.5</v>
+      </c>
+      <c r="C9">
+        <v>1581469818</v>
+      </c>
+      <c r="D9">
+        <v>521197290</v>
+      </c>
+      <c r="E9">
+        <v>974919705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B10">
+        <v>8.5</v>
+      </c>
+      <c r="C10">
+        <v>1621735840</v>
+      </c>
+      <c r="D10">
+        <v>560436258</v>
+      </c>
+      <c r="E10">
+        <v>1033987023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B11">
+        <v>9.5</v>
+      </c>
+      <c r="C11">
+        <v>1657554698</v>
+      </c>
+      <c r="D11">
+        <v>599527484</v>
+      </c>
+      <c r="E11">
+        <v>1091409435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B12">
+        <v>10.5</v>
+      </c>
+      <c r="C12">
+        <v>1687496410</v>
+      </c>
+      <c r="D12">
+        <v>637181298</v>
+      </c>
+      <c r="E12">
+        <v>1146363153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>48579</v>
+      </c>
+      <c r="B13">
+        <v>11.5</v>
+      </c>
+      <c r="C13">
+        <v>1711447598</v>
+      </c>
+      <c r="D13">
+        <v>672566221</v>
+      </c>
+      <c r="E13">
+        <v>1199207211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>48944</v>
+      </c>
+      <c r="B14">
+        <v>12.5</v>
+      </c>
+      <c r="C14">
+        <v>1727903278</v>
+      </c>
+      <c r="D14">
+        <v>705046710</v>
+      </c>
+      <c r="E14">
+        <v>1249232842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>49309</v>
+      </c>
+      <c r="B15">
+        <v>13.5</v>
+      </c>
+      <c r="C15">
+        <v>1734922953</v>
+      </c>
+      <c r="D15">
+        <v>735063570</v>
+      </c>
+      <c r="E15">
+        <v>1295586837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B16">
+        <v>14.5</v>
+      </c>
+      <c r="C16">
+        <v>1735999321</v>
+      </c>
+      <c r="D16">
+        <v>762879059</v>
+      </c>
+      <c r="E16">
+        <v>1338649963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B17">
+        <v>15.5</v>
+      </c>
+      <c r="C17">
+        <v>1729845699</v>
+      </c>
+      <c r="D17">
+        <v>788316542</v>
+      </c>
+      <c r="E17">
+        <v>1379289971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B18">
+        <v>16.5</v>
+      </c>
+      <c r="C18">
+        <v>1717408706</v>
+      </c>
+      <c r="D18">
+        <v>811181843</v>
+      </c>
+      <c r="E18">
+        <v>1417865417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>50770</v>
+      </c>
+      <c r="B19">
+        <v>17.5</v>
+      </c>
+      <c r="C19">
+        <v>1698885662</v>
+      </c>
+      <c r="D19">
+        <v>831811136</v>
+      </c>
+      <c r="E19">
+        <v>1454346394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>51135</v>
+      </c>
+      <c r="B20">
+        <v>18.5</v>
+      </c>
+      <c r="C20">
+        <v>1675445049</v>
+      </c>
+      <c r="D20">
+        <v>850512879</v>
+      </c>
+      <c r="E20">
+        <v>1488305837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>51501</v>
+      </c>
+      <c r="B21">
+        <v>19.5</v>
+      </c>
+      <c r="C21">
+        <v>1646494324</v>
+      </c>
+      <c r="D21">
+        <v>867258410</v>
+      </c>
+      <c r="E21">
+        <v>1519273519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>51866</v>
+      </c>
+      <c r="B22">
+        <v>20.5</v>
+      </c>
+      <c r="C22">
+        <v>1612857771</v>
+      </c>
+      <c r="D22">
+        <v>882302383</v>
+      </c>
+      <c r="E22">
+        <v>1546939941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>52231</v>
+      </c>
+      <c r="B23">
+        <v>21.5</v>
+      </c>
+      <c r="C23">
+        <v>1575847805</v>
+      </c>
+      <c r="D23">
+        <v>895678659</v>
+      </c>
+      <c r="E23">
+        <v>1571566357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>52596</v>
+      </c>
+      <c r="B24">
+        <v>22.5</v>
+      </c>
+      <c r="C24">
+        <v>1535499269</v>
+      </c>
+      <c r="D24">
+        <v>906967988</v>
+      </c>
+      <c r="E24">
+        <v>1593875828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>52962</v>
+      </c>
+      <c r="B25">
+        <v>23.5</v>
+      </c>
+      <c r="C25">
+        <v>1489924290</v>
+      </c>
+      <c r="D25">
+        <v>915463355</v>
+      </c>
+      <c r="E25">
+        <v>1613371704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>53327</v>
+      </c>
+      <c r="B26">
+        <v>24.5</v>
+      </c>
+      <c r="C26">
+        <v>1440332453</v>
+      </c>
+      <c r="D26">
+        <v>920678090</v>
+      </c>
+      <c r="E26">
+        <v>1629470088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>53692</v>
+      </c>
+      <c r="B27">
+        <v>25.5</v>
+      </c>
+      <c r="C27">
+        <v>1387354896</v>
+      </c>
+      <c r="D27">
+        <v>923112787</v>
+      </c>
+      <c r="E27">
+        <v>1642243980</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>54057</v>
+      </c>
+      <c r="B28">
+        <v>26.5</v>
+      </c>
+      <c r="C28">
+        <v>1330010912</v>
+      </c>
+      <c r="D28">
+        <v>922936825</v>
+      </c>
+      <c r="E28">
+        <v>1651322388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>54423</v>
+      </c>
+      <c r="B29">
+        <v>27.5</v>
+      </c>
+      <c r="C29">
+        <v>1268954059</v>
+      </c>
+      <c r="D29">
+        <v>919904726</v>
+      </c>
+      <c r="E29">
+        <v>1656685374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>54788</v>
+      </c>
+      <c r="B30">
+        <v>28.5</v>
+      </c>
+      <c r="C30">
+        <v>1204780327</v>
+      </c>
+      <c r="D30">
+        <v>913634861</v>
+      </c>
+      <c r="E30">
+        <v>1658173097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>55153</v>
+      </c>
+      <c r="B31">
+        <v>29.5</v>
+      </c>
+      <c r="C31">
+        <v>1136631081</v>
+      </c>
+      <c r="D31">
+        <v>903555313</v>
+      </c>
+      <c r="E31">
+        <v>1654964781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>55518</v>
+      </c>
+      <c r="B32">
+        <v>30.5</v>
+      </c>
+      <c r="C32">
+        <v>1068013045</v>
+      </c>
+      <c r="D32">
+        <v>889848082</v>
+      </c>
+      <c r="E32">
+        <v>1646575571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>55884</v>
+      </c>
+      <c r="B33">
+        <v>31.5</v>
+      </c>
+      <c r="C33">
+        <v>996167673</v>
+      </c>
+      <c r="D33">
+        <v>873416674</v>
+      </c>
+      <c r="E33">
+        <v>1632954973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>56249</v>
+      </c>
+      <c r="B34">
+        <v>32.5</v>
+      </c>
+      <c r="C34">
+        <v>925650294</v>
+      </c>
+      <c r="D34">
+        <v>855102317</v>
+      </c>
+      <c r="E34">
+        <v>1614125151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>56614</v>
+      </c>
+      <c r="B35">
+        <v>33.5</v>
+      </c>
+      <c r="C35">
+        <v>856283753</v>
+      </c>
+      <c r="D35">
+        <v>835142005</v>
+      </c>
+      <c r="E35">
+        <v>1589982429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>56979</v>
+      </c>
+      <c r="B36">
+        <v>34.5</v>
+      </c>
+      <c r="C36">
+        <v>788340447</v>
+      </c>
+      <c r="D36">
+        <v>813817844</v>
+      </c>
+      <c r="E36">
+        <v>1560516237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>57345</v>
+      </c>
+      <c r="B37">
+        <v>35.5</v>
+      </c>
+      <c r="C37">
+        <v>722513225</v>
+      </c>
+      <c r="D37">
+        <v>791207737</v>
+      </c>
+      <c r="E37">
+        <v>1525871688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>57710</v>
+      </c>
+      <c r="B38">
+        <v>36.5</v>
+      </c>
+      <c r="C38">
+        <v>659835321</v>
+      </c>
+      <c r="D38">
+        <v>767587011</v>
+      </c>
+      <c r="E38">
+        <v>1486282577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>58075</v>
+      </c>
+      <c r="B39">
+        <v>37.5</v>
+      </c>
+      <c r="C39">
+        <v>600789201</v>
+      </c>
+      <c r="D39">
+        <v>742857052</v>
+      </c>
+      <c r="E39">
+        <v>1442544315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>58440</v>
+      </c>
+      <c r="B40">
+        <v>38.5</v>
+      </c>
+      <c r="C40">
+        <v>544745016</v>
+      </c>
+      <c r="D40">
+        <v>715183431</v>
+      </c>
+      <c r="E40">
+        <v>1395153550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>58806</v>
+      </c>
+      <c r="B41">
+        <v>39.5</v>
+      </c>
+      <c r="C41">
+        <v>492209500</v>
+      </c>
+      <c r="D41">
+        <v>684737177</v>
+      </c>
+      <c r="E41">
+        <v>1344502376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>59171</v>
+      </c>
+      <c r="B42">
+        <v>40.5</v>
+      </c>
+      <c r="C42">
+        <v>443006711</v>
+      </c>
+      <c r="D42">
+        <v>653840355</v>
+      </c>
+      <c r="E42">
+        <v>1290990587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>59536</v>
+      </c>
+      <c r="B43">
+        <v>41.5</v>
+      </c>
+      <c r="C43">
+        <v>397213541</v>
+      </c>
+      <c r="D43">
+        <v>623424114</v>
+      </c>
+      <c r="E43">
+        <v>1234983136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>59901</v>
+      </c>
+      <c r="B44">
+        <v>42.5</v>
+      </c>
+      <c r="C44">
+        <v>354785253</v>
+      </c>
+      <c r="D44">
+        <v>591803810</v>
+      </c>
+      <c r="E44">
+        <v>1177428733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>60267</v>
+      </c>
+      <c r="B45">
+        <v>43.5</v>
+      </c>
+      <c r="C45">
+        <v>315658210</v>
+      </c>
+      <c r="D45">
+        <v>558425426</v>
+      </c>
+      <c r="E45">
+        <v>1119232403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>60632</v>
+      </c>
+      <c r="B46">
+        <v>44.5</v>
+      </c>
+      <c r="C46">
+        <v>279723591</v>
+      </c>
+      <c r="D46">
+        <v>525126582</v>
+      </c>
+      <c r="E46">
+        <v>1060927222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>60997</v>
+      </c>
+      <c r="B47">
+        <v>45.5</v>
+      </c>
+      <c r="C47">
+        <v>246849906</v>
+      </c>
+      <c r="D47">
+        <v>492543561</v>
+      </c>
+      <c r="E47">
+        <v>1002913962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>61362</v>
+      </c>
+      <c r="B48">
+        <v>46.5</v>
+      </c>
+      <c r="C48">
+        <v>216889179</v>
+      </c>
+      <c r="D48">
+        <v>460770517</v>
+      </c>
+      <c r="E48">
+        <v>945519189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>61728</v>
+      </c>
+      <c r="B49">
+        <v>47.5</v>
+      </c>
+      <c r="C49">
+        <v>189682983</v>
+      </c>
+      <c r="D49">
+        <v>429860893</v>
+      </c>
+      <c r="E49">
+        <v>888872805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>62093</v>
+      </c>
+      <c r="B50">
+        <v>48.5</v>
+      </c>
+      <c r="C50">
+        <v>165074729</v>
+      </c>
+      <c r="D50">
+        <v>399861361</v>
+      </c>
+      <c r="E50">
+        <v>833101777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>62458</v>
+      </c>
+      <c r="B51">
+        <v>49.5</v>
+      </c>
+      <c r="C51">
+        <v>142904875</v>
+      </c>
+      <c r="D51">
+        <v>370831089</v>
+      </c>
+      <c r="E51">
+        <v>778578533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>62823</v>
+      </c>
+      <c r="B52">
+        <v>50.5</v>
+      </c>
+      <c r="C52">
+        <v>123015196</v>
+      </c>
+      <c r="D52">
+        <v>342807826</v>
+      </c>
+      <c r="E52">
+        <v>725555180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>63189</v>
+      </c>
+      <c r="B53">
+        <v>51.5</v>
+      </c>
+      <c r="C53">
+        <v>105250493</v>
+      </c>
+      <c r="D53">
+        <v>315821041</v>
+      </c>
+      <c r="E53">
+        <v>674066761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>63554</v>
+      </c>
+      <c r="B54">
+        <v>52.5</v>
+      </c>
+      <c r="C54">
+        <v>89461602</v>
+      </c>
+      <c r="D54">
+        <v>289901073</v>
+      </c>
+      <c r="E54">
+        <v>624157456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>63919</v>
+      </c>
+      <c r="B55">
+        <v>53.5</v>
+      </c>
+      <c r="C55">
+        <v>75505173</v>
+      </c>
+      <c r="D55">
+        <v>265078419</v>
+      </c>
+      <c r="E55">
+        <v>575878636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>64284</v>
+      </c>
+      <c r="B56">
+        <v>54.5</v>
+      </c>
+      <c r="C56">
+        <v>63243205</v>
+      </c>
+      <c r="D56">
+        <v>241382949</v>
+      </c>
+      <c r="E56">
+        <v>529273693</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>64650</v>
+      </c>
+      <c r="B57">
+        <v>55.5</v>
+      </c>
+      <c r="C57">
+        <v>52541143</v>
+      </c>
+      <c r="D57">
+        <v>218842965</v>
+      </c>
+      <c r="E57">
+        <v>484393657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>65015</v>
+      </c>
+      <c r="B58">
+        <v>56.5</v>
+      </c>
+      <c r="C58">
+        <v>43269832</v>
+      </c>
+      <c r="D58">
+        <v>197483183</v>
+      </c>
+      <c r="E58">
+        <v>441303798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>65380</v>
+      </c>
+      <c r="B59">
+        <v>57.5</v>
+      </c>
+      <c r="C59">
+        <v>35303929</v>
+      </c>
+      <c r="D59">
+        <v>177324107</v>
+      </c>
+      <c r="E59">
+        <v>400072156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>65745</v>
+      </c>
+      <c r="B60">
+        <v>58.5</v>
+      </c>
+      <c r="C60">
+        <v>28522975</v>
+      </c>
+      <c r="D60">
+        <v>158382128</v>
+      </c>
+      <c r="E60">
+        <v>360769886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>66111</v>
+      </c>
+      <c r="B61">
+        <v>59.5</v>
+      </c>
+      <c r="C61">
+        <v>22806219</v>
+      </c>
+      <c r="D61">
+        <v>140668623</v>
+      </c>
+      <c r="E61">
+        <v>323467408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>66476</v>
+      </c>
+      <c r="B62">
+        <v>60.5</v>
+      </c>
+      <c r="C62">
+        <v>18036808</v>
+      </c>
+      <c r="D62">
+        <v>124188470</v>
+      </c>
+      <c r="E62">
+        <v>288232776</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>66841</v>
+      </c>
+      <c r="B63">
+        <v>61.5</v>
+      </c>
+      <c r="C63">
+        <v>14107744</v>
+      </c>
+      <c r="D63">
+        <v>108939476</v>
+      </c>
+      <c r="E63">
+        <v>255130750</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>67206</v>
+      </c>
+      <c r="B64">
+        <v>62.5</v>
+      </c>
+      <c r="C64">
+        <v>10905306</v>
+      </c>
+      <c r="D64">
+        <v>94911599</v>
+      </c>
+      <c r="E64">
+        <v>224217958</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>67572</v>
+      </c>
+      <c r="B65">
+        <v>63.5</v>
+      </c>
+      <c r="C65">
+        <v>8329235</v>
+      </c>
+      <c r="D65">
+        <v>82087282</v>
+      </c>
+      <c r="E65">
+        <v>195539718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>67937</v>
+      </c>
+      <c r="B66">
+        <v>64.5</v>
+      </c>
+      <c r="C66">
+        <v>6288649</v>
+      </c>
+      <c r="D66">
+        <v>70442317</v>
+      </c>
+      <c r="E66">
+        <v>169127901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>68302</v>
+      </c>
+      <c r="B67">
+        <v>65.5</v>
+      </c>
+      <c r="C67">
+        <v>4693874</v>
+      </c>
+      <c r="D67">
+        <v>59945853</v>
+      </c>
+      <c r="E67">
+        <v>144998964</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>68667</v>
+      </c>
+      <c r="B68">
+        <v>66.5</v>
+      </c>
+      <c r="C68">
+        <v>3462171</v>
+      </c>
+      <c r="D68">
+        <v>50561016</v>
+      </c>
+      <c r="E68">
+        <v>123150132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>69033</v>
+      </c>
+      <c r="B69">
+        <v>67.5</v>
+      </c>
+      <c r="C69">
+        <v>2530386</v>
+      </c>
+      <c r="D69">
+        <v>42244890</v>
+      </c>
+      <c r="E69">
+        <v>103556311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69398</v>
+      </c>
+      <c r="B70">
+        <v>68.5</v>
+      </c>
+      <c r="C70">
+        <v>1834341</v>
+      </c>
+      <c r="D70">
+        <v>34946583</v>
+      </c>
+      <c r="E70">
+        <v>86168273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69763</v>
+      </c>
+      <c r="B71">
+        <v>69.5</v>
+      </c>
+      <c r="C71">
+        <v>1323215</v>
+      </c>
+      <c r="D71">
+        <v>28606601</v>
+      </c>
+      <c r="E71">
+        <v>70908819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70128</v>
+      </c>
+      <c r="B72">
+        <v>70.5</v>
+      </c>
+      <c r="C72">
+        <v>953097</v>
+      </c>
+      <c r="D72">
+        <v>23157919</v>
+      </c>
+      <c r="E72">
+        <v>57672047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>70494</v>
+      </c>
+      <c r="B73">
+        <v>71.5</v>
+      </c>
+      <c r="C73">
+        <v>689649</v>
+      </c>
+      <c r="D73">
+        <v>18527311</v>
+      </c>
+      <c r="E73">
+        <v>46328151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>70859</v>
+      </c>
+      <c r="B74">
+        <v>72.5</v>
+      </c>
+      <c r="C74">
+        <v>503526</v>
+      </c>
+      <c r="D74">
+        <v>14636881</v>
+      </c>
+      <c r="E74">
+        <v>36727939</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>71224</v>
+      </c>
+      <c r="B75">
+        <v>73.5</v>
+      </c>
+      <c r="C75">
+        <v>373781</v>
+      </c>
+      <c r="D75">
+        <v>11407027</v>
+      </c>
+      <c r="E75">
+        <v>28708889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>71589</v>
+      </c>
+      <c r="B76">
+        <v>74.5</v>
+      </c>
+      <c r="C76">
+        <v>284438</v>
+      </c>
+      <c r="D76">
+        <v>8760607</v>
+      </c>
+      <c r="E76">
+        <v>22104325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>71955</v>
+      </c>
+      <c r="B77">
+        <v>75.5</v>
+      </c>
+      <c r="C77">
+        <v>222792</v>
+      </c>
+      <c r="D77">
+        <v>6623550</v>
+      </c>
+      <c r="E77">
+        <v>16748288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>72320</v>
+      </c>
+      <c r="B78">
+        <v>76.5</v>
+      </c>
+      <c r="C78">
+        <v>179373</v>
+      </c>
+      <c r="D78">
+        <v>4924667</v>
+      </c>
+      <c r="E78">
+        <v>12475850</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>72685</v>
+      </c>
+      <c r="B79">
+        <v>77.5</v>
+      </c>
+      <c r="C79">
+        <v>149037</v>
+      </c>
+      <c r="D79">
+        <v>3596829</v>
+      </c>
+      <c r="E79">
+        <v>9127565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>73050</v>
+      </c>
+      <c r="B80">
+        <v>78.5</v>
+      </c>
+      <c r="C80">
+        <v>127193</v>
+      </c>
+      <c r="D80">
+        <v>2577772</v>
+      </c>
+      <c r="E80">
+        <v>6552450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>73415</v>
+      </c>
+      <c r="B81">
+        <v>79.5</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/time_series/annual_cashflows_data.xlsx
+++ b/data/time_series/annual_cashflows_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E5445A-9B3D-4CD4-BB4A-37A6B709CCB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C8723-B80B-4580-81DE-6784E4A9592A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
+    <workbookView xWindow="29580" yWindow="1260" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="1" r:id="rId1"/>
     <sheet name="Service Cost" sheetId="2" r:id="rId2"/>
     <sheet name="PVFB" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027456B0-4AAC-4E49-B406-E9435788ACC8}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,1362 +434,1363 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1204791461.3399999</v>
+        <v>1213627245.4200001</v>
       </c>
       <c r="D2">
-        <v>262634078.86805475</v>
+        <v>262659142.11859041</v>
       </c>
       <c r="E2">
-        <v>423998690.65212816</v>
+        <v>424015774.05129546</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>1261684103.96</v>
+        <v>1269439337.4100001</v>
       </c>
       <c r="D3">
-        <v>293598811.95267481</v>
+        <v>293647149.88196254</v>
       </c>
       <c r="E3">
-        <v>457035869.00254059</v>
+        <v>457065275.86267245</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
       <c r="C4">
-        <v>1322496063.3699999</v>
+        <v>1329411806.5599999</v>
       </c>
       <c r="D4">
-        <v>325396054.59743112</v>
+        <v>325472217.7202239</v>
       </c>
       <c r="E4">
-        <v>488364113.72205102</v>
+        <v>488405515.40864128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
       <c r="C5">
-        <v>1382472631.28</v>
+        <v>1388611025.73</v>
       </c>
       <c r="D5">
-        <v>357636538.34325933</v>
+        <v>357745042.83172649</v>
       </c>
       <c r="E5">
-        <v>516810890.43667734</v>
+        <v>516863212.12272674</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="B6">
         <v>4.5</v>
       </c>
       <c r="C6">
-        <v>1441834863.8</v>
+        <v>1447252732.9300001</v>
       </c>
       <c r="D6">
-        <v>389867992.82166582</v>
+        <v>390014113.85726863</v>
       </c>
       <c r="E6">
-        <v>540895445.84166336</v>
+        <v>540963075.93295217</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
       <c r="C7">
-        <v>1497751499.9100001</v>
+        <v>1502556821.4100001</v>
       </c>
       <c r="D7">
-        <v>421824066.83676833</v>
+        <v>422013825.0374046</v>
       </c>
       <c r="E7">
-        <v>563149236.18472266</v>
+        <v>563238770.2817446</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
       <c r="C8">
-        <v>1547726201.1400001</v>
+        <v>1552050232.1099999</v>
       </c>
       <c r="D8">
-        <v>453083228.76911718</v>
+        <v>453322828.62352318</v>
       </c>
       <c r="E8">
-        <v>583233736.5429765</v>
+        <v>583346925.73878193</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="B9">
         <v>7.5</v>
       </c>
       <c r="C9">
-        <v>1589102521.6800001</v>
+        <v>1593034537.02</v>
       </c>
       <c r="D9">
-        <v>483050223.38620663</v>
+        <v>483346116.48300433</v>
       </c>
       <c r="E9">
-        <v>600123509.97729051</v>
+        <v>600262968.05763745</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="B10">
         <v>8.5</v>
       </c>
       <c r="C10">
-        <v>1624760223.71</v>
+        <v>1628726662.4400001</v>
       </c>
       <c r="D10">
-        <v>511747783.55574632</v>
+        <v>512106964.06418198</v>
       </c>
       <c r="E10">
-        <v>614261963.29772615</v>
+        <v>614431256.93380749</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>47848</v>
+        <v>48213</v>
       </c>
       <c r="B11">
         <v>9.5</v>
       </c>
       <c r="C11">
-        <v>1655599731.8900001</v>
+        <v>1660081684.1800001</v>
       </c>
       <c r="D11">
-        <v>539361412.8522445</v>
+        <v>539789358.94055665</v>
       </c>
       <c r="E11">
-        <v>626198496.54223931</v>
+        <v>626399997.06846392</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48213</v>
+        <v>48579</v>
       </c>
       <c r="B12">
         <v>10.5</v>
       </c>
       <c r="C12">
-        <v>1680062491.04</v>
+        <v>1685320815.6700001</v>
       </c>
       <c r="D12">
-        <v>565225475.78990197</v>
+        <v>565726574.31639421</v>
       </c>
       <c r="E12">
-        <v>636984727.66776252</v>
+        <v>637224083.46310794</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="B13">
         <v>11.5</v>
       </c>
       <c r="C13">
-        <v>1698265090.71</v>
+        <v>1703990977.27</v>
       </c>
       <c r="D13">
-        <v>588581223.07479978</v>
+        <v>589160498.98871207</v>
       </c>
       <c r="E13">
-        <v>646269169.76537323</v>
+        <v>646549908.19188178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>48944</v>
+        <v>49309</v>
       </c>
       <c r="B14">
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>1709261484.5899999</v>
+        <v>1715411808.22</v>
       </c>
       <c r="D14">
-        <v>609029003.14335012</v>
+        <v>609690875.99307108</v>
       </c>
       <c r="E14">
-        <v>653679128.09410274</v>
+        <v>654004643.88014925</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49309</v>
+        <v>49674</v>
       </c>
       <c r="B15">
         <v>13.5</v>
       </c>
       <c r="C15">
-        <v>1710585940.3699999</v>
+        <v>1717248496.4400001</v>
       </c>
       <c r="D15">
-        <v>627070862.27018416</v>
+        <v>627819121.28365505</v>
       </c>
       <c r="E15">
-        <v>658968169.17953229</v>
+        <v>659341735.95668685</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>49674</v>
+        <v>50040</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
       <c r="C16">
-        <v>1707038833.55</v>
+        <v>1714174177.53</v>
       </c>
       <c r="D16">
-        <v>643001946.6930207</v>
+        <v>643839652.0939014</v>
       </c>
       <c r="E16">
-        <v>662868227.19537663</v>
+        <v>663292666.11693799</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50040</v>
+        <v>50405</v>
       </c>
       <c r="B17">
         <v>15.5</v>
       </c>
       <c r="C17">
-        <v>1696227089</v>
+        <v>1703777499.29</v>
       </c>
       <c r="D17">
-        <v>656624504.63606274</v>
+        <v>657553816.45534825</v>
       </c>
       <c r="E17">
-        <v>667087655.27668583</v>
+        <v>667565374.02980375</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50405</v>
+        <v>50770</v>
       </c>
       <c r="B18">
         <v>16.5</v>
       </c>
       <c r="C18">
-        <v>1679550885.01</v>
+        <v>1687725805.77</v>
       </c>
       <c r="D18">
-        <v>667830970.39621174</v>
+        <v>668853099.22501326</v>
       </c>
       <c r="E18">
-        <v>671666580.33637738</v>
+        <v>672200031.14548743</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>50770</v>
+        <v>51135</v>
       </c>
       <c r="B19">
         <v>17.5</v>
       </c>
       <c r="C19">
-        <v>1657636310.6199999</v>
+        <v>1666142611.4100001</v>
       </c>
       <c r="D19">
-        <v>677063908.48883176</v>
+        <v>678179158.23396182</v>
       </c>
       <c r="E19">
-        <v>675366947.85476351</v>
+        <v>675957099.92138398</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51135</v>
+        <v>51501</v>
       </c>
       <c r="B20">
         <v>18.5</v>
       </c>
       <c r="C20">
-        <v>1631475390.97</v>
+        <v>1640558569.6800001</v>
       </c>
       <c r="D20">
-        <v>684505897.8794055</v>
+        <v>685713582.29591227</v>
       </c>
       <c r="E20">
-        <v>677533260.62664318</v>
+        <v>678178758.23305225</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51501</v>
+        <v>51866</v>
       </c>
       <c r="B21">
         <v>19.5</v>
       </c>
       <c r="C21">
-        <v>1598958726.3499999</v>
+        <v>1608435694.3599999</v>
       </c>
       <c r="D21">
-        <v>690200183.10835409</v>
+        <v>691498472.09422243</v>
       </c>
       <c r="E21">
-        <v>677977389.5571543</v>
+        <v>678671493.26447356</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>51866</v>
+        <v>52231</v>
       </c>
       <c r="B22">
         <v>20.5</v>
       </c>
       <c r="C22">
-        <v>1563480484.0699999</v>
+        <v>1573397888.3099999</v>
       </c>
       <c r="D22">
-        <v>694373074.82569456</v>
+        <v>695759069.0108918</v>
       </c>
       <c r="E22">
-        <v>676598184.35184896</v>
+        <v>677334354.24249148</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52231</v>
+        <v>52596</v>
       </c>
       <c r="B23">
         <v>21.5</v>
       </c>
       <c r="C23">
-        <v>1523850232.3399999</v>
+        <v>1534121579.9400001</v>
       </c>
       <c r="D23">
-        <v>696997876.98309791</v>
+        <v>698467634.44513285</v>
       </c>
       <c r="E23">
-        <v>673340112.69752216</v>
+        <v>674115982.06267798</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52596</v>
+        <v>52962</v>
       </c>
       <c r="B24">
         <v>22.5</v>
       </c>
       <c r="C24">
-        <v>1482354519.6800001</v>
+        <v>1492897667.3299999</v>
       </c>
       <c r="D24">
-        <v>697824022.70833158</v>
+        <v>699372552.20554912</v>
       </c>
       <c r="E24">
-        <v>668389054.91703832</v>
+        <v>669200470.54096711</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>52962</v>
+        <v>53327</v>
       </c>
       <c r="B25">
         <v>23.5</v>
       </c>
       <c r="C25">
-        <v>1435259677.53</v>
+        <v>1446057869.3800001</v>
       </c>
       <c r="D25">
-        <v>696290143.69906712</v>
+        <v>697911404.50421655</v>
       </c>
       <c r="E25">
-        <v>661621285.5108633</v>
+        <v>662461057.13785613</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53327</v>
+        <v>53692</v>
       </c>
       <c r="B26">
         <v>24.5</v>
       </c>
       <c r="C26">
-        <v>1383834164.77</v>
+        <v>1394912230.05</v>
       </c>
       <c r="D26">
-        <v>692263299.32491088</v>
+        <v>693950320.83901548</v>
       </c>
       <c r="E26">
-        <v>652890397.41032803</v>
+        <v>653748623.38036883</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>53692</v>
+        <v>54057</v>
       </c>
       <c r="B27">
         <v>25.5</v>
       </c>
       <c r="C27">
-        <v>1329867199.02</v>
+        <v>1341111105.48</v>
       </c>
       <c r="D27">
-        <v>686445051.58950925</v>
+        <v>688190164.6527648</v>
       </c>
       <c r="E27">
-        <v>642318916.72912443</v>
+        <v>643184810.84966457</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54057</v>
+        <v>54423</v>
       </c>
       <c r="B28">
         <v>26.5</v>
       </c>
       <c r="C28">
-        <v>1271892300.79</v>
+        <v>1283077822.3499999</v>
       </c>
       <c r="D28">
-        <v>679015242.55001354</v>
+        <v>680810227.93361127</v>
       </c>
       <c r="E28">
-        <v>629850839.04606318</v>
+        <v>630714294.71687984</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54423</v>
+        <v>54788</v>
       </c>
       <c r="B29">
         <v>27.5</v>
       </c>
       <c r="C29">
-        <v>1210269060.6800001</v>
+        <v>1221426484.76</v>
       </c>
       <c r="D29">
-        <v>669640962.33503735</v>
+        <v>671477097.23769784</v>
       </c>
       <c r="E29">
-        <v>615598525.00477409</v>
+        <v>616448234.49187398</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>54788</v>
+        <v>55153</v>
       </c>
       <c r="B30">
         <v>28.5</v>
       </c>
       <c r="C30">
-        <v>1145412617.8499999</v>
+        <v>1156480555.03</v>
       </c>
       <c r="D30">
-        <v>657921954.22511756</v>
+        <v>659790275.68906605</v>
       </c>
       <c r="E30">
-        <v>599751325.54945016</v>
+        <v>600573880.64061856</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55153</v>
+        <v>55518</v>
       </c>
       <c r="B31">
         <v>29.5</v>
       </c>
       <c r="C31">
-        <v>1076404503.6700001</v>
+        <v>1087328191.0699999</v>
       </c>
       <c r="D31">
-        <v>643510723.73321092</v>
+        <v>645402297.92353272</v>
       </c>
       <c r="E31">
-        <v>588168131.71957743</v>
+        <v>588969020.39382529</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55518</v>
+        <v>55884</v>
       </c>
       <c r="B32">
         <v>30.5</v>
       </c>
       <c r="C32">
-        <v>1008029899.3</v>
+        <v>1018731306.6</v>
       </c>
       <c r="D32">
-        <v>626939154.94546282</v>
+        <v>628845197.47830248</v>
       </c>
       <c r="E32">
-        <v>653387589.29023552</v>
+        <v>654617847.92331505</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>55884</v>
+        <v>56249</v>
       </c>
       <c r="B33">
         <v>31.5</v>
       </c>
       <c r="C33">
-        <v>935671684.97000003</v>
+        <v>946062645.11000001</v>
       </c>
       <c r="D33">
-        <v>608826593.11605942</v>
+        <v>610738672.94004881</v>
       </c>
       <c r="E33">
-        <v>698844972.77194655</v>
+        <v>700458249.75067556</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56249</v>
+        <v>56614</v>
       </c>
       <c r="B34">
         <v>32.5</v>
       </c>
       <c r="C34">
-        <v>864422154.88999999</v>
+        <v>874426793.99000001</v>
       </c>
       <c r="D34">
-        <v>589558394.95561635</v>
+        <v>591468532.89777243</v>
       </c>
       <c r="E34">
-        <v>660420001.59486413</v>
+        <v>661931725.8571496</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56614</v>
+        <v>56979</v>
       </c>
       <c r="B35">
         <v>33.5</v>
       </c>
       <c r="C35">
-        <v>795277596.66999996</v>
+        <v>804894914.36000001</v>
       </c>
       <c r="D35">
-        <v>569427676.29612637</v>
+        <v>571328378.64560461</v>
       </c>
       <c r="E35">
-        <v>621381776.77250683</v>
+        <v>622775801.94075274</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>56979</v>
+        <v>57345</v>
       </c>
       <c r="B36">
         <v>34.5</v>
       </c>
       <c r="C36">
-        <v>727284046.83000004</v>
+        <v>736476970.73000002</v>
       </c>
       <c r="D36">
-        <v>548691389.97646964</v>
+        <v>550575773.560853</v>
       </c>
       <c r="E36">
-        <v>582076475.15552306</v>
+        <v>583337433.7355845</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57345</v>
+        <v>57710</v>
       </c>
       <c r="B37">
         <v>35.5</v>
       </c>
       <c r="C37">
-        <v>661931652.08000004</v>
+        <v>670670606.39999998</v>
       </c>
       <c r="D37">
-        <v>527499214.43699014</v>
+        <v>529361071.24776328</v>
       </c>
       <c r="E37">
-        <v>549820389.69532466</v>
+        <v>550942897.15521514</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>57710</v>
+        <v>58075</v>
       </c>
       <c r="B38">
         <v>36.5</v>
       </c>
       <c r="C38">
-        <v>600713631.44000006</v>
+        <v>608971991.13</v>
       </c>
       <c r="D38">
-        <v>506161620.12620246</v>
+        <v>507995421.29784733</v>
       </c>
       <c r="E38">
-        <v>519636701.80387092</v>
+        <v>520626161.2241593</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58075</v>
+        <v>58440</v>
       </c>
       <c r="B39">
         <v>37.5</v>
       </c>
       <c r="C39">
-        <v>543503507.77999997</v>
+        <v>551270901.30999994</v>
       </c>
       <c r="D39">
-        <v>484849273.6292091</v>
+        <v>486650182.30266255</v>
       </c>
       <c r="E39">
-        <v>483785557.11718094</v>
+        <v>484646188.42140341</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58440</v>
+        <v>58806</v>
       </c>
       <c r="B40">
         <v>38.5</v>
       </c>
       <c r="C40">
-        <v>489631585.82999998</v>
+        <v>496897872.72000003</v>
       </c>
       <c r="D40">
-        <v>463424680.29984099</v>
+        <v>465188469.71478313</v>
       </c>
       <c r="E40">
-        <v>448893140.57785767</v>
+        <v>449628286.54489565</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>58806</v>
+        <v>59171</v>
       </c>
       <c r="B41">
         <v>39.5</v>
       </c>
       <c r="C41">
-        <v>439631907.01999998</v>
+        <v>446392131.32999998</v>
       </c>
       <c r="D41">
-        <v>441310693.03812325</v>
+        <v>443033598.73878902</v>
       </c>
       <c r="E41">
-        <v>415173964.58602273</v>
+        <v>415783852.15479821</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59171</v>
+        <v>59536</v>
       </c>
       <c r="B42">
         <v>40.5</v>
       </c>
       <c r="C42">
-        <v>393305841.63</v>
+        <v>399563847.73000002</v>
       </c>
       <c r="D42">
-        <v>418767068.6559965</v>
+        <v>420445956.41725731</v>
       </c>
       <c r="E42">
-        <v>382794997.85995734</v>
+        <v>383281984.03516048</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59536</v>
+        <v>59901</v>
       </c>
       <c r="B43">
         <v>41.5</v>
       </c>
       <c r="C43">
-        <v>350515822.82999998</v>
+        <v>356279034.27999997</v>
       </c>
       <c r="D43">
-        <v>396762797.41653097</v>
+        <v>398395271.62121898</v>
       </c>
       <c r="E43">
-        <v>351880590.91962433</v>
+        <v>352252008.24275076</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>59901</v>
+        <v>60267</v>
       </c>
       <c r="B44">
         <v>42.5</v>
       </c>
       <c r="C44">
-        <v>311145280.41000003</v>
+        <v>316424106.57999998</v>
       </c>
       <c r="D44">
-        <v>375461785.23772132</v>
+        <v>377046021.55714232</v>
       </c>
       <c r="E44">
-        <v>322545517.51257885</v>
+        <v>322811822.83203197</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60267</v>
+        <v>60632</v>
       </c>
       <c r="B45">
         <v>43.5</v>
       </c>
       <c r="C45">
-        <v>275091549.37</v>
+        <v>279903321.61000001</v>
       </c>
       <c r="D45">
-        <v>353466511.58123702</v>
+        <v>355000804.03109366</v>
       </c>
       <c r="E45">
-        <v>294865683.57015115</v>
+        <v>295036481.24885195</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60632</v>
+        <v>60997</v>
       </c>
       <c r="B46">
         <v>44.5</v>
       </c>
       <c r="C46">
-        <v>242224263.16999999</v>
+        <v>246586556.37</v>
       </c>
       <c r="D46">
-        <v>330671756.08568138</v>
+        <v>332154553.53467178</v>
       </c>
       <c r="E46">
-        <v>268868833.65329564</v>
+        <v>268953117.07541275</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>60997</v>
+        <v>61362</v>
       </c>
       <c r="B47">
         <v>45.5</v>
       </c>
       <c r="C47">
-        <v>212391949.90000001</v>
+        <v>216326458.81999999</v>
       </c>
       <c r="D47">
-        <v>308492571.5501678</v>
+        <v>309922789.65834373</v>
       </c>
       <c r="E47">
-        <v>244548929.34735674</v>
+        <v>244555347.35137379</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61362</v>
+        <v>61728</v>
       </c>
       <c r="B48">
         <v>46.5</v>
       </c>
       <c r="C48">
-        <v>185423082.74000001</v>
+        <v>188953210.80000001</v>
       </c>
       <c r="D48">
-        <v>287085695.3927772</v>
+        <v>288462425.10470229</v>
       </c>
       <c r="E48">
-        <v>221877002.58173776</v>
+        <v>221813807.83115515</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>61728</v>
+        <v>62093</v>
       </c>
       <c r="B49">
         <v>47.5</v>
       </c>
       <c r="C49">
-        <v>161127814.69999999</v>
+        <v>164278363.03999999</v>
       </c>
       <c r="D49">
-        <v>266466047.74623165</v>
+        <v>267788518.32217118</v>
       </c>
       <c r="E49">
-        <v>200809694.01692224</v>
+        <v>200684753.11110151</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62093</v>
+        <v>62458</v>
       </c>
       <c r="B50">
         <v>48.5</v>
       </c>
       <c r="C50">
-        <v>139324600.22999999</v>
+        <v>142120875.03999999</v>
       </c>
       <c r="D50">
-        <v>246643354.27556399</v>
+        <v>247910874.3647587</v>
       </c>
       <c r="E50">
-        <v>181286179.74440762</v>
+        <v>181108394.59670976</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62458</v>
+        <v>62823</v>
       </c>
       <c r="B51">
         <v>49.5</v>
       </c>
       <c r="C51">
-        <v>119832709.29000001</v>
+        <v>122300164.87</v>
       </c>
       <c r="D51">
-        <v>227627666.03523669</v>
+        <v>228839536.62758189</v>
       </c>
       <c r="E51">
-        <v>163240968.26349261</v>
+        <v>163019465.61501855</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>62823</v>
+        <v>63189</v>
       </c>
       <c r="B52">
         <v>50.5</v>
       </c>
       <c r="C52">
-        <v>102476825.41</v>
+        <v>104640857.15000001</v>
       </c>
       <c r="D52">
-        <v>209424932.47206366</v>
+        <v>210580402.0469687</v>
       </c>
       <c r="E52">
-        <v>146603067.26565558</v>
+        <v>146345463.57891101</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63189</v>
+        <v>63554</v>
       </c>
       <c r="B53">
         <v>51.5</v>
       </c>
       <c r="C53">
-        <v>87089114.739999995</v>
+        <v>88974717.420000002</v>
       </c>
       <c r="D53">
-        <v>192038173.69757831</v>
+        <v>193136441.03002697</v>
       </c>
       <c r="E53">
-        <v>131293508.95752665</v>
+        <v>131006499.70167373</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63554</v>
+        <v>63919</v>
       </c>
       <c r="B54">
         <v>52.5</v>
       </c>
       <c r="C54">
-        <v>73511609.549999997</v>
+        <v>75143356.760000005</v>
       </c>
       <c r="D54">
-        <v>175471233.67381138</v>
+        <v>176511591.38236633</v>
       </c>
       <c r="E54">
-        <v>117232487.54245569</v>
+        <v>116922505.81858487</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>63919</v>
+        <v>64284</v>
       </c>
       <c r="B55">
         <v>53.5</v>
       </c>
       <c r="C55">
-        <v>61595674.420000002</v>
+        <v>62997487.109999999</v>
       </c>
       <c r="D55">
-        <v>159728559.69934794</v>
+        <v>160710529.94410756</v>
       </c>
       <c r="E55">
-        <v>104343414.16807429</v>
+        <v>104016625.59105338</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64284</v>
+        <v>64650</v>
       </c>
       <c r="B56">
         <v>54.5</v>
       </c>
       <c r="C56">
-        <v>51201347.090000004</v>
+        <v>52396035.57</v>
       </c>
       <c r="D56">
-        <v>144814596.11188632</v>
+        <v>145737855.10951975</v>
       </c>
       <c r="E56">
-        <v>92552755.582653418</v>
+        <v>92214859.748915792</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>64650</v>
+        <v>65015</v>
       </c>
       <c r="B57">
         <v>55.5</v>
       </c>
       <c r="C57">
-        <v>42196136.259999998</v>
+        <v>43205358.789999999</v>
       </c>
       <c r="D57">
-        <v>130733090.70836087</v>
+        <v>131597372.44534118</v>
       </c>
       <c r="E57">
-        <v>81790471.970618874</v>
+        <v>81446613.403591797</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65015</v>
+        <v>65380</v>
       </c>
       <c r="B58">
         <v>56.5</v>
       </c>
       <c r="C58">
-        <v>34454303.310000002</v>
+        <v>35298638.060000002</v>
       </c>
       <c r="D58">
-        <v>117485915.94008407</v>
+        <v>118291129.90186666</v>
       </c>
       <c r="E58">
-        <v>71987633.500628784</v>
+        <v>71642420.750188708</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65380</v>
+        <v>65745</v>
       </c>
       <c r="B59">
         <v>57.5</v>
       </c>
       <c r="C59">
-        <v>27855216.41</v>
+        <v>28554178.98</v>
       </c>
       <c r="D59">
-        <v>105072785.69463697</v>
+        <v>105819098.00988619</v>
       </c>
       <c r="E59">
-        <v>63086243.503159821</v>
+        <v>62743807.462651148</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>65745</v>
+        <v>66111</v>
       </c>
       <c r="B60">
         <v>58.5</v>
       </c>
       <c r="C60">
-        <v>22283689.640000001</v>
+        <v>22855775.390000001</v>
       </c>
       <c r="D60">
-        <v>93491570.528442055</v>
+        <v>94179444.085991025</v>
       </c>
       <c r="E60">
-        <v>55024822.767313123</v>
+        <v>54688813.412922546</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66111</v>
+        <v>66476</v>
       </c>
       <c r="B61">
         <v>59.5</v>
       </c>
       <c r="C61">
-        <v>17629531.32</v>
+        <v>18092107.66</v>
       </c>
       <c r="D61">
-        <v>82737336.623664111</v>
+        <v>83367610.267755643</v>
       </c>
       <c r="E61">
-        <v>47747879.503264815</v>
+        <v>47421568.635305598</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66476</v>
+        <v>66841</v>
       </c>
       <c r="B62">
         <v>60.5</v>
       </c>
       <c r="C62">
-        <v>13785284.68</v>
+        <v>14154394.720000001</v>
       </c>
       <c r="D62">
-        <v>72801169.216900662</v>
+        <v>73375064.046192244</v>
       </c>
       <c r="E62">
-        <v>41203428.489457466</v>
+        <v>40889651.017982721</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>66841</v>
+        <v>67206</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
       <c r="C63">
-        <v>10648804.609999999</v>
+        <v>10939135.16</v>
       </c>
       <c r="D63">
-        <v>63669789.572720066</v>
+        <v>64188864.743345246</v>
       </c>
       <c r="E63">
-        <v>35342981.697424844</v>
+        <v>35044137.800875515</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67206</v>
+        <v>67572</v>
       </c>
       <c r="B64">
         <v>62.5</v>
       </c>
       <c r="C64">
-        <v>8124576.7800000003</v>
+        <v>8349468.79</v>
       </c>
       <c r="D64">
-        <v>55325128.176718973</v>
+        <v>55791231.950221665</v>
       </c>
       <c r="E64">
-        <v>30120344.18809896</v>
+        <v>29838429.274073739</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67572</v>
+        <v>67937</v>
       </c>
       <c r="B65">
         <v>63.5</v>
       </c>
       <c r="C65">
-        <v>6120724.46</v>
+        <v>6292149.3200000003</v>
       </c>
       <c r="D65">
-        <v>47744568.034139924</v>
+        <v>48159858.818404883</v>
       </c>
       <c r="E65">
-        <v>25491261.917743269</v>
+        <v>25227871.031134009</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>67937</v>
+        <v>68302</v>
       </c>
       <c r="B66">
         <v>64.5</v>
       </c>
       <c r="C66">
-        <v>4553073.71</v>
+        <v>4681602.5999999996</v>
       </c>
       <c r="D66">
-        <v>40901495.523963317</v>
+        <v>41268534.154762141</v>
       </c>
       <c r="E66">
-        <v>21412884.609433409</v>
+        <v>21169250.973493949</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68302</v>
+        <v>68667</v>
       </c>
       <c r="B67">
         <v>65.5</v>
       </c>
       <c r="C67">
-        <v>3347289.49</v>
+        <v>3442042.69</v>
       </c>
       <c r="D67">
-        <v>34766301.009786725</v>
+        <v>35088009.083248474</v>
       </c>
       <c r="E67">
-        <v>17843594.978496961</v>
+        <v>17620572.402046002</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68667</v>
+        <v>69033</v>
       </c>
       <c r="B68">
         <v>66.5</v>
       </c>
       <c r="C68">
-        <v>2432744.33</v>
+        <v>2501370.7400000002</v>
       </c>
       <c r="D68">
-        <v>29306437.080577768</v>
+        <v>29585938.246604353</v>
       </c>
       <c r="E68">
-        <v>14742657.851407552</v>
+        <v>14540723.948767908</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69033</v>
+        <v>69398</v>
       </c>
       <c r="B69">
         <v>67.5</v>
       </c>
       <c r="C69">
-        <v>1752548.29</v>
+        <v>1801365.37</v>
       </c>
       <c r="D69">
-        <v>24486817.612876423</v>
+        <v>24727341.601288818</v>
       </c>
       <c r="E69">
-        <v>12070010.896944989</v>
+        <v>11889269.356152872</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69398</v>
+        <v>69763</v>
       </c>
       <c r="B70">
         <v>68.5</v>
       </c>
       <c r="C70">
-        <v>1254726.32</v>
+        <v>1288860.3899999999</v>
       </c>
       <c r="D70">
-        <v>20269672.595261738</v>
+        <v>20474491.845707566</v>
       </c>
       <c r="E70">
-        <v>9786430.1858253013</v>
+        <v>9626534.1361398604</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69763</v>
+        <v>70128</v>
       </c>
       <c r="B71">
         <v>69.5</v>
       </c>
       <c r="C71">
-        <v>898339.49</v>
+        <v>921855.78</v>
       </c>
       <c r="D71">
-        <v>16614284.699550368</v>
+        <v>16786740.768610012</v>
       </c>
       <c r="E71">
-        <v>7853472.2616992518</v>
+        <v>7713663.9164395034</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70128</v>
+        <v>70494</v>
       </c>
       <c r="B72">
         <v>70.5</v>
       </c>
       <c r="C72">
-        <v>646015.43999999994</v>
+        <v>662042.9</v>
       </c>
       <c r="D72">
-        <v>13477094.061564991</v>
+        <v>13620604.391801871</v>
       </c>
       <c r="E72">
-        <v>6233473.0352941686</v>
+        <v>6112659.9901514407</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70494</v>
+        <v>70859</v>
       </c>
       <c r="B73">
         <v>71.5</v>
       </c>
       <c r="C73">
-        <v>471257.51</v>
+        <v>482102.5</v>
       </c>
       <c r="D73">
-        <v>10812522.387184499</v>
+        <v>10930497.129484463</v>
       </c>
       <c r="E73">
-        <v>4890039.405112355</v>
+        <v>4786871.5371281961</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>70859</v>
+        <v>71224</v>
       </c>
       <c r="B74">
         <v>72.5</v>
       </c>
       <c r="C74">
-        <v>351379.28</v>
+        <v>358689.48</v>
       </c>
       <c r="D74">
-        <v>8573821.087596124</v>
+        <v>8669542.5472833775</v>
       </c>
       <c r="E74">
-        <v>3788484.8709427943</v>
+        <v>3701449.3464187072</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71224</v>
+        <v>71589</v>
       </c>
       <c r="B75">
         <v>73.5</v>
       </c>
       <c r="C75">
-        <v>269701.94</v>
+        <v>274637.03000000003</v>
       </c>
       <c r="D75">
-        <v>6713741.8514094828</v>
+        <v>6790276.0898670088</v>
       </c>
       <c r="E75">
-        <v>2896118.3862508121</v>
+        <v>2823622.4151561731</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71589</v>
+        <v>71955</v>
       </c>
       <c r="B76">
         <v>74.5</v>
       </c>
       <c r="C76">
-        <v>214593.44</v>
+        <v>217960.23</v>
       </c>
       <c r="D76">
-        <v>5186249.9305107808</v>
+        <v>5246397.4382971078</v>
       </c>
       <c r="E76">
-        <v>2182588.4703057469</v>
+        <v>2123037.990304952</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>71955</v>
+        <v>72320</v>
       </c>
       <c r="B77">
         <v>75.5</v>
       </c>
       <c r="C77">
-        <v>176933.39</v>
+        <v>179288.09</v>
       </c>
       <c r="D77">
-        <v>3948189.7343635545</v>
+        <v>3994524.3894720506</v>
       </c>
       <c r="E77">
-        <v>1620102.5713843291</v>
+        <v>1571921.1952047334</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72320</v>
+        <v>72685</v>
       </c>
       <c r="B78">
         <v>76.5</v>
       </c>
       <c r="C78">
-        <v>150322.99</v>
+        <v>152044.59</v>
       </c>
       <c r="D78">
-        <v>2959046.6048263004</v>
+        <v>2993947.7880517975</v>
       </c>
       <c r="E78">
-        <v>1183429.5575376227</v>
+        <v>1145057.9585733623</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>72685</v>
+        <v>73050</v>
       </c>
       <c r="B79">
         <v>77.5</v>
       </c>
       <c r="C79">
-        <v>130039.49</v>
+        <v>131376.57</v>
       </c>
       <c r="D79">
-        <v>2180927.6856686897</v>
+        <v>2206544.1572660301</v>
       </c>
       <c r="E79">
-        <v>849944.31270371913</v>
+        <v>819894.01799540711</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73050</v>
+        <v>73415</v>
       </c>
       <c r="B80">
         <v>78.5</v>
       </c>
       <c r="C80">
-        <v>115280.23</v>
+        <v>116384.47</v>
       </c>
       <c r="D80">
-        <v>1579032.9488149334</v>
+        <v>1597268.9566045678</v>
       </c>
       <c r="E80">
-        <v>599674.33110637614</v>
+        <v>576571.23908656347</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>73415</v>
+        <f>+EOMONTH(A80,12)</f>
+        <v>73780</v>
       </c>
       <c r="B81">
         <v>79.5</v>
       </c>
       <c r="C81">
-        <v>103984.81</v>
+        <v>104942.29</v>
       </c>
       <c r="D81">
-        <v>1121814.0427343096</v>
+        <v>1134320.121852173</v>
       </c>
       <c r="E81">
-        <v>415303.93687296356</v>
+        <v>397899.28710025933</v>
       </c>
     </row>
   </sheetData>
@@ -1801,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B07887-8F52-4ACD-9003-CB270BD2655C}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,1362 +1831,1363 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1511573.39</v>
+        <v>1480324.2242113794</v>
       </c>
       <c r="D2">
-        <v>151550.67918911797</v>
+        <v>151542.48964270126</v>
       </c>
       <c r="E2">
-        <v>856224.83884138486</v>
+        <v>853507.28582016868</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>4341798.12</v>
+        <v>4293848.9963713167</v>
       </c>
       <c r="D3">
-        <v>637883.94351329131</v>
+        <v>637893.46071151469</v>
       </c>
       <c r="E3">
-        <v>3265972.6679074764</v>
+        <v>3257449.0224890145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
       <c r="C4">
-        <v>6325185.1100000003</v>
+        <v>6250301.123915934</v>
       </c>
       <c r="D4">
-        <v>1364456.9090522903</v>
+        <v>1364554.9920054036</v>
       </c>
       <c r="E4">
-        <v>6377870.8487443989</v>
+        <v>6362006.883028524</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
       <c r="C5">
-        <v>8362114.7400000002</v>
+        <v>8255049.3938409537</v>
       </c>
       <c r="D5">
-        <v>2184367.234969791</v>
+        <v>2184632.6095532193</v>
       </c>
       <c r="E5">
-        <v>9520245.220500255</v>
+        <v>9494575.7567297313</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="B6">
         <v>4.5</v>
       </c>
       <c r="C6">
-        <v>10514285.02</v>
+        <v>10381431.015817547</v>
       </c>
       <c r="D6">
-        <v>3091714.3883323232</v>
+        <v>3092235.2306645936</v>
       </c>
       <c r="E6">
-        <v>12717740.88156859</v>
+        <v>12675105.103187175</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
       <c r="C7">
-        <v>12623040.98</v>
+        <v>12468679.159448257</v>
       </c>
       <c r="D7">
-        <v>4047642.4320886219</v>
+        <v>4048521.5742307245</v>
       </c>
       <c r="E7">
-        <v>15895660.431755725</v>
+        <v>15830626.075603152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
       <c r="C8">
-        <v>14685498.75</v>
+        <v>14510734.540319595</v>
       </c>
       <c r="D8">
-        <v>5008064.005692088</v>
+        <v>5009412.0818245653</v>
       </c>
       <c r="E8">
-        <v>18972997.307288293</v>
+        <v>18885035.388521247</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="B9">
         <v>7.5</v>
       </c>
       <c r="C9">
-        <v>16613936.24</v>
+        <v>16421348.350879114</v>
       </c>
       <c r="D9">
-        <v>5971958.5223571537</v>
+        <v>5973902.2814260796</v>
       </c>
       <c r="E9">
-        <v>21944840.502876922</v>
+        <v>21832458.516819932</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="B10">
         <v>8.5</v>
       </c>
       <c r="C10">
-        <v>18423386.530000001</v>
+        <v>18213902.233152557</v>
       </c>
       <c r="D10">
-        <v>6928982.9538100325</v>
+        <v>6931660.0427241577</v>
       </c>
       <c r="E10">
-        <v>24819653.988351468</v>
+        <v>24681967.311602328</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>47848</v>
+        <v>48213</v>
       </c>
       <c r="B11">
         <v>9.5</v>
       </c>
       <c r="C11">
-        <v>20212010.289999999</v>
+        <v>19988908.498620246</v>
       </c>
       <c r="D11">
-        <v>7882297.9762343671</v>
+        <v>7885857.5997140491</v>
       </c>
       <c r="E11">
-        <v>27611179.965251222</v>
+        <v>27444356.326740008</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48213</v>
+        <v>48579</v>
       </c>
       <c r="B12">
         <v>10.5</v>
       </c>
       <c r="C12">
-        <v>21929957.129999999</v>
+        <v>21694750.859167647</v>
       </c>
       <c r="D12">
-        <v>8826003.869571574</v>
+        <v>8830605.4775795564</v>
       </c>
       <c r="E12">
-        <v>30314492.058358438</v>
+        <v>30119575.722258911</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="B13">
         <v>11.5</v>
       </c>
       <c r="C13">
-        <v>23578866.829999998</v>
+        <v>23342197.322482944</v>
       </c>
       <c r="D13">
-        <v>9738667.4972139075</v>
+        <v>9744476.111208722</v>
       </c>
       <c r="E13">
-        <v>32934028.201668572</v>
+        <v>32708480.127799407</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>48944</v>
+        <v>49309</v>
       </c>
       <c r="B14">
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>25079893.109999999</v>
+        <v>24839304.334838618</v>
       </c>
       <c r="D14">
-        <v>10610528.185557656</v>
+        <v>10617709.88625619</v>
       </c>
       <c r="E14">
-        <v>35449567.981428668</v>
+        <v>35190409.831031986</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49309</v>
+        <v>49674</v>
       </c>
       <c r="B15">
         <v>13.5</v>
       </c>
       <c r="C15">
-        <v>26403550.949999999</v>
+        <v>26159309.899691425</v>
       </c>
       <c r="D15">
-        <v>11448220.488674341</v>
+        <v>11456942.424841568</v>
       </c>
       <c r="E15">
-        <v>37837366.699690461</v>
+        <v>37541587.01752907</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>49674</v>
+        <v>50040</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
       <c r="C16">
-        <v>27779064.280000001</v>
+        <v>27541802.855674695</v>
       </c>
       <c r="D16">
-        <v>12252624.576268621</v>
+        <v>12263050.863420643</v>
       </c>
       <c r="E16">
-        <v>40116580.753044814</v>
+        <v>39780960.034711972</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50040</v>
+        <v>50405</v>
       </c>
       <c r="B17">
         <v>15.5</v>
       </c>
       <c r="C17">
-        <v>28902304.210000001</v>
+        <v>28663625.78265458</v>
       </c>
       <c r="D17">
-        <v>13020632.201723732</v>
+        <v>13032920.820406914</v>
       </c>
       <c r="E17">
-        <v>42309618.348045804</v>
+        <v>41929905.526509926</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50405</v>
+        <v>50770</v>
       </c>
       <c r="B18">
         <v>16.5</v>
       </c>
       <c r="C18">
-        <v>29852293.030000001</v>
+        <v>29624272.753358331</v>
       </c>
       <c r="D18">
-        <v>13758245.666097505</v>
+        <v>13772547.003720837</v>
       </c>
       <c r="E18">
-        <v>44419338.849225335</v>
+        <v>43991417.091912232</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>50770</v>
+        <v>51135</v>
       </c>
       <c r="B19">
         <v>17.5</v>
       </c>
       <c r="C19">
-        <v>30784820.989999998</v>
+        <v>30571984.938739978</v>
       </c>
       <c r="D19">
-        <v>14466885.601223372</v>
+        <v>14483340.795611482</v>
       </c>
       <c r="E19">
-        <v>46452658.834001057</v>
+        <v>45972334.145702273</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51135</v>
+        <v>51501</v>
       </c>
       <c r="B20">
         <v>18.5</v>
       </c>
       <c r="C20">
-        <v>31633981.32</v>
+        <v>31449101.197673738</v>
       </c>
       <c r="D20">
-        <v>15162159.539074559</v>
+        <v>15180895.092506493</v>
       </c>
       <c r="E20">
-        <v>48417140.988087013</v>
+        <v>47878551.280887984</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51501</v>
+        <v>51866</v>
       </c>
       <c r="B21">
         <v>19.5</v>
       </c>
       <c r="C21">
-        <v>32241095.699999999</v>
+        <v>32082190.115630936</v>
       </c>
       <c r="D21">
-        <v>15851555.790506342</v>
+        <v>15872676.626797147</v>
       </c>
       <c r="E21">
-        <v>50297447.620058857</v>
+        <v>49688877.118642777</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>51866</v>
+        <v>52231</v>
       </c>
       <c r="B22">
         <v>20.5</v>
       </c>
       <c r="C22">
-        <v>32620526.489999998</v>
+        <v>32466828.128840819</v>
       </c>
       <c r="D22">
-        <v>16530531.97478848</v>
+        <v>16554119.549562899</v>
       </c>
       <c r="E22">
-        <v>52058150.24131953</v>
+        <v>51370824.041904785</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52231</v>
+        <v>52596</v>
       </c>
       <c r="B23">
         <v>21.5</v>
       </c>
       <c r="C23">
-        <v>32990196.629999999</v>
+        <v>32863528.714063067</v>
       </c>
       <c r="D23">
-        <v>17204596.515985187</v>
+        <v>17230708.401595533</v>
       </c>
       <c r="E23">
-        <v>53688349.878932402</v>
+        <v>52920128.813968949</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52596</v>
+        <v>52962</v>
       </c>
       <c r="B24">
         <v>22.5</v>
       </c>
       <c r="C24">
-        <v>33356640.219999999</v>
+        <v>33271445.956951413</v>
       </c>
       <c r="D24">
-        <v>17866721.733866997</v>
+        <v>17895388.289553553</v>
       </c>
       <c r="E24">
-        <v>55217741.262796372</v>
+        <v>54364576.493288949</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>52962</v>
+        <v>53327</v>
       </c>
       <c r="B25">
         <v>23.5</v>
       </c>
       <c r="C25">
-        <v>33476857.629999999</v>
+        <v>33414888.481506739</v>
       </c>
       <c r="D25">
-        <v>18486735.183764592</v>
+        <v>18517954.886238046</v>
       </c>
       <c r="E25">
-        <v>56635739.841628142</v>
+        <v>55690624.237227231</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53327</v>
+        <v>53692</v>
       </c>
       <c r="B26">
         <v>24.5</v>
       </c>
       <c r="C26">
-        <v>33370512.73</v>
+        <v>33329289.380176775</v>
       </c>
       <c r="D26">
-        <v>19057407.582400095</v>
+        <v>19091146.451081488</v>
       </c>
       <c r="E26">
-        <v>57914594.869739354</v>
+        <v>56870661.085454665</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>53692</v>
+        <v>54057</v>
       </c>
       <c r="B27">
         <v>25.5</v>
       </c>
       <c r="C27">
-        <v>33318724.23</v>
+        <v>33296628.442636512</v>
       </c>
       <c r="D27">
-        <v>19584161.020684991</v>
+        <v>19620356.494179282</v>
       </c>
       <c r="E27">
-        <v>59048553.134188272</v>
+        <v>57901126.505298585</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54057</v>
+        <v>54423</v>
       </c>
       <c r="B28">
         <v>26.5</v>
       </c>
       <c r="C28">
-        <v>32888777.329999998</v>
+        <v>32909262.32598212</v>
       </c>
       <c r="D28">
-        <v>20055024.041235544</v>
+        <v>20093583.240090195</v>
       </c>
       <c r="E28">
-        <v>60020279.069674917</v>
+        <v>58764914.32565318</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54423</v>
+        <v>54788</v>
       </c>
       <c r="B29">
         <v>27.5</v>
       </c>
       <c r="C29">
-        <v>32355258.399999999</v>
+        <v>32393279.247077141</v>
       </c>
       <c r="D29">
-        <v>20481645.833987419</v>
+        <v>20522452.530372437</v>
       </c>
       <c r="E29">
-        <v>60835002.340451635</v>
+        <v>59466380.726221606</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>54788</v>
+        <v>55153</v>
       </c>
       <c r="B30">
         <v>28.5</v>
       </c>
       <c r="C30">
-        <v>31523747.91</v>
+        <v>31598504.885900326</v>
       </c>
       <c r="D30">
-        <v>20873771.707106587</v>
+        <v>20916694.573058076</v>
       </c>
       <c r="E30">
-        <v>61484872.696034454</v>
+        <v>59996396.29226508</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55153</v>
+        <v>55518</v>
       </c>
       <c r="B31">
         <v>29.5</v>
       </c>
       <c r="C31">
-        <v>30317963.27</v>
+        <v>30417478.432316311</v>
       </c>
       <c r="D31">
-        <v>21220547.065165542</v>
+        <v>21265439.918048091</v>
       </c>
       <c r="E31">
-        <v>61933787.671945907</v>
+        <v>60316347.911723316</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55518</v>
+        <v>55884</v>
       </c>
       <c r="B32">
         <v>30.5</v>
       </c>
       <c r="C32">
-        <v>29225809.300000001</v>
+        <v>29340673.357677847</v>
       </c>
       <c r="D32">
-        <v>21505156.917232614</v>
+        <v>21551864.035802167</v>
       </c>
       <c r="E32">
-        <v>62160449.340626612</v>
+        <v>60408409.542703725</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>55884</v>
+        <v>56249</v>
       </c>
       <c r="B33">
         <v>31.5</v>
       </c>
       <c r="C33">
-        <v>27686081.289999999</v>
+        <v>27821714.537479665</v>
       </c>
       <c r="D33">
-        <v>21726964.934354711</v>
+        <v>21775329.137692936</v>
       </c>
       <c r="E33">
-        <v>62145636.67789869</v>
+        <v>60260587.801319174</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56249</v>
+        <v>56614</v>
       </c>
       <c r="B34">
         <v>32.5</v>
       </c>
       <c r="C34">
-        <v>26085189.039999999</v>
+        <v>26238701.977424517</v>
       </c>
       <c r="D34">
-        <v>21921741.603587955</v>
+        <v>21971608.712901954</v>
       </c>
       <c r="E34">
-        <v>61884189.313082024</v>
+        <v>59872939.297520421</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56614</v>
+        <v>56979</v>
       </c>
       <c r="B35">
         <v>33.5</v>
       </c>
       <c r="C35">
-        <v>24380986.760000002</v>
+        <v>24550017.743211832</v>
       </c>
       <c r="D35">
-        <v>22105730.096118517</v>
+        <v>22156949.770969369</v>
       </c>
       <c r="E35">
-        <v>61369835.814161554</v>
+        <v>59238695.265142344</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>56979</v>
+        <v>57345</v>
       </c>
       <c r="B36">
         <v>34.5</v>
       </c>
       <c r="C36">
-        <v>22602112.75</v>
+        <v>22782570.624601971</v>
       </c>
       <c r="D36">
-        <v>22281297.768135577</v>
+        <v>22333728.214657489</v>
       </c>
       <c r="E36">
-        <v>60598694.432418928</v>
+        <v>58351544.334336862</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57345</v>
+        <v>57710</v>
       </c>
       <c r="B37">
         <v>35.5</v>
       </c>
       <c r="C37">
-        <v>20892990.940000001</v>
+        <v>21084668.523620632</v>
       </c>
       <c r="D37">
-        <v>22449316.365530454</v>
+        <v>22502829.569036476</v>
       </c>
       <c r="E37">
-        <v>59578862.588664576</v>
+        <v>57220748.625263482</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>57710</v>
+        <v>58075</v>
       </c>
       <c r="B38">
         <v>36.5</v>
       </c>
       <c r="C38">
-        <v>19310022.140000001</v>
+        <v>19508019.708151761</v>
       </c>
       <c r="D38">
-        <v>22624245.769705147</v>
+        <v>22678729.438879482</v>
       </c>
       <c r="E38">
-        <v>58278569.136181265</v>
+        <v>55828758.66093234</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58075</v>
+        <v>58440</v>
       </c>
       <c r="B39">
         <v>37.5</v>
       </c>
       <c r="C39">
-        <v>17920127.460000001</v>
+        <v>18132405.468249068</v>
       </c>
       <c r="D39">
-        <v>22841175.057487961</v>
+        <v>22896535.992083035</v>
       </c>
       <c r="E39">
-        <v>56699939.329380855</v>
+        <v>54196650.311278656</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58440</v>
+        <v>58806</v>
       </c>
       <c r="B40">
         <v>38.5</v>
       </c>
       <c r="C40">
-        <v>16539254.01</v>
+        <v>16755665.273748156</v>
       </c>
       <c r="D40">
-        <v>23071828.080248237</v>
+        <v>23127980.753175564</v>
       </c>
       <c r="E40">
-        <v>54928106.501201212</v>
+        <v>52397224.67017214</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>58806</v>
+        <v>59171</v>
       </c>
       <c r="B41">
         <v>39.5</v>
       </c>
       <c r="C41">
-        <v>15206093.33</v>
+        <v>15426787.591633705</v>
       </c>
       <c r="D41">
-        <v>23069326.211545404</v>
+        <v>23126147.8848808</v>
       </c>
       <c r="E41">
-        <v>53024812.94409024</v>
+        <v>50476353.423770569</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59171</v>
+        <v>59536</v>
       </c>
       <c r="B42">
         <v>40.5</v>
       </c>
       <c r="C42">
-        <v>13924016.82</v>
+        <v>14145876.529691121</v>
       </c>
       <c r="D42">
-        <v>22811044.034645889</v>
+        <v>22868412.228984956</v>
       </c>
       <c r="E42">
-        <v>51007356.393629044</v>
+        <v>48451544.969263151</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59536</v>
+        <v>59901</v>
       </c>
       <c r="B43">
         <v>41.5</v>
       </c>
       <c r="C43">
-        <v>12698003.640000001</v>
+        <v>12919852.84271335</v>
       </c>
       <c r="D43">
-        <v>22566925.884452429</v>
+        <v>22624779.604495782</v>
       </c>
       <c r="E43">
-        <v>48888892.513533987</v>
+        <v>46340765.000131123</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>59901</v>
+        <v>60267</v>
       </c>
       <c r="B44">
         <v>42.5</v>
       </c>
       <c r="C44">
-        <v>11531056.050000001</v>
+        <v>11750814.934607655</v>
       </c>
       <c r="D44">
-        <v>22436595.261635289</v>
+        <v>22494908.318431042</v>
       </c>
       <c r="E44">
-        <v>46694830.354483202</v>
+        <v>44172335.55584649</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60267</v>
+        <v>60632</v>
       </c>
       <c r="B45">
         <v>43.5</v>
       </c>
       <c r="C45">
-        <v>10423882.109999999</v>
+        <v>10639766.985764632</v>
       </c>
       <c r="D45">
-        <v>22114047.479760662</v>
+        <v>22172745.674838468</v>
       </c>
       <c r="E45">
-        <v>44458492.934551671</v>
+        <v>41975845.765347295</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60632</v>
+        <v>60997</v>
       </c>
       <c r="B46">
         <v>44.5</v>
       </c>
       <c r="C46">
-        <v>9376590.3900000006</v>
+        <v>9586917.3109616376</v>
       </c>
       <c r="D46">
-        <v>21383633.301057655</v>
+        <v>21442606.083639815</v>
       </c>
       <c r="E46">
-        <v>42206456.591490991</v>
+        <v>39774557.724725142</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>60997</v>
+        <v>61362</v>
       </c>
       <c r="B47">
         <v>45.5</v>
       </c>
       <c r="C47">
-        <v>8391263.4600000009</v>
+        <v>8594509.4848421384</v>
       </c>
       <c r="D47">
-        <v>20501766.220901571</v>
+        <v>20560953.138471838</v>
       </c>
       <c r="E47">
-        <v>39959797.262861319</v>
+        <v>37587076.486660495</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61362</v>
+        <v>61728</v>
       </c>
       <c r="B48">
         <v>46.5</v>
       </c>
       <c r="C48">
-        <v>7469421.4500000002</v>
+        <v>7664257.3635288971</v>
       </c>
       <c r="D48">
-        <v>19619193.862178568</v>
+        <v>19678556.509796891</v>
       </c>
       <c r="E48">
-        <v>37733641.341273293</v>
+        <v>35426194.380697556</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>61728</v>
+        <v>62093</v>
       </c>
       <c r="B49">
         <v>47.5</v>
       </c>
       <c r="C49">
-        <v>6609971.1500000004</v>
+        <v>6795249.3375787586</v>
       </c>
       <c r="D49">
-        <v>18737147.250226244</v>
+        <v>18796646.730154343</v>
       </c>
       <c r="E49">
-        <v>35538188.605197527</v>
+        <v>33300674.862129819</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62093</v>
+        <v>62458</v>
       </c>
       <c r="B50">
         <v>48.5</v>
       </c>
       <c r="C50">
-        <v>5813554.6600000001</v>
+        <v>5988315.8038331578</v>
       </c>
       <c r="D50">
-        <v>17856213.207779586</v>
+        <v>17915803.031242851</v>
       </c>
       <c r="E50">
-        <v>33377559.18710709</v>
+        <v>31215161.836576086</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62458</v>
+        <v>62823</v>
       </c>
       <c r="B51">
         <v>49.5</v>
       </c>
       <c r="C51">
-        <v>5080046.17</v>
+        <v>5243532.875479023</v>
       </c>
       <c r="D51">
-        <v>16977535.78512634</v>
+        <v>17037154.293036271</v>
       </c>
       <c r="E51">
-        <v>31257909.085107982</v>
+        <v>29176454.786744218</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>62823</v>
+        <v>63189</v>
       </c>
       <c r="B52">
         <v>50.5</v>
       </c>
       <c r="C52">
-        <v>4408739.8899999997</v>
+        <v>4560402.3294574358</v>
       </c>
       <c r="D52">
-        <v>16103050.755559592</v>
+        <v>16162614.783221126</v>
       </c>
       <c r="E52">
-        <v>29189990.523792841</v>
+        <v>27193199.561300345</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63189</v>
+        <v>63554</v>
       </c>
       <c r="B53">
         <v>51.5</v>
       </c>
       <c r="C53">
-        <v>3798385.72</v>
+        <v>3937869.7548964536</v>
       </c>
       <c r="D53">
-        <v>15234180.792275734</v>
+        <v>15293580.748972112</v>
       </c>
       <c r="E53">
-        <v>27180269.324777618</v>
+        <v>25270062.080512874</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63554</v>
+        <v>63919</v>
       </c>
       <c r="B54">
         <v>52.5</v>
       </c>
       <c r="C54">
-        <v>3247315.41</v>
+        <v>3374463.1535093179</v>
       </c>
       <c r="D54">
-        <v>14372165.482625157</v>
+        <v>14431269.700461941</v>
       </c>
       <c r="E54">
-        <v>25230488.754697539</v>
+        <v>23408630.367384732</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>63919</v>
+        <v>64284</v>
       </c>
       <c r="B55">
         <v>53.5</v>
       </c>
       <c r="C55">
-        <v>2753453.18</v>
+        <v>2868292.1742316415</v>
       </c>
       <c r="D55">
-        <v>13518364.425870856</v>
+        <v>13577025.786435066</v>
       </c>
       <c r="E55">
-        <v>23342641.665142179</v>
+        <v>21610641.685887225</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64284</v>
+        <v>64650</v>
       </c>
       <c r="B56">
         <v>54.5</v>
       </c>
       <c r="C56">
-        <v>2314355.85</v>
+        <v>2417084.1653964114</v>
       </c>
       <c r="D56">
-        <v>12674266.750256039</v>
+        <v>12732317.709305668</v>
       </c>
       <c r="E56">
-        <v>21518684.54423755</v>
+        <v>19877734.39074285</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>64650</v>
+        <v>65015</v>
       </c>
       <c r="B57">
         <v>55.5</v>
       </c>
       <c r="C57">
-        <v>1927233.29</v>
+        <v>2018206.8440550747</v>
       </c>
       <c r="D57">
-        <v>11841524.074230764</v>
+        <v>11898771.699779557</v>
       </c>
       <c r="E57">
-        <v>19760368.323634773</v>
+        <v>18211438.843848299</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65015</v>
+        <v>65380</v>
       </c>
       <c r="B58">
         <v>56.5</v>
       </c>
       <c r="C58">
-        <v>1589012.43</v>
+        <v>1668729.3971972333</v>
       </c>
       <c r="D58">
-        <v>11021917.865781751</v>
+        <v>11078149.119256608</v>
       </c>
       <c r="E58">
-        <v>18069619.968383577</v>
+        <v>16613456.139895046</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65380</v>
+        <v>65745</v>
       </c>
       <c r="B59">
         <v>57.5</v>
       </c>
       <c r="C59">
-        <v>1296379.9099999999</v>
+        <v>1365457.5302280213</v>
       </c>
       <c r="D59">
-        <v>10217344.118804824</v>
+        <v>10272330.594848743</v>
       </c>
       <c r="E59">
-        <v>16448661.844543574</v>
+        <v>15085669.45342824</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>65745</v>
+        <v>66111</v>
       </c>
       <c r="B60">
         <v>58.5</v>
       </c>
       <c r="C60">
-        <v>1045839.02</v>
+        <v>1105002.8512951622</v>
       </c>
       <c r="D60">
-        <v>9429841.4587285202</v>
+        <v>9483344.2336123362</v>
       </c>
       <c r="E60">
-        <v>14899859.105486147</v>
+        <v>13630066.005969351</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66111</v>
+        <v>66476</v>
       </c>
       <c r="B61">
         <v>59.5</v>
       </c>
       <c r="C61">
-        <v>833743.02</v>
+        <v>883802.81156533805</v>
       </c>
       <c r="D61">
-        <v>8661575.9941969384</v>
+        <v>8713352.3920996934</v>
       </c>
       <c r="E61">
-        <v>13425607.032663845</v>
+        <v>12248632.918981988</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66476</v>
+        <v>66841</v>
       </c>
       <c r="B62">
         <v>60.5</v>
       </c>
       <c r="C62">
-        <v>656330.35</v>
+        <v>698145.4951142926</v>
       </c>
       <c r="D62">
-        <v>7914806.3975663185</v>
+        <v>7964614.8022643244</v>
       </c>
       <c r="E62">
-        <v>12028270.028456362</v>
+        <v>10943296.157121336</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>66841</v>
+        <v>67206</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
       <c r="C63">
-        <v>509823.23</v>
+        <v>544275.02626118413</v>
       </c>
       <c r="D63">
-        <v>7191822.7156260135</v>
+        <v>7239428.0390322534</v>
       </c>
       <c r="E63">
-        <v>10710184.08484384</v>
+        <v>9715927.320641119</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67206</v>
+        <v>67572</v>
       </c>
       <c r="B64">
         <v>62.5</v>
       </c>
       <c r="C64">
-        <v>390478.88</v>
+        <v>418457.96356672799</v>
       </c>
       <c r="D64">
-        <v>6494939.4689640198</v>
+        <v>6540117.3703037761</v>
       </c>
       <c r="E64">
-        <v>9473482.0118292961</v>
+        <v>8568177.0788843464</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67572</v>
+        <v>67937</v>
       </c>
       <c r="B65">
         <v>63.5</v>
       </c>
       <c r="C65">
-        <v>294668.92</v>
+        <v>317052.97833790135</v>
       </c>
       <c r="D65">
-        <v>5826491.4124948159</v>
+        <v>5869035.2739286441</v>
       </c>
       <c r="E65">
-        <v>8319986.4646641342</v>
+        <v>7501367.6877569137</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>67937</v>
+        <v>68302</v>
       </c>
       <c r="B66">
         <v>64.5</v>
       </c>
       <c r="C66">
-        <v>218940.5</v>
+        <v>236575.38231801955</v>
       </c>
       <c r="D66">
-        <v>5188841.542723543</v>
+        <v>5228575.3997172499</v>
       </c>
       <c r="E66">
-        <v>7251103.3733937545</v>
+        <v>6516411.0252691954</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68302</v>
+        <v>68667</v>
       </c>
       <c r="B67">
         <v>65.5</v>
       </c>
       <c r="C67">
-        <v>160056.79</v>
+        <v>173731.67822681615</v>
       </c>
       <c r="D67">
-        <v>4584419.631890187</v>
+        <v>4621203.2402388593</v>
       </c>
       <c r="E67">
-        <v>6267772.6665007202</v>
+        <v>5613737.3731370121</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68667</v>
+        <v>69033</v>
       </c>
       <c r="B68">
         <v>66.5</v>
       </c>
       <c r="C68">
-        <v>115053.15</v>
+        <v>125482.18286134882</v>
       </c>
       <c r="D68">
-        <v>4015648.2848638208</v>
+        <v>4049378.8044801741</v>
       </c>
       <c r="E68">
-        <v>5370329.3656590926</v>
+        <v>4793181.7741595935</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69033</v>
+        <v>69398</v>
       </c>
       <c r="B69">
         <v>67.5</v>
       </c>
       <c r="C69">
-        <v>81269</v>
+        <v>89088.003080575509</v>
       </c>
       <c r="D69">
-        <v>3484928.2436723537</v>
+        <v>3515540.9959954969</v>
       </c>
       <c r="E69">
-        <v>4558419.1666293917</v>
+        <v>4053910.0508217267</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69398</v>
+        <v>69763</v>
       </c>
       <c r="B70">
         <v>68.5</v>
       </c>
       <c r="C70">
-        <v>56374.66</v>
+        <v>62136.872388721065</v>
       </c>
       <c r="D70">
-        <v>2994548.4359521107</v>
+        <v>3022020.7388938004</v>
       </c>
       <c r="E70">
-        <v>3830951.6493350849</v>
+        <v>3394354.6205073437</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69763</v>
+        <v>70128</v>
       </c>
       <c r="B71">
         <v>69.5</v>
       </c>
       <c r="C71">
-        <v>38383.07</v>
+        <v>42556.714626449655</v>
       </c>
       <c r="D71">
-        <v>2546367.4709542468</v>
+        <v>2570728.7250806666</v>
       </c>
       <c r="E71">
-        <v>3185920.6065888861</v>
+        <v>2812082.5552139655</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70128</v>
+        <v>70494</v>
       </c>
       <c r="B72">
         <v>70.5</v>
       </c>
       <c r="C72">
-        <v>25637.97</v>
+        <v>28609.924424328488</v>
       </c>
       <c r="D72">
-        <v>2141498.292569722</v>
+        <v>2162832.4570665834</v>
       </c>
       <c r="E72">
-        <v>2620273.2342246012</v>
+        <v>2303717.901747026</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70494</v>
+        <v>70859</v>
       </c>
       <c r="B73">
         <v>71.5</v>
       </c>
       <c r="C73">
-        <v>16794.060000000001</v>
+        <v>18873.381049655458</v>
       </c>
       <c r="D73">
-        <v>1780193.6856725751</v>
+        <v>1798632.0951283562</v>
       </c>
       <c r="E73">
-        <v>2129959.0366377993</v>
+        <v>1865008.7193233322</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>70859</v>
+        <v>71224</v>
       </c>
       <c r="B74">
         <v>72.5</v>
       </c>
       <c r="C74">
-        <v>10785.59</v>
+        <v>12213.693350672356</v>
       </c>
       <c r="D74">
-        <v>1461809.6506789234</v>
+        <v>1477520.2429071274</v>
       </c>
       <c r="E74">
-        <v>1710059.6024620859</v>
+        <v>1490976.663464851</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71224</v>
+        <v>71589</v>
       </c>
       <c r="B75">
         <v>73.5</v>
       </c>
       <c r="C75">
-        <v>6789.95</v>
+        <v>7751.6989021656518</v>
       </c>
       <c r="D75">
-        <v>1184735.6696787814</v>
+        <v>1197914.201882445</v>
       </c>
       <c r="E75">
-        <v>1354922.08139398</v>
+        <v>1176068.601249408</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71589</v>
+        <v>71955</v>
       </c>
       <c r="B76">
         <v>74.5</v>
       </c>
       <c r="C76">
-        <v>4189.92</v>
+        <v>4824.361586256573</v>
       </c>
       <c r="D76">
-        <v>946622.80839120026</v>
+        <v>957483.25418627926</v>
       </c>
       <c r="E76">
-        <v>1058439.3826688631</v>
+        <v>914425.98314517189</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>71955</v>
+        <v>72320</v>
       </c>
       <c r="B77">
         <v>75.5</v>
       </c>
       <c r="C77">
-        <v>2534.2399999999998</v>
+        <v>2944.1059782446609</v>
       </c>
       <c r="D77">
-        <v>744836.81196202256</v>
+        <v>753608.50839756418</v>
       </c>
       <c r="E77">
-        <v>814400.45947840484</v>
+        <v>700152.25580501626</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72320</v>
+        <v>72685</v>
       </c>
       <c r="B78">
         <v>76.5</v>
       </c>
       <c r="C78">
-        <v>1502.48</v>
+        <v>1762.0322934518504</v>
       </c>
       <c r="D78">
-        <v>576505.32318642561</v>
+        <v>583431.76099079091</v>
       </c>
       <c r="E78">
-        <v>616616.40525432571</v>
+        <v>527400.94828807283</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>72685</v>
+        <v>73050</v>
       </c>
       <c r="B79">
         <v>77.5</v>
       </c>
       <c r="C79">
-        <v>873.21</v>
+        <v>1034.4438227360313</v>
       </c>
       <c r="D79">
-        <v>438445.52291485667</v>
+        <v>443774.07097124361</v>
       </c>
       <c r="E79">
-        <v>458945.74127248098</v>
+        <v>390438.00132461288</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73050</v>
+        <v>73415</v>
       </c>
       <c r="B80">
         <v>78.5</v>
       </c>
       <c r="C80">
-        <v>497.56</v>
+        <v>595.86459984165424</v>
       </c>
       <c r="D80">
-        <v>327267.58886365755</v>
+        <v>331239.29571562022</v>
       </c>
       <c r="E80">
-        <v>335463.24118852225</v>
+        <v>283781.92345908063</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>73415</v>
+        <f>+EOMONTH(A80,12)</f>
+        <v>73780</v>
       </c>
       <c r="B81">
         <v>79.5</v>
       </c>
       <c r="C81">
-        <v>278.02999999999997</v>
+        <v>336.86952569318998</v>
       </c>
       <c r="D81">
-        <v>239482.30715700804</v>
+        <v>242323.40159447814</v>
       </c>
       <c r="E81">
-        <v>240563.79554153321</v>
+        <v>202299.55102132255</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/annual_cashflows_data.xlsx
+++ b/data/time_series/annual_cashflows_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C8723-B80B-4580-81DE-6784E4A9592A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C54F7A-6559-4C96-8031-0C8D3F487BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1260" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -403,19 +406,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027456B0-4AAC-4E49-B406-E9435788ACC8}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A81"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -431,8 +435,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44926</v>
       </c>
@@ -448,8 +455,12 @@
       <c r="E2">
         <v>424015774.05129546</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(C2:E2)</f>
+        <v>1900302161.589886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45291</v>
       </c>
@@ -465,8 +476,12 @@
       <c r="E3">
         <v>457065275.86267245</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
+        <v>2020151763.154635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45657</v>
       </c>
@@ -482,8 +497,12 @@
       <c r="E4">
         <v>488405515.40864128</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2143289539.6888652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46022</v>
       </c>
@@ -499,8 +518,12 @@
       <c r="E5">
         <v>516863212.12272674</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2263219280.6844535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46387</v>
       </c>
@@ -516,8 +539,12 @@
       <c r="E6">
         <v>540963075.93295217</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2378229922.7202206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46752</v>
       </c>
@@ -533,8 +560,12 @@
       <c r="E7">
         <v>563238770.2817446</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2487809416.7291493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>47118</v>
       </c>
@@ -550,8 +581,12 @@
       <c r="E8">
         <v>583346925.73878193</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2588719986.4723053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>47483</v>
       </c>
@@ -567,8 +602,12 @@
       <c r="E9">
         <v>600262968.05763745</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2676643621.5606418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47848</v>
       </c>
@@ -584,8 +623,12 @@
       <c r="E10">
         <v>614431256.93380749</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2755264883.4379897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>48213</v>
       </c>
@@ -601,8 +644,12 @@
       <c r="E11">
         <v>626399997.06846392</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2826271040.1890206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>48579</v>
       </c>
@@ -618,8 +665,12 @@
       <c r="E12">
         <v>637224083.46310794</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2888271473.4495025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>48944</v>
       </c>
@@ -635,8 +686,12 @@
       <c r="E13">
         <v>646549908.19188178</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2939701384.4505935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>49309</v>
       </c>
@@ -652,8 +707,12 @@
       <c r="E14">
         <v>654004643.88014925</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2979107328.0932202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>49674</v>
       </c>
@@ -669,8 +728,12 @@
       <c r="E15">
         <v>659341735.95668685</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3004409353.6803422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>50040</v>
       </c>
@@ -686,8 +749,12 @@
       <c r="E16">
         <v>663292666.11693799</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3021306495.7408395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50405</v>
       </c>
@@ -703,8 +770,12 @@
       <c r="E17">
         <v>667565374.02980375</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3028896689.7751517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50770</v>
       </c>
@@ -720,8 +791,12 @@
       <c r="E18">
         <v>672200031.14548743</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3028778936.1405005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>51135</v>
       </c>
@@ -737,8 +812,12 @@
       <c r="E19">
         <v>675957099.92138398</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3020278869.5653458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>51501</v>
       </c>
@@ -754,8 +833,12 @@
       <c r="E20">
         <v>678178758.23305225</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3004450910.2089643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>51866</v>
       </c>
@@ -771,8 +854,12 @@
       <c r="E21">
         <v>678671493.26447356</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2978605659.7186956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>52231</v>
       </c>
@@ -788,8 +875,12 @@
       <c r="E22">
         <v>677334354.24249148</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2946491311.5633831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>52596</v>
       </c>
@@ -805,8 +896,12 @@
       <c r="E23">
         <v>674115982.06267798</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2906705196.4478106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>52962</v>
       </c>
@@ -822,8 +917,12 @@
       <c r="E24">
         <v>669200470.54096711</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2861470690.0765162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>53327</v>
       </c>
@@ -839,8 +938,12 @@
       <c r="E25">
         <v>662461057.13785613</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2806430331.0220728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>53692</v>
       </c>
@@ -856,8 +959,12 @@
       <c r="E26">
         <v>653748623.38036883</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2742611174.2693844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>54057</v>
       </c>
@@ -873,8 +980,12 @@
       <c r="E27">
         <v>643184810.84966457</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2672486080.9824295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>54423</v>
       </c>
@@ -890,8 +1001,12 @@
       <c r="E28">
         <v>630714294.71687984</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2594602345.0004911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>54788</v>
       </c>
@@ -907,8 +1022,12 @@
       <c r="E29">
         <v>616448234.49187398</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2509351816.4895716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>55153</v>
       </c>
@@ -924,8 +1043,12 @@
       <c r="E30">
         <v>600573880.64061856</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2416844711.3596849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>55518</v>
       </c>
@@ -941,8 +1064,12 @@
       <c r="E31">
         <v>588969020.39382529</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2321699509.3873577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>55884</v>
       </c>
@@ -958,8 +1085,12 @@
       <c r="E32">
         <v>654617847.92331505</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2302194352.0016174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>56249</v>
       </c>
@@ -975,8 +1106,12 @@
       <c r="E33">
         <v>700458249.75067556</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2257259567.8007245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>56614</v>
       </c>
@@ -992,8 +1127,12 @@
       <c r="E34">
         <v>661931725.8571496</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2127827052.7449222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>56979</v>
       </c>
@@ -1009,8 +1148,12 @@
       <c r="E35">
         <v>622775801.94075274</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1998999094.9463575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>57345</v>
       </c>
@@ -1026,8 +1169,12 @@
       <c r="E36">
         <v>583337433.7355845</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1870390178.0264375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>57710</v>
       </c>
@@ -1043,8 +1190,12 @@
       <c r="E37">
         <v>550942897.15521514</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1750974574.8029785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>58075</v>
       </c>
@@ -1060,8 +1211,12 @@
       <c r="E38">
         <v>520626161.2241593</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1637593573.6520066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>58440</v>
       </c>
@@ -1077,8 +1232,12 @@
       <c r="E39">
         <v>484646188.42140341</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1522567272.034066</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>58806</v>
       </c>
@@ -1094,8 +1253,12 @@
       <c r="E40">
         <v>449628286.54489565</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1411714628.9796789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>59171</v>
       </c>
@@ -1111,8 +1274,12 @@
       <c r="E41">
         <v>415783852.15479821</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1305209582.2235873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>59536</v>
       </c>
@@ -1128,8 +1295,12 @@
       <c r="E42">
         <v>383281984.03516048</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1203291788.1824179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>59901</v>
       </c>
@@ -1145,8 +1316,12 @@
       <c r="E43">
         <v>352252008.24275076</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1106926314.1439695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>60267</v>
       </c>
@@ -1162,8 +1337,12 @@
       <c r="E44">
         <v>322811822.83203197</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1016281950.9691743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>60632</v>
       </c>
@@ -1179,8 +1358,12 @@
       <c r="E45">
         <v>295036481.24885195</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>929940606.88994575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>60997</v>
       </c>
@@ -1196,8 +1379,12 @@
       <c r="E46">
         <v>268953117.07541275</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>847694226.98008454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>61362</v>
       </c>
@@ -1213,8 +1400,12 @@
       <c r="E47">
         <v>244555347.35137379</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>770804595.82971752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>61728</v>
       </c>
@@ -1230,8 +1421,12 @@
       <c r="E48">
         <v>221813807.83115515</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>699229443.73585749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>62093</v>
       </c>
@@ -1247,8 +1442,12 @@
       <c r="E49">
         <v>200684753.11110151</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>632751634.47327268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>62458</v>
       </c>
@@ -1264,8 +1463,12 @@
       <c r="E50">
         <v>181108394.59670976</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>571140144.00146842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>62823</v>
       </c>
@@ -1281,8 +1484,12 @@
       <c r="E51">
         <v>163019465.61501855</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>514159167.11260045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>63189</v>
       </c>
@@ -1298,8 +1505,12 @@
       <c r="E52">
         <v>146345463.57891101</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>461566722.77587968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>63554</v>
       </c>
@@ -1315,8 +1526,12 @@
       <c r="E53">
         <v>131006499.70167373</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>413117658.15170074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>63919</v>
       </c>
@@ -1332,8 +1547,12 @@
       <c r="E54">
         <v>116922505.81858487</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>368577453.96095121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>64284</v>
       </c>
@@ -1349,8 +1568,12 @@
       <c r="E55">
         <v>104016625.59105338</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>327724642.64516091</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>64650</v>
       </c>
@@ -1366,8 +1589,12 @@
       <c r="E56">
         <v>92214859.748915792</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>290348750.42843556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>65015</v>
       </c>
@@ -1383,8 +1610,12 @@
       <c r="E57">
         <v>81446613.403591797</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>256249344.638933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>65380</v>
       </c>
@@ -1400,8 +1631,12 @@
       <c r="E58">
         <v>71642420.750188708</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>225232188.71205539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>65745</v>
       </c>
@@ -1417,8 +1652,12 @@
       <c r="E59">
         <v>62743807.462651148</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>197117084.45253736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>66111</v>
       </c>
@@ -1434,8 +1673,12 @@
       <c r="E60">
         <v>54688813.412922546</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>171724032.88891357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>66476</v>
       </c>
@@ -1451,8 +1694,12 @@
       <c r="E61">
         <v>47421568.635305598</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>148881286.56306124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>66841</v>
       </c>
@@ -1468,8 +1715,12 @@
       <c r="E62">
         <v>40889651.017982721</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>128419109.78417496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>67206</v>
       </c>
@@ -1485,8 +1736,12 @@
       <c r="E63">
         <v>35044137.800875515</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>110172137.70422076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>67572</v>
       </c>
@@ -1502,8 +1757,12 @@
       <c r="E64">
         <v>29838429.274073739</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>93979130.014295399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>67937</v>
       </c>
@@ -1519,8 +1778,12 @@
       <c r="E65">
         <v>25227871.031134009</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>79679879.169538885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>68302</v>
       </c>
@@ -1536,8 +1799,12 @@
       <c r="E66">
         <v>21169250.973493949</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>67119387.728256091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>68667</v>
       </c>
@@ -1553,8 +1820,12 @@
       <c r="E67">
         <v>17620572.402046002</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
+        <v>56150624.175294474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>69033</v>
       </c>
@@ -1570,8 +1841,12 @@
       <c r="E68">
         <v>14540723.948767908</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>46628032.935372263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69398</v>
       </c>
@@ -1587,8 +1862,12 @@
       <c r="E69">
         <v>11889269.356152872</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>38417976.327441692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69763</v>
       </c>
@@ -1604,8 +1883,12 @@
       <c r="E70">
         <v>9626534.1361398604</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>31389886.371847428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70128</v>
       </c>
@@ -1621,8 +1904,12 @@
       <c r="E71">
         <v>7713663.9164395034</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>25422260.465049516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70494</v>
       </c>
@@ -1638,8 +1925,12 @@
       <c r="E72">
         <v>6112659.9901514407</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>20395307.281953312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>70859</v>
       </c>
@@ -1655,8 +1946,12 @@
       <c r="E73">
         <v>4786871.5371281961</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>16199471.166612659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>71224</v>
       </c>
@@ -1672,8 +1967,12 @@
       <c r="E74">
         <v>3701449.3464187072</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>12729681.373702085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71589</v>
       </c>
@@ -1689,8 +1988,12 @@
       <c r="E75">
         <v>2823622.4151561731</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>9888535.5350231826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>71955</v>
       </c>
@@ -1706,8 +2009,12 @@
       <c r="E76">
         <v>2123037.990304952</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>7587395.6586020608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>72320</v>
       </c>
@@ -1723,8 +2030,12 @@
       <c r="E77">
         <v>1571921.1952047334</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>5745733.6746767834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>72685</v>
       </c>
@@ -1740,8 +2051,12 @@
       <c r="E78">
         <v>1145057.9585733623</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>4291050.3366251597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>73050</v>
       </c>
@@ -1757,8 +2072,12 @@
       <c r="E79">
         <v>819894.01799540711</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>3157814.7452614373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>73415</v>
       </c>
@@ -1774,8 +2093,12 @@
       <c r="E80">
         <v>576571.23908656347</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>2290224.6656911313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>+EOMONTH(A80,12)</f>
         <v>73780</v>
@@ -1791,6 +2114,10 @@
       </c>
       <c r="E81">
         <v>397899.28710025933</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1637161.6989524323</v>
       </c>
     </row>
   </sheetData>
@@ -1800,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B07887-8F52-4ACD-9003-CB270BD2655C}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E81"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +2139,7 @@
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1828,8 +2155,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44926</v>
       </c>
@@ -1845,8 +2175,12 @@
       <c r="E2">
         <v>853507.28582016868</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(C2:E2)</f>
+        <v>2485373.9996742494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45291</v>
       </c>
@@ -1862,8 +2196,12 @@
       <c r="E3">
         <v>3257449.0224890145</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
+        <v>8189191.4795718454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45657</v>
       </c>
@@ -1879,8 +2217,12 @@
       <c r="E4">
         <v>6362006.883028524</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>13976862.998949861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46022</v>
       </c>
@@ -1896,8 +2238,12 @@
       <c r="E5">
         <v>9494575.7567297313</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>19934257.760123905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46387</v>
       </c>
@@ -1913,8 +2259,12 @@
       <c r="E6">
         <v>12675105.103187175</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>26148771.349669315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46752</v>
       </c>
@@ -1930,8 +2280,12 @@
       <c r="E7">
         <v>15830626.075603152</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>32347826.809282131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>47118</v>
       </c>
@@ -1947,8 +2301,12 @@
       <c r="E8">
         <v>18885035.388521247</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>38405182.010665409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>47483</v>
       </c>
@@ -1964,8 +2322,12 @@
       <c r="E9">
         <v>21832458.516819932</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>44227709.149125129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47848</v>
       </c>
@@ -1981,8 +2343,12 @@
       <c r="E10">
         <v>24681967.311602328</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>49827529.58747904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>48213</v>
       </c>
@@ -1998,8 +2364,12 @@
       <c r="E11">
         <v>27444356.326740008</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>55319122.425074302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>48579</v>
       </c>
@@ -2015,8 +2385,12 @@
       <c r="E12">
         <v>30119575.722258911</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>60644932.05900611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>48944</v>
       </c>
@@ -2032,8 +2406,12 @@
       <c r="E13">
         <v>32708480.127799407</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>65795153.561491072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>49309</v>
       </c>
@@ -2049,8 +2427,12 @@
       <c r="E14">
         <v>35190409.831031986</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>70647424.052126795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>49674</v>
       </c>
@@ -2066,8 +2448,12 @@
       <c r="E15">
         <v>37541587.01752907</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>75157839.342062056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>50040</v>
       </c>
@@ -2083,8 +2469,12 @@
       <c r="E16">
         <v>39780960.034711972</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>79585813.753807306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50405</v>
       </c>
@@ -2100,8 +2490,12 @@
       <c r="E17">
         <v>41929905.526509926</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>83626452.129571423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50770</v>
       </c>
@@ -2117,8 +2511,12 @@
       <c r="E18">
         <v>43991417.091912232</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>87388236.848991394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>51135</v>
       </c>
@@ -2134,8 +2532,12 @@
       <c r="E19">
         <v>45972334.145702273</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>91027659.880053729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>51501</v>
       </c>
@@ -2151,8 +2553,12 @@
       <c r="E20">
         <v>47878551.280887984</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>94508547.571068212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>51866</v>
       </c>
@@ -2168,8 +2574,12 @@
       <c r="E21">
         <v>49688877.118642777</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>97643743.861070856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>52231</v>
       </c>
@@ -2185,8 +2595,12 @@
       <c r="E22">
         <v>51370824.041904785</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>100391771.72030851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>52596</v>
       </c>
@@ -2202,8 +2616,12 @@
       <c r="E23">
         <v>52920128.813968949</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>103014365.92962754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>52962</v>
       </c>
@@ -2219,8 +2637,12 @@
       <c r="E24">
         <v>54364576.493288949</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>105531410.73979391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>53327</v>
       </c>
@@ -2236,8 +2658,12 @@
       <c r="E25">
         <v>55690624.237227231</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>107623467.60497202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>53692</v>
       </c>
@@ -2253,8 +2679,12 @@
       <c r="E26">
         <v>56870661.085454665</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>109291096.91671294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>54057</v>
       </c>
@@ -2270,8 +2700,12 @@
       <c r="E27">
         <v>57901126.505298585</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>110818111.44211438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>54423</v>
       </c>
@@ -2287,8 +2721,12 @@
       <c r="E28">
         <v>58764914.32565318</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>111767759.8917255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>54788</v>
       </c>
@@ -2304,8 +2742,12 @@
       <c r="E29">
         <v>59466380.726221606</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>112382112.50367118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>55153</v>
       </c>
@@ -2321,8 +2763,12 @@
       <c r="E30">
         <v>59996396.29226508</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>112511595.75122347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>55518</v>
       </c>
@@ -2338,8 +2784,12 @@
       <c r="E31">
         <v>60316347.911723316</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>111999266.26208772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>55884</v>
       </c>
@@ -2355,8 +2805,12 @@
       <c r="E32">
         <v>60408409.542703725</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>111300946.93618375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>56249</v>
       </c>
@@ -2372,8 +2826,12 @@
       <c r="E33">
         <v>60260587.801319174</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>109857631.47649178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>56614</v>
       </c>
@@ -2389,8 +2847,12 @@
       <c r="E34">
         <v>59872939.297520421</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>108083249.98784688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>56979</v>
       </c>
@@ -2406,8 +2868,12 @@
       <c r="E35">
         <v>59238695.265142344</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>105945662.77932355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>57345</v>
       </c>
@@ -2423,8 +2889,12 @@
       <c r="E36">
         <v>58351544.334336862</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>103467843.17359632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>57710</v>
       </c>
@@ -2440,8 +2910,12 @@
       <c r="E37">
         <v>57220748.625263482</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>100808246.71792059</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>58075</v>
       </c>
@@ -2457,8 +2931,12 @@
       <c r="E38">
         <v>55828758.66093234</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>98015507.80796358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>58440</v>
       </c>
@@ -2474,8 +2952,12 @@
       <c r="E39">
         <v>54196650.311278656</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>95225591.771610767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>58806</v>
       </c>
@@ -2491,8 +2973,12 @@
       <c r="E40">
         <v>52397224.67017214</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>92280870.697095856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>59171</v>
       </c>
@@ -2508,8 +2994,12 @@
       <c r="E41">
         <v>50476353.423770569</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>89029288.900285065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>59536</v>
       </c>
@@ -2525,8 +3015,12 @@
       <c r="E42">
         <v>48451544.969263151</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>85465833.727939218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>59901</v>
       </c>
@@ -2542,8 +3036,12 @@
       <c r="E43">
         <v>46340765.000131123</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>81885397.44734025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>60267</v>
       </c>
@@ -2559,8 +3057,12 @@
       <c r="E44">
         <v>44172335.55584649</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>78418058.808885187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>60632</v>
       </c>
@@ -2576,8 +3078,12 @@
       <c r="E45">
         <v>41975845.765347295</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>74788358.425950393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>60997</v>
       </c>
@@ -2593,8 +3099,12 @@
       <c r="E46">
         <v>39774557.724725142</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>70804081.119326591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>61362</v>
       </c>
@@ -2610,8 +3120,12 @@
       <c r="E47">
         <v>37587076.486660495</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>66742539.109974474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>61728</v>
       </c>
@@ -2627,8 +3141,12 @@
       <c r="E48">
         <v>35426194.380697556</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>62769008.254023343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>62093</v>
       </c>
@@ -2644,8 +3162,12 @@
       <c r="E49">
         <v>33300674.862129819</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>58892570.929862916</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>62458</v>
       </c>
@@ -2661,8 +3183,12 @@
       <c r="E50">
         <v>31215161.836576086</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>55119280.671652094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>62823</v>
       </c>
@@ -2678,8 +3204,12 @@
       <c r="E51">
         <v>29176454.786744218</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>51457141.955259517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>63189</v>
       </c>
@@ -2695,8 +3225,12 @@
       <c r="E52">
         <v>27193199.561300345</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>47916216.67397891</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>63554</v>
       </c>
@@ -2712,8 +3246,12 @@
       <c r="E53">
         <v>25270062.080512874</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>44501512.584381439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>63919</v>
       </c>
@@ -2729,8 +3267,12 @@
       <c r="E54">
         <v>23408630.367384732</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>41214363.22135599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>64284</v>
       </c>
@@ -2746,8 +3288,12 @@
       <c r="E55">
         <v>21610641.685887225</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>38055959.646553934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>64650</v>
       </c>
@@ -2763,8 +3309,12 @@
       <c r="E56">
         <v>19877734.39074285</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>35027136.265444927</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>65015</v>
       </c>
@@ -2780,8 +3330,12 @@
       <c r="E57">
         <v>18211438.843848299</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>32128417.38768293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>65380</v>
       </c>
@@ -2797,8 +3351,12 @@
       <c r="E58">
         <v>16613456.139895046</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>29360334.656348888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>65745</v>
       </c>
@@ -2814,8 +3372,12 @@
       <c r="E59">
         <v>15085669.45342824</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>26723457.578505002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>66111</v>
       </c>
@@ -2831,8 +3393,12 @@
       <c r="E60">
         <v>13630066.005969351</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>24218413.090876848</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>66476</v>
       </c>
@@ -2848,8 +3414,12 @@
       <c r="E61">
         <v>12248632.918981988</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>21845788.122647017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>66841</v>
       </c>
@@ -2865,8 +3435,12 @@
       <c r="E62">
         <v>10943296.157121336</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>19606056.454499952</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>67206</v>
       </c>
@@ -2882,8 +3456,12 @@
       <c r="E63">
         <v>9715927.320641119</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>17499630.385934558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>67572</v>
       </c>
@@ -2899,8 +3477,12 @@
       <c r="E64">
         <v>8568177.0788843464</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>15526752.41275485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>67937</v>
       </c>
@@ -2916,8 +3498,12 @@
       <c r="E65">
         <v>7501367.6877569137</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>13687455.940023459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>68302</v>
       </c>
@@ -2933,8 +3519,12 @@
       <c r="E66">
         <v>6516411.0252691954</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>11981561.807304464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>68667</v>
       </c>
@@ -2950,8 +3540,12 @@
       <c r="E67">
         <v>5613737.3731370121</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
+        <v>10408672.291602688</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>69033</v>
       </c>
@@ -2967,8 +3561,12 @@
       <c r="E68">
         <v>4793181.7741595935</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>8968042.7615011167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69398</v>
       </c>
@@ -2984,8 +3582,12 @@
       <c r="E69">
         <v>4053910.0508217267</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>7658539.0498977993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69763</v>
       </c>
@@ -3001,8 +3603,12 @@
       <c r="E70">
         <v>3394354.6205073437</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>6478512.2317898646</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70128</v>
       </c>
@@ -3018,8 +3624,12 @@
       <c r="E71">
         <v>2812082.5552139655</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>5425367.9949210817</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70494</v>
       </c>
@@ -3035,8 +3645,12 @@
       <c r="E72">
         <v>2303717.901747026</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>4495160.2832379378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>70859</v>
       </c>
@@ -3052,8 +3666,12 @@
       <c r="E73">
         <v>1865008.7193233322</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>3682514.1955013438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>71224</v>
       </c>
@@ -3069,8 +3687,12 @@
       <c r="E74">
         <v>1490976.663464851</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>2980710.5997226508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71589</v>
       </c>
@@ -3086,8 +3708,12 @@
       <c r="E75">
         <v>1176068.601249408</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>2381734.5020340187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>71955</v>
       </c>
@@ -3103,8 +3729,12 @@
       <c r="E76">
         <v>914425.98314517189</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>1876733.5989177078</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>72320</v>
       </c>
@@ -3120,8 +3750,12 @@
       <c r="E77">
         <v>700152.25580501626</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1456704.8701808252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>72685</v>
       </c>
@@ -3137,8 +3771,12 @@
       <c r="E78">
         <v>527400.94828807283</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>1112594.7415723156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>73050</v>
       </c>
@@ -3154,8 +3792,12 @@
       <c r="E79">
         <v>390438.00132461288</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>835246.51611859258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>73415</v>
       </c>
@@ -3171,8 +3813,12 @@
       <c r="E80">
         <v>283781.92345908063</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>615617.08377454244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>+EOMONTH(A80,12)</f>
         <v>73780</v>
@@ -3188,6 +3834,10 @@
       </c>
       <c r="E81">
         <v>202299.55102132255</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>444959.8221414939</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8773CC19-A081-4E73-B051-09B33C10AE79}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/time_series/annual_cashflows_data.xlsx
+++ b/data/time_series/annual_cashflows_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C54F7A-6559-4C96-8031-0C8D3F487BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BE3C3-A949-49B1-85A7-35E395747081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
+    <workbookView xWindow="270" yWindow="375" windowWidth="16095" windowHeight="14565" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027456B0-4AAC-4E49-B406-E9435788ACC8}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44926</v>
+        <v>44561</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45291</v>
+        <v>44926</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>46022</v>
+        <v>45657</v>
       </c>
       <c r="B5">
         <v>3.5</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46387</v>
+        <v>46022</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46752</v>
+        <v>46387</v>
       </c>
       <c r="B7">
         <v>5.5</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>47118</v>
+        <v>46752</v>
       </c>
       <c r="B8">
         <v>6.5</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47483</v>
+        <v>47118</v>
       </c>
       <c r="B9">
         <v>7.5</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47848</v>
+        <v>47483</v>
       </c>
       <c r="B10">
         <v>8.5</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>48213</v>
+        <v>47848</v>
       </c>
       <c r="B11">
         <v>9.5</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48579</v>
+        <v>48213</v>
       </c>
       <c r="B12">
         <v>10.5</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48944</v>
+        <v>48579</v>
       </c>
       <c r="B13">
         <v>11.5</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>49309</v>
+        <v>48944</v>
       </c>
       <c r="B14">
         <v>12.5</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49674</v>
+        <v>49309</v>
       </c>
       <c r="B15">
         <v>13.5</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>50040</v>
+        <v>49674</v>
       </c>
       <c r="B16">
         <v>14.5</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50405</v>
+        <v>50040</v>
       </c>
       <c r="B17">
         <v>15.5</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50770</v>
+        <v>50405</v>
       </c>
       <c r="B18">
         <v>16.5</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>51135</v>
+        <v>50770</v>
       </c>
       <c r="B19">
         <v>17.5</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51501</v>
+        <v>51135</v>
       </c>
       <c r="B20">
         <v>18.5</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51866</v>
+        <v>51501</v>
       </c>
       <c r="B21">
         <v>19.5</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>52231</v>
+        <v>51866</v>
       </c>
       <c r="B22">
         <v>20.5</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52596</v>
+        <v>52231</v>
       </c>
       <c r="B23">
         <v>21.5</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52962</v>
+        <v>52596</v>
       </c>
       <c r="B24">
         <v>22.5</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>53327</v>
+        <v>52962</v>
       </c>
       <c r="B25">
         <v>23.5</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53692</v>
+        <v>53327</v>
       </c>
       <c r="B26">
         <v>24.5</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>54057</v>
+        <v>53692</v>
       </c>
       <c r="B27">
         <v>25.5</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54423</v>
+        <v>54057</v>
       </c>
       <c r="B28">
         <v>26.5</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54788</v>
+        <v>54423</v>
       </c>
       <c r="B29">
         <v>27.5</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>55153</v>
+        <v>54788</v>
       </c>
       <c r="B30">
         <v>28.5</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55518</v>
+        <v>55153</v>
       </c>
       <c r="B31">
         <v>29.5</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55884</v>
+        <v>55518</v>
       </c>
       <c r="B32">
         <v>30.5</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>56249</v>
+        <v>55884</v>
       </c>
       <c r="B33">
         <v>31.5</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56614</v>
+        <v>56249</v>
       </c>
       <c r="B34">
         <v>32.5</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56979</v>
+        <v>56614</v>
       </c>
       <c r="B35">
         <v>33.5</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>57345</v>
+        <v>56979</v>
       </c>
       <c r="B36">
         <v>34.5</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57710</v>
+        <v>57345</v>
       </c>
       <c r="B37">
         <v>35.5</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>58075</v>
+        <v>57710</v>
       </c>
       <c r="B38">
         <v>36.5</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58440</v>
+        <v>58075</v>
       </c>
       <c r="B39">
         <v>37.5</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58806</v>
+        <v>58440</v>
       </c>
       <c r="B40">
         <v>38.5</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>59171</v>
+        <v>58806</v>
       </c>
       <c r="B41">
         <v>39.5</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59536</v>
+        <v>59171</v>
       </c>
       <c r="B42">
         <v>40.5</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59901</v>
+        <v>59536</v>
       </c>
       <c r="B43">
         <v>41.5</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>60267</v>
+        <v>59901</v>
       </c>
       <c r="B44">
         <v>42.5</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60632</v>
+        <v>60267</v>
       </c>
       <c r="B45">
         <v>43.5</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60997</v>
+        <v>60632</v>
       </c>
       <c r="B46">
         <v>44.5</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>61362</v>
+        <v>60997</v>
       </c>
       <c r="B47">
         <v>45.5</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61728</v>
+        <v>61362</v>
       </c>
       <c r="B48">
         <v>46.5</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>62093</v>
+        <v>61728</v>
       </c>
       <c r="B49">
         <v>47.5</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62458</v>
+        <v>62093</v>
       </c>
       <c r="B50">
         <v>48.5</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62823</v>
+        <v>62458</v>
       </c>
       <c r="B51">
         <v>49.5</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>63189</v>
+        <v>62823</v>
       </c>
       <c r="B52">
         <v>50.5</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63554</v>
+        <v>63189</v>
       </c>
       <c r="B53">
         <v>51.5</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63919</v>
+        <v>63554</v>
       </c>
       <c r="B54">
         <v>52.5</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>64284</v>
+        <v>63919</v>
       </c>
       <c r="B55">
         <v>53.5</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64650</v>
+        <v>64284</v>
       </c>
       <c r="B56">
         <v>54.5</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>65015</v>
+        <v>64650</v>
       </c>
       <c r="B57">
         <v>55.5</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65380</v>
+        <v>65015</v>
       </c>
       <c r="B58">
         <v>56.5</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65745</v>
+        <v>65380</v>
       </c>
       <c r="B59">
         <v>57.5</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>66111</v>
+        <v>65745</v>
       </c>
       <c r="B60">
         <v>58.5</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66476</v>
+        <v>66111</v>
       </c>
       <c r="B61">
         <v>59.5</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66841</v>
+        <v>66476</v>
       </c>
       <c r="B62">
         <v>60.5</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>67206</v>
+        <v>66841</v>
       </c>
       <c r="B63">
         <v>61.5</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67572</v>
+        <v>67206</v>
       </c>
       <c r="B64">
         <v>62.5</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67937</v>
+        <v>67572</v>
       </c>
       <c r="B65">
         <v>63.5</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>68302</v>
+        <v>67937</v>
       </c>
       <c r="B66">
         <v>64.5</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68667</v>
+        <v>68302</v>
       </c>
       <c r="B67">
         <v>65.5</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>69033</v>
+        <v>68667</v>
       </c>
       <c r="B68">
         <v>66.5</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69398</v>
+        <v>69033</v>
       </c>
       <c r="B69">
         <v>67.5</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69763</v>
+        <v>69398</v>
       </c>
       <c r="B70">
         <v>68.5</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70128</v>
+        <v>69763</v>
       </c>
       <c r="B71">
         <v>69.5</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70494</v>
+        <v>70128</v>
       </c>
       <c r="B72">
         <v>70.5</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70859</v>
+        <v>70494</v>
       </c>
       <c r="B73">
         <v>71.5</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>71224</v>
+        <v>70859</v>
       </c>
       <c r="B74">
         <v>72.5</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71589</v>
+        <v>71224</v>
       </c>
       <c r="B75">
         <v>73.5</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71955</v>
+        <v>71589</v>
       </c>
       <c r="B76">
         <v>74.5</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>72320</v>
+        <v>71955</v>
       </c>
       <c r="B77">
         <v>75.5</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72685</v>
+        <v>72320</v>
       </c>
       <c r="B78">
         <v>76.5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>73050</v>
+        <v>72685</v>
       </c>
       <c r="B79">
         <v>77.5</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73415</v>
+        <v>73050</v>
       </c>
       <c r="B80">
         <v>78.5</v>
@@ -2100,8 +2100,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f>+EOMONTH(A80,12)</f>
-        <v>73780</v>
+        <v>73415</v>
       </c>
       <c r="B81">
         <v>79.5</v>
@@ -2129,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B07887-8F52-4ACD-9003-CB270BD2655C}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2160,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44926</v>
+        <v>44561</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -2182,7 +2181,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45291</v>
+        <v>44926</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -2203,7 +2202,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -2224,7 +2223,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>46022</v>
+        <v>45657</v>
       </c>
       <c r="B5">
         <v>3.5</v>
@@ -2245,7 +2244,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46387</v>
+        <v>46022</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -2266,7 +2265,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46752</v>
+        <v>46387</v>
       </c>
       <c r="B7">
         <v>5.5</v>
@@ -2287,7 +2286,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>47118</v>
+        <v>46752</v>
       </c>
       <c r="B8">
         <v>6.5</v>
@@ -2308,7 +2307,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47483</v>
+        <v>47118</v>
       </c>
       <c r="B9">
         <v>7.5</v>
@@ -2329,7 +2328,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47848</v>
+        <v>47483</v>
       </c>
       <c r="B10">
         <v>8.5</v>
@@ -2350,7 +2349,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>48213</v>
+        <v>47848</v>
       </c>
       <c r="B11">
         <v>9.5</v>
@@ -2371,7 +2370,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48579</v>
+        <v>48213</v>
       </c>
       <c r="B12">
         <v>10.5</v>
@@ -2392,7 +2391,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48944</v>
+        <v>48579</v>
       </c>
       <c r="B13">
         <v>11.5</v>
@@ -2413,7 +2412,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>49309</v>
+        <v>48944</v>
       </c>
       <c r="B14">
         <v>12.5</v>
@@ -2434,7 +2433,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49674</v>
+        <v>49309</v>
       </c>
       <c r="B15">
         <v>13.5</v>
@@ -2455,7 +2454,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>50040</v>
+        <v>49674</v>
       </c>
       <c r="B16">
         <v>14.5</v>
@@ -2476,7 +2475,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50405</v>
+        <v>50040</v>
       </c>
       <c r="B17">
         <v>15.5</v>
@@ -2497,7 +2496,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50770</v>
+        <v>50405</v>
       </c>
       <c r="B18">
         <v>16.5</v>
@@ -2518,7 +2517,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>51135</v>
+        <v>50770</v>
       </c>
       <c r="B19">
         <v>17.5</v>
@@ -2539,7 +2538,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51501</v>
+        <v>51135</v>
       </c>
       <c r="B20">
         <v>18.5</v>
@@ -2560,7 +2559,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51866</v>
+        <v>51501</v>
       </c>
       <c r="B21">
         <v>19.5</v>
@@ -2581,7 +2580,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>52231</v>
+        <v>51866</v>
       </c>
       <c r="B22">
         <v>20.5</v>
@@ -2602,7 +2601,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52596</v>
+        <v>52231</v>
       </c>
       <c r="B23">
         <v>21.5</v>
@@ -2623,7 +2622,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52962</v>
+        <v>52596</v>
       </c>
       <c r="B24">
         <v>22.5</v>
@@ -2644,7 +2643,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>53327</v>
+        <v>52962</v>
       </c>
       <c r="B25">
         <v>23.5</v>
@@ -2665,7 +2664,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53692</v>
+        <v>53327</v>
       </c>
       <c r="B26">
         <v>24.5</v>
@@ -2686,7 +2685,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>54057</v>
+        <v>53692</v>
       </c>
       <c r="B27">
         <v>25.5</v>
@@ -2707,7 +2706,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54423</v>
+        <v>54057</v>
       </c>
       <c r="B28">
         <v>26.5</v>
@@ -2728,7 +2727,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54788</v>
+        <v>54423</v>
       </c>
       <c r="B29">
         <v>27.5</v>
@@ -2749,7 +2748,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>55153</v>
+        <v>54788</v>
       </c>
       <c r="B30">
         <v>28.5</v>
@@ -2770,7 +2769,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55518</v>
+        <v>55153</v>
       </c>
       <c r="B31">
         <v>29.5</v>
@@ -2791,7 +2790,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55884</v>
+        <v>55518</v>
       </c>
       <c r="B32">
         <v>30.5</v>
@@ -2812,7 +2811,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>56249</v>
+        <v>55884</v>
       </c>
       <c r="B33">
         <v>31.5</v>
@@ -2833,7 +2832,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56614</v>
+        <v>56249</v>
       </c>
       <c r="B34">
         <v>32.5</v>
@@ -2854,7 +2853,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56979</v>
+        <v>56614</v>
       </c>
       <c r="B35">
         <v>33.5</v>
@@ -2875,7 +2874,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>57345</v>
+        <v>56979</v>
       </c>
       <c r="B36">
         <v>34.5</v>
@@ -2896,7 +2895,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57710</v>
+        <v>57345</v>
       </c>
       <c r="B37">
         <v>35.5</v>
@@ -2917,7 +2916,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>58075</v>
+        <v>57710</v>
       </c>
       <c r="B38">
         <v>36.5</v>
@@ -2938,7 +2937,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58440</v>
+        <v>58075</v>
       </c>
       <c r="B39">
         <v>37.5</v>
@@ -2959,7 +2958,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58806</v>
+        <v>58440</v>
       </c>
       <c r="B40">
         <v>38.5</v>
@@ -2980,7 +2979,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>59171</v>
+        <v>58806</v>
       </c>
       <c r="B41">
         <v>39.5</v>
@@ -3001,7 +3000,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59536</v>
+        <v>59171</v>
       </c>
       <c r="B42">
         <v>40.5</v>
@@ -3022,7 +3021,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59901</v>
+        <v>59536</v>
       </c>
       <c r="B43">
         <v>41.5</v>
@@ -3043,7 +3042,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>60267</v>
+        <v>59901</v>
       </c>
       <c r="B44">
         <v>42.5</v>
@@ -3064,7 +3063,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60632</v>
+        <v>60267</v>
       </c>
       <c r="B45">
         <v>43.5</v>
@@ -3085,7 +3084,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60997</v>
+        <v>60632</v>
       </c>
       <c r="B46">
         <v>44.5</v>
@@ -3106,7 +3105,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>61362</v>
+        <v>60997</v>
       </c>
       <c r="B47">
         <v>45.5</v>
@@ -3127,7 +3126,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61728</v>
+        <v>61362</v>
       </c>
       <c r="B48">
         <v>46.5</v>
@@ -3148,7 +3147,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>62093</v>
+        <v>61728</v>
       </c>
       <c r="B49">
         <v>47.5</v>
@@ -3169,7 +3168,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62458</v>
+        <v>62093</v>
       </c>
       <c r="B50">
         <v>48.5</v>
@@ -3190,7 +3189,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62823</v>
+        <v>62458</v>
       </c>
       <c r="B51">
         <v>49.5</v>
@@ -3211,7 +3210,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>63189</v>
+        <v>62823</v>
       </c>
       <c r="B52">
         <v>50.5</v>
@@ -3232,7 +3231,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63554</v>
+        <v>63189</v>
       </c>
       <c r="B53">
         <v>51.5</v>
@@ -3253,7 +3252,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63919</v>
+        <v>63554</v>
       </c>
       <c r="B54">
         <v>52.5</v>
@@ -3274,7 +3273,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>64284</v>
+        <v>63919</v>
       </c>
       <c r="B55">
         <v>53.5</v>
@@ -3295,7 +3294,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64650</v>
+        <v>64284</v>
       </c>
       <c r="B56">
         <v>54.5</v>
@@ -3316,7 +3315,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>65015</v>
+        <v>64650</v>
       </c>
       <c r="B57">
         <v>55.5</v>
@@ -3337,7 +3336,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65380</v>
+        <v>65015</v>
       </c>
       <c r="B58">
         <v>56.5</v>
@@ -3358,7 +3357,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65745</v>
+        <v>65380</v>
       </c>
       <c r="B59">
         <v>57.5</v>
@@ -3379,7 +3378,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>66111</v>
+        <v>65745</v>
       </c>
       <c r="B60">
         <v>58.5</v>
@@ -3400,7 +3399,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66476</v>
+        <v>66111</v>
       </c>
       <c r="B61">
         <v>59.5</v>
@@ -3421,7 +3420,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66841</v>
+        <v>66476</v>
       </c>
       <c r="B62">
         <v>60.5</v>
@@ -3442,7 +3441,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>67206</v>
+        <v>66841</v>
       </c>
       <c r="B63">
         <v>61.5</v>
@@ -3463,7 +3462,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67572</v>
+        <v>67206</v>
       </c>
       <c r="B64">
         <v>62.5</v>
@@ -3484,7 +3483,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67937</v>
+        <v>67572</v>
       </c>
       <c r="B65">
         <v>63.5</v>
@@ -3505,7 +3504,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>68302</v>
+        <v>67937</v>
       </c>
       <c r="B66">
         <v>64.5</v>
@@ -3526,7 +3525,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68667</v>
+        <v>68302</v>
       </c>
       <c r="B67">
         <v>65.5</v>
@@ -3547,7 +3546,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>69033</v>
+        <v>68667</v>
       </c>
       <c r="B68">
         <v>66.5</v>
@@ -3568,7 +3567,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69398</v>
+        <v>69033</v>
       </c>
       <c r="B69">
         <v>67.5</v>
@@ -3589,7 +3588,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69763</v>
+        <v>69398</v>
       </c>
       <c r="B70">
         <v>68.5</v>
@@ -3610,7 +3609,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70128</v>
+        <v>69763</v>
       </c>
       <c r="B71">
         <v>69.5</v>
@@ -3631,7 +3630,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70494</v>
+        <v>70128</v>
       </c>
       <c r="B72">
         <v>70.5</v>
@@ -3652,7 +3651,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70859</v>
+        <v>70494</v>
       </c>
       <c r="B73">
         <v>71.5</v>
@@ -3673,7 +3672,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>71224</v>
+        <v>70859</v>
       </c>
       <c r="B74">
         <v>72.5</v>
@@ -3694,7 +3693,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71589</v>
+        <v>71224</v>
       </c>
       <c r="B75">
         <v>73.5</v>
@@ -3715,7 +3714,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71955</v>
+        <v>71589</v>
       </c>
       <c r="B76">
         <v>74.5</v>
@@ -3736,7 +3735,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>72320</v>
+        <v>71955</v>
       </c>
       <c r="B77">
         <v>75.5</v>
@@ -3757,7 +3756,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72685</v>
+        <v>72320</v>
       </c>
       <c r="B78">
         <v>76.5</v>
@@ -3778,7 +3777,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>73050</v>
+        <v>72685</v>
       </c>
       <c r="B79">
         <v>77.5</v>
@@ -3799,7 +3798,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73415</v>
+        <v>73050</v>
       </c>
       <c r="B80">
         <v>78.5</v>
@@ -3820,8 +3819,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f>+EOMONTH(A80,12)</f>
-        <v>73780</v>
+        <v>73415</v>
       </c>
       <c r="B81">
         <v>79.5</v>

--- a/data/time_series/annual_cashflows_data.xlsx
+++ b/data/time_series/annual_cashflows_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C54F7A-6559-4C96-8031-0C8D3F487BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5484D2C-6630-47E7-AA2C-98071C31468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027456B0-4AAC-4E49-B406-E9435788ACC8}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44926</v>
+        <v>44561</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -462,7 +462,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45291</v>
+        <f>+EOMONTH(A2,12)</f>
+        <v>44926</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -483,7 +484,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45657</v>
+        <f t="shared" ref="A4:A67" si="1">+EOMONTH(A3,12)</f>
+        <v>45291</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -504,7 +506,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>46022</v>
+        <f t="shared" si="1"/>
+        <v>45657</v>
       </c>
       <c r="B5">
         <v>3.5</v>
@@ -525,7 +528,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46387</v>
+        <f t="shared" si="1"/>
+        <v>46022</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -546,7 +550,8 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46752</v>
+        <f t="shared" si="1"/>
+        <v>46387</v>
       </c>
       <c r="B7">
         <v>5.5</v>
@@ -567,7 +572,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>47118</v>
+        <f t="shared" si="1"/>
+        <v>46752</v>
       </c>
       <c r="B8">
         <v>6.5</v>
@@ -588,7 +594,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47483</v>
+        <f t="shared" si="1"/>
+        <v>47118</v>
       </c>
       <c r="B9">
         <v>7.5</v>
@@ -609,7 +616,8 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47848</v>
+        <f t="shared" si="1"/>
+        <v>47483</v>
       </c>
       <c r="B10">
         <v>8.5</v>
@@ -630,7 +638,8 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>48213</v>
+        <f t="shared" si="1"/>
+        <v>47848</v>
       </c>
       <c r="B11">
         <v>9.5</v>
@@ -651,7 +660,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48579</v>
+        <f t="shared" si="1"/>
+        <v>48213</v>
       </c>
       <c r="B12">
         <v>10.5</v>
@@ -672,7 +682,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48944</v>
+        <f t="shared" si="1"/>
+        <v>48579</v>
       </c>
       <c r="B13">
         <v>11.5</v>
@@ -693,7 +704,8 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>49309</v>
+        <f t="shared" si="1"/>
+        <v>48944</v>
       </c>
       <c r="B14">
         <v>12.5</v>
@@ -714,7 +726,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49674</v>
+        <f t="shared" si="1"/>
+        <v>49309</v>
       </c>
       <c r="B15">
         <v>13.5</v>
@@ -735,7 +748,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>50040</v>
+        <f t="shared" si="1"/>
+        <v>49674</v>
       </c>
       <c r="B16">
         <v>14.5</v>
@@ -756,7 +770,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50405</v>
+        <f t="shared" si="1"/>
+        <v>50040</v>
       </c>
       <c r="B17">
         <v>15.5</v>
@@ -777,7 +792,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50770</v>
+        <f t="shared" si="1"/>
+        <v>50405</v>
       </c>
       <c r="B18">
         <v>16.5</v>
@@ -798,7 +814,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>51135</v>
+        <f t="shared" si="1"/>
+        <v>50770</v>
       </c>
       <c r="B19">
         <v>17.5</v>
@@ -819,7 +836,8 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51501</v>
+        <f t="shared" si="1"/>
+        <v>51135</v>
       </c>
       <c r="B20">
         <v>18.5</v>
@@ -840,7 +858,8 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51866</v>
+        <f t="shared" si="1"/>
+        <v>51501</v>
       </c>
       <c r="B21">
         <v>19.5</v>
@@ -861,7 +880,8 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>52231</v>
+        <f t="shared" si="1"/>
+        <v>51866</v>
       </c>
       <c r="B22">
         <v>20.5</v>
@@ -882,7 +902,8 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52596</v>
+        <f t="shared" si="1"/>
+        <v>52231</v>
       </c>
       <c r="B23">
         <v>21.5</v>
@@ -903,7 +924,8 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52962</v>
+        <f t="shared" si="1"/>
+        <v>52596</v>
       </c>
       <c r="B24">
         <v>22.5</v>
@@ -924,7 +946,8 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>53327</v>
+        <f t="shared" si="1"/>
+        <v>52962</v>
       </c>
       <c r="B25">
         <v>23.5</v>
@@ -945,7 +968,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53692</v>
+        <f t="shared" si="1"/>
+        <v>53327</v>
       </c>
       <c r="B26">
         <v>24.5</v>
@@ -966,7 +990,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>54057</v>
+        <f t="shared" si="1"/>
+        <v>53692</v>
       </c>
       <c r="B27">
         <v>25.5</v>
@@ -987,7 +1012,8 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54423</v>
+        <f t="shared" si="1"/>
+        <v>54057</v>
       </c>
       <c r="B28">
         <v>26.5</v>
@@ -1008,7 +1034,8 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54788</v>
+        <f t="shared" si="1"/>
+        <v>54423</v>
       </c>
       <c r="B29">
         <v>27.5</v>
@@ -1029,7 +1056,8 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>55153</v>
+        <f t="shared" si="1"/>
+        <v>54788</v>
       </c>
       <c r="B30">
         <v>28.5</v>
@@ -1050,7 +1078,8 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55518</v>
+        <f t="shared" si="1"/>
+        <v>55153</v>
       </c>
       <c r="B31">
         <v>29.5</v>
@@ -1071,7 +1100,8 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55884</v>
+        <f t="shared" si="1"/>
+        <v>55518</v>
       </c>
       <c r="B32">
         <v>30.5</v>
@@ -1092,7 +1122,8 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>56249</v>
+        <f t="shared" si="1"/>
+        <v>55884</v>
       </c>
       <c r="B33">
         <v>31.5</v>
@@ -1113,7 +1144,8 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56614</v>
+        <f t="shared" si="1"/>
+        <v>56249</v>
       </c>
       <c r="B34">
         <v>32.5</v>
@@ -1134,7 +1166,8 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56979</v>
+        <f t="shared" si="1"/>
+        <v>56614</v>
       </c>
       <c r="B35">
         <v>33.5</v>
@@ -1155,7 +1188,8 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>57345</v>
+        <f t="shared" si="1"/>
+        <v>56979</v>
       </c>
       <c r="B36">
         <v>34.5</v>
@@ -1176,7 +1210,8 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57710</v>
+        <f t="shared" si="1"/>
+        <v>57345</v>
       </c>
       <c r="B37">
         <v>35.5</v>
@@ -1197,7 +1232,8 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>58075</v>
+        <f t="shared" si="1"/>
+        <v>57710</v>
       </c>
       <c r="B38">
         <v>36.5</v>
@@ -1218,7 +1254,8 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58440</v>
+        <f t="shared" si="1"/>
+        <v>58075</v>
       </c>
       <c r="B39">
         <v>37.5</v>
@@ -1239,7 +1276,8 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58806</v>
+        <f t="shared" si="1"/>
+        <v>58440</v>
       </c>
       <c r="B40">
         <v>38.5</v>
@@ -1260,7 +1298,8 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>59171</v>
+        <f t="shared" si="1"/>
+        <v>58806</v>
       </c>
       <c r="B41">
         <v>39.5</v>
@@ -1281,7 +1320,8 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59536</v>
+        <f t="shared" si="1"/>
+        <v>59171</v>
       </c>
       <c r="B42">
         <v>40.5</v>
@@ -1302,7 +1342,8 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59901</v>
+        <f t="shared" si="1"/>
+        <v>59536</v>
       </c>
       <c r="B43">
         <v>41.5</v>
@@ -1323,7 +1364,8 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>60267</v>
+        <f t="shared" si="1"/>
+        <v>59901</v>
       </c>
       <c r="B44">
         <v>42.5</v>
@@ -1344,7 +1386,8 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60632</v>
+        <f t="shared" si="1"/>
+        <v>60267</v>
       </c>
       <c r="B45">
         <v>43.5</v>
@@ -1365,7 +1408,8 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60997</v>
+        <f t="shared" si="1"/>
+        <v>60632</v>
       </c>
       <c r="B46">
         <v>44.5</v>
@@ -1386,7 +1430,8 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>61362</v>
+        <f t="shared" si="1"/>
+        <v>60997</v>
       </c>
       <c r="B47">
         <v>45.5</v>
@@ -1407,7 +1452,8 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61728</v>
+        <f t="shared" si="1"/>
+        <v>61362</v>
       </c>
       <c r="B48">
         <v>46.5</v>
@@ -1428,7 +1474,8 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>62093</v>
+        <f t="shared" si="1"/>
+        <v>61728</v>
       </c>
       <c r="B49">
         <v>47.5</v>
@@ -1449,7 +1496,8 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62458</v>
+        <f t="shared" si="1"/>
+        <v>62093</v>
       </c>
       <c r="B50">
         <v>48.5</v>
@@ -1470,7 +1518,8 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62823</v>
+        <f t="shared" si="1"/>
+        <v>62458</v>
       </c>
       <c r="B51">
         <v>49.5</v>
@@ -1491,7 +1540,8 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>63189</v>
+        <f t="shared" si="1"/>
+        <v>62823</v>
       </c>
       <c r="B52">
         <v>50.5</v>
@@ -1512,7 +1562,8 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63554</v>
+        <f t="shared" si="1"/>
+        <v>63189</v>
       </c>
       <c r="B53">
         <v>51.5</v>
@@ -1533,7 +1584,8 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63919</v>
+        <f t="shared" si="1"/>
+        <v>63554</v>
       </c>
       <c r="B54">
         <v>52.5</v>
@@ -1554,7 +1606,8 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>64284</v>
+        <f t="shared" si="1"/>
+        <v>63919</v>
       </c>
       <c r="B55">
         <v>53.5</v>
@@ -1575,7 +1628,8 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64650</v>
+        <f t="shared" si="1"/>
+        <v>64284</v>
       </c>
       <c r="B56">
         <v>54.5</v>
@@ -1596,7 +1650,8 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>65015</v>
+        <f t="shared" si="1"/>
+        <v>64650</v>
       </c>
       <c r="B57">
         <v>55.5</v>
@@ -1617,7 +1672,8 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65380</v>
+        <f t="shared" si="1"/>
+        <v>65015</v>
       </c>
       <c r="B58">
         <v>56.5</v>
@@ -1638,7 +1694,8 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65745</v>
+        <f t="shared" si="1"/>
+        <v>65380</v>
       </c>
       <c r="B59">
         <v>57.5</v>
@@ -1659,7 +1716,8 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>66111</v>
+        <f t="shared" si="1"/>
+        <v>65745</v>
       </c>
       <c r="B60">
         <v>58.5</v>
@@ -1680,7 +1738,8 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66476</v>
+        <f t="shared" si="1"/>
+        <v>66111</v>
       </c>
       <c r="B61">
         <v>59.5</v>
@@ -1701,7 +1760,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66841</v>
+        <f t="shared" si="1"/>
+        <v>66476</v>
       </c>
       <c r="B62">
         <v>60.5</v>
@@ -1722,7 +1782,8 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>67206</v>
+        <f t="shared" si="1"/>
+        <v>66841</v>
       </c>
       <c r="B63">
         <v>61.5</v>
@@ -1743,7 +1804,8 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67572</v>
+        <f t="shared" si="1"/>
+        <v>67206</v>
       </c>
       <c r="B64">
         <v>62.5</v>
@@ -1764,7 +1826,8 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67937</v>
+        <f t="shared" si="1"/>
+        <v>67572</v>
       </c>
       <c r="B65">
         <v>63.5</v>
@@ -1785,7 +1848,8 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>68302</v>
+        <f t="shared" si="1"/>
+        <v>67937</v>
       </c>
       <c r="B66">
         <v>64.5</v>
@@ -1806,7 +1870,8 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68667</v>
+        <f t="shared" si="1"/>
+        <v>68302</v>
       </c>
       <c r="B67">
         <v>65.5</v>
@@ -1821,13 +1886,14 @@
         <v>17620572.402046002</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
+        <f t="shared" ref="F67:F81" si="2">SUM(C67:E67)</f>
         <v>56150624.175294474</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>69033</v>
+        <f t="shared" ref="A68:A81" si="3">+EOMONTH(A67,12)</f>
+        <v>68667</v>
       </c>
       <c r="B68">
         <v>66.5</v>
@@ -1842,13 +1908,14 @@
         <v>14540723.948767908</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46628032.935372263</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69398</v>
+        <f t="shared" si="3"/>
+        <v>69033</v>
       </c>
       <c r="B69">
         <v>67.5</v>
@@ -1863,13 +1930,14 @@
         <v>11889269.356152872</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38417976.327441692</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69763</v>
+        <f t="shared" si="3"/>
+        <v>69398</v>
       </c>
       <c r="B70">
         <v>68.5</v>
@@ -1884,13 +1952,14 @@
         <v>9626534.1361398604</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31389886.371847428</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70128</v>
+        <f t="shared" si="3"/>
+        <v>69763</v>
       </c>
       <c r="B71">
         <v>69.5</v>
@@ -1905,13 +1974,14 @@
         <v>7713663.9164395034</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25422260.465049516</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70494</v>
+        <f t="shared" si="3"/>
+        <v>70128</v>
       </c>
       <c r="B72">
         <v>70.5</v>
@@ -1926,13 +1996,14 @@
         <v>6112659.9901514407</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20395307.281953312</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70859</v>
+        <f t="shared" si="3"/>
+        <v>70494</v>
       </c>
       <c r="B73">
         <v>71.5</v>
@@ -1947,13 +2018,14 @@
         <v>4786871.5371281961</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16199471.166612659</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>71224</v>
+        <f t="shared" si="3"/>
+        <v>70859</v>
       </c>
       <c r="B74">
         <v>72.5</v>
@@ -1968,13 +2040,14 @@
         <v>3701449.3464187072</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12729681.373702085</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71589</v>
+        <f t="shared" si="3"/>
+        <v>71224</v>
       </c>
       <c r="B75">
         <v>73.5</v>
@@ -1989,13 +2062,14 @@
         <v>2823622.4151561731</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9888535.5350231826</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71955</v>
+        <f t="shared" si="3"/>
+        <v>71589</v>
       </c>
       <c r="B76">
         <v>74.5</v>
@@ -2010,13 +2084,14 @@
         <v>2123037.990304952</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7587395.6586020608</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>72320</v>
+        <f t="shared" si="3"/>
+        <v>71955</v>
       </c>
       <c r="B77">
         <v>75.5</v>
@@ -2031,13 +2106,14 @@
         <v>1571921.1952047334</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5745733.6746767834</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72685</v>
+        <f t="shared" si="3"/>
+        <v>72320</v>
       </c>
       <c r="B78">
         <v>76.5</v>
@@ -2052,13 +2128,14 @@
         <v>1145057.9585733623</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4291050.3366251597</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>73050</v>
+        <f t="shared" si="3"/>
+        <v>72685</v>
       </c>
       <c r="B79">
         <v>77.5</v>
@@ -2073,13 +2150,14 @@
         <v>819894.01799540711</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3157814.7452614373</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73415</v>
+        <f t="shared" si="3"/>
+        <v>73050</v>
       </c>
       <c r="B80">
         <v>78.5</v>
@@ -2094,14 +2172,14 @@
         <v>576571.23908656347</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2290224.6656911313</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f>+EOMONTH(A80,12)</f>
-        <v>73780</v>
+        <f t="shared" si="3"/>
+        <v>73415</v>
       </c>
       <c r="B81">
         <v>79.5</v>
@@ -2116,7 +2194,7 @@
         <v>397899.28710025933</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1637161.6989524323</v>
       </c>
     </row>
@@ -2129,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B07887-8F52-4ACD-9003-CB270BD2655C}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2239,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44926</v>
+        <v>44561</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -2182,7 +2260,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45291</v>
+        <f>+EOMONTH(A2,12)</f>
+        <v>44926</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -2203,7 +2282,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45657</v>
+        <f t="shared" ref="A4:A67" si="1">+EOMONTH(A3,12)</f>
+        <v>45291</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -2224,7 +2304,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>46022</v>
+        <f t="shared" si="1"/>
+        <v>45657</v>
       </c>
       <c r="B5">
         <v>3.5</v>
@@ -2245,7 +2326,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46387</v>
+        <f t="shared" si="1"/>
+        <v>46022</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -2266,7 +2348,8 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46752</v>
+        <f t="shared" si="1"/>
+        <v>46387</v>
       </c>
       <c r="B7">
         <v>5.5</v>
@@ -2287,7 +2370,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>47118</v>
+        <f t="shared" si="1"/>
+        <v>46752</v>
       </c>
       <c r="B8">
         <v>6.5</v>
@@ -2308,7 +2392,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47483</v>
+        <f t="shared" si="1"/>
+        <v>47118</v>
       </c>
       <c r="B9">
         <v>7.5</v>
@@ -2329,7 +2414,8 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47848</v>
+        <f t="shared" si="1"/>
+        <v>47483</v>
       </c>
       <c r="B10">
         <v>8.5</v>
@@ -2350,7 +2436,8 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>48213</v>
+        <f t="shared" si="1"/>
+        <v>47848</v>
       </c>
       <c r="B11">
         <v>9.5</v>
@@ -2371,7 +2458,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48579</v>
+        <f t="shared" si="1"/>
+        <v>48213</v>
       </c>
       <c r="B12">
         <v>10.5</v>
@@ -2392,7 +2480,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48944</v>
+        <f t="shared" si="1"/>
+        <v>48579</v>
       </c>
       <c r="B13">
         <v>11.5</v>
@@ -2413,7 +2502,8 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>49309</v>
+        <f t="shared" si="1"/>
+        <v>48944</v>
       </c>
       <c r="B14">
         <v>12.5</v>
@@ -2434,7 +2524,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49674</v>
+        <f t="shared" si="1"/>
+        <v>49309</v>
       </c>
       <c r="B15">
         <v>13.5</v>
@@ -2455,7 +2546,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>50040</v>
+        <f t="shared" si="1"/>
+        <v>49674</v>
       </c>
       <c r="B16">
         <v>14.5</v>
@@ -2476,7 +2568,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50405</v>
+        <f t="shared" si="1"/>
+        <v>50040</v>
       </c>
       <c r="B17">
         <v>15.5</v>
@@ -2497,7 +2590,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50770</v>
+        <f t="shared" si="1"/>
+        <v>50405</v>
       </c>
       <c r="B18">
         <v>16.5</v>
@@ -2518,7 +2612,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>51135</v>
+        <f t="shared" si="1"/>
+        <v>50770</v>
       </c>
       <c r="B19">
         <v>17.5</v>
@@ -2539,7 +2634,8 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51501</v>
+        <f t="shared" si="1"/>
+        <v>51135</v>
       </c>
       <c r="B20">
         <v>18.5</v>
@@ -2560,7 +2656,8 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51866</v>
+        <f t="shared" si="1"/>
+        <v>51501</v>
       </c>
       <c r="B21">
         <v>19.5</v>
@@ -2581,7 +2678,8 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>52231</v>
+        <f t="shared" si="1"/>
+        <v>51866</v>
       </c>
       <c r="B22">
         <v>20.5</v>
@@ -2602,7 +2700,8 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52596</v>
+        <f t="shared" si="1"/>
+        <v>52231</v>
       </c>
       <c r="B23">
         <v>21.5</v>
@@ -2623,7 +2722,8 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52962</v>
+        <f t="shared" si="1"/>
+        <v>52596</v>
       </c>
       <c r="B24">
         <v>22.5</v>
@@ -2644,7 +2744,8 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>53327</v>
+        <f t="shared" si="1"/>
+        <v>52962</v>
       </c>
       <c r="B25">
         <v>23.5</v>
@@ -2665,7 +2766,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53692</v>
+        <f t="shared" si="1"/>
+        <v>53327</v>
       </c>
       <c r="B26">
         <v>24.5</v>
@@ -2686,7 +2788,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>54057</v>
+        <f t="shared" si="1"/>
+        <v>53692</v>
       </c>
       <c r="B27">
         <v>25.5</v>
@@ -2707,7 +2810,8 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54423</v>
+        <f t="shared" si="1"/>
+        <v>54057</v>
       </c>
       <c r="B28">
         <v>26.5</v>
@@ -2728,7 +2832,8 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54788</v>
+        <f t="shared" si="1"/>
+        <v>54423</v>
       </c>
       <c r="B29">
         <v>27.5</v>
@@ -2749,7 +2854,8 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>55153</v>
+        <f t="shared" si="1"/>
+        <v>54788</v>
       </c>
       <c r="B30">
         <v>28.5</v>
@@ -2770,7 +2876,8 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55518</v>
+        <f t="shared" si="1"/>
+        <v>55153</v>
       </c>
       <c r="B31">
         <v>29.5</v>
@@ -2791,7 +2898,8 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55884</v>
+        <f t="shared" si="1"/>
+        <v>55518</v>
       </c>
       <c r="B32">
         <v>30.5</v>
@@ -2812,7 +2920,8 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>56249</v>
+        <f t="shared" si="1"/>
+        <v>55884</v>
       </c>
       <c r="B33">
         <v>31.5</v>
@@ -2833,7 +2942,8 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56614</v>
+        <f t="shared" si="1"/>
+        <v>56249</v>
       </c>
       <c r="B34">
         <v>32.5</v>
@@ -2854,7 +2964,8 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56979</v>
+        <f t="shared" si="1"/>
+        <v>56614</v>
       </c>
       <c r="B35">
         <v>33.5</v>
@@ -2875,7 +2986,8 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>57345</v>
+        <f t="shared" si="1"/>
+        <v>56979</v>
       </c>
       <c r="B36">
         <v>34.5</v>
@@ -2896,7 +3008,8 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57710</v>
+        <f t="shared" si="1"/>
+        <v>57345</v>
       </c>
       <c r="B37">
         <v>35.5</v>
@@ -2917,7 +3030,8 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>58075</v>
+        <f t="shared" si="1"/>
+        <v>57710</v>
       </c>
       <c r="B38">
         <v>36.5</v>
@@ -2938,7 +3052,8 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58440</v>
+        <f t="shared" si="1"/>
+        <v>58075</v>
       </c>
       <c r="B39">
         <v>37.5</v>
@@ -2959,7 +3074,8 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58806</v>
+        <f t="shared" si="1"/>
+        <v>58440</v>
       </c>
       <c r="B40">
         <v>38.5</v>
@@ -2980,7 +3096,8 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>59171</v>
+        <f t="shared" si="1"/>
+        <v>58806</v>
       </c>
       <c r="B41">
         <v>39.5</v>
@@ -3001,7 +3118,8 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59536</v>
+        <f t="shared" si="1"/>
+        <v>59171</v>
       </c>
       <c r="B42">
         <v>40.5</v>
@@ -3022,7 +3140,8 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59901</v>
+        <f t="shared" si="1"/>
+        <v>59536</v>
       </c>
       <c r="B43">
         <v>41.5</v>
@@ -3043,7 +3162,8 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>60267</v>
+        <f t="shared" si="1"/>
+        <v>59901</v>
       </c>
       <c r="B44">
         <v>42.5</v>
@@ -3064,7 +3184,8 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60632</v>
+        <f t="shared" si="1"/>
+        <v>60267</v>
       </c>
       <c r="B45">
         <v>43.5</v>
@@ -3085,7 +3206,8 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60997</v>
+        <f t="shared" si="1"/>
+        <v>60632</v>
       </c>
       <c r="B46">
         <v>44.5</v>
@@ -3106,7 +3228,8 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>61362</v>
+        <f t="shared" si="1"/>
+        <v>60997</v>
       </c>
       <c r="B47">
         <v>45.5</v>
@@ -3127,7 +3250,8 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61728</v>
+        <f t="shared" si="1"/>
+        <v>61362</v>
       </c>
       <c r="B48">
         <v>46.5</v>
@@ -3148,7 +3272,8 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>62093</v>
+        <f t="shared" si="1"/>
+        <v>61728</v>
       </c>
       <c r="B49">
         <v>47.5</v>
@@ -3169,7 +3294,8 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62458</v>
+        <f t="shared" si="1"/>
+        <v>62093</v>
       </c>
       <c r="B50">
         <v>48.5</v>
@@ -3190,7 +3316,8 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62823</v>
+        <f t="shared" si="1"/>
+        <v>62458</v>
       </c>
       <c r="B51">
         <v>49.5</v>
@@ -3211,7 +3338,8 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>63189</v>
+        <f t="shared" si="1"/>
+        <v>62823</v>
       </c>
       <c r="B52">
         <v>50.5</v>
@@ -3232,7 +3360,8 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63554</v>
+        <f t="shared" si="1"/>
+        <v>63189</v>
       </c>
       <c r="B53">
         <v>51.5</v>
@@ -3253,7 +3382,8 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63919</v>
+        <f t="shared" si="1"/>
+        <v>63554</v>
       </c>
       <c r="B54">
         <v>52.5</v>
@@ -3274,7 +3404,8 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>64284</v>
+        <f t="shared" si="1"/>
+        <v>63919</v>
       </c>
       <c r="B55">
         <v>53.5</v>
@@ -3295,7 +3426,8 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64650</v>
+        <f t="shared" si="1"/>
+        <v>64284</v>
       </c>
       <c r="B56">
         <v>54.5</v>
@@ -3316,7 +3448,8 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>65015</v>
+        <f t="shared" si="1"/>
+        <v>64650</v>
       </c>
       <c r="B57">
         <v>55.5</v>
@@ -3337,7 +3470,8 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65380</v>
+        <f t="shared" si="1"/>
+        <v>65015</v>
       </c>
       <c r="B58">
         <v>56.5</v>
@@ -3358,7 +3492,8 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65745</v>
+        <f t="shared" si="1"/>
+        <v>65380</v>
       </c>
       <c r="B59">
         <v>57.5</v>
@@ -3379,7 +3514,8 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>66111</v>
+        <f t="shared" si="1"/>
+        <v>65745</v>
       </c>
       <c r="B60">
         <v>58.5</v>
@@ -3400,7 +3536,8 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66476</v>
+        <f t="shared" si="1"/>
+        <v>66111</v>
       </c>
       <c r="B61">
         <v>59.5</v>
@@ -3421,7 +3558,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66841</v>
+        <f t="shared" si="1"/>
+        <v>66476</v>
       </c>
       <c r="B62">
         <v>60.5</v>
@@ -3442,7 +3580,8 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>67206</v>
+        <f t="shared" si="1"/>
+        <v>66841</v>
       </c>
       <c r="B63">
         <v>61.5</v>
@@ -3463,7 +3602,8 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67572</v>
+        <f t="shared" si="1"/>
+        <v>67206</v>
       </c>
       <c r="B64">
         <v>62.5</v>
@@ -3484,7 +3624,8 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67937</v>
+        <f t="shared" si="1"/>
+        <v>67572</v>
       </c>
       <c r="B65">
         <v>63.5</v>
@@ -3505,7 +3646,8 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>68302</v>
+        <f t="shared" si="1"/>
+        <v>67937</v>
       </c>
       <c r="B66">
         <v>64.5</v>
@@ -3526,7 +3668,8 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68667</v>
+        <f t="shared" si="1"/>
+        <v>68302</v>
       </c>
       <c r="B67">
         <v>65.5</v>
@@ -3541,13 +3684,14 @@
         <v>5613737.3731370121</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
+        <f t="shared" ref="F67:F81" si="2">SUM(C67:E67)</f>
         <v>10408672.291602688</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>69033</v>
+        <f t="shared" ref="A68:A81" si="3">+EOMONTH(A67,12)</f>
+        <v>68667</v>
       </c>
       <c r="B68">
         <v>66.5</v>
@@ -3562,13 +3706,14 @@
         <v>4793181.7741595935</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8968042.7615011167</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69398</v>
+        <f t="shared" si="3"/>
+        <v>69033</v>
       </c>
       <c r="B69">
         <v>67.5</v>
@@ -3583,13 +3728,14 @@
         <v>4053910.0508217267</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7658539.0498977993</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69763</v>
+        <f t="shared" si="3"/>
+        <v>69398</v>
       </c>
       <c r="B70">
         <v>68.5</v>
@@ -3604,13 +3750,14 @@
         <v>3394354.6205073437</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6478512.2317898646</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70128</v>
+        <f t="shared" si="3"/>
+        <v>69763</v>
       </c>
       <c r="B71">
         <v>69.5</v>
@@ -3625,13 +3772,14 @@
         <v>2812082.5552139655</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5425367.9949210817</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70494</v>
+        <f t="shared" si="3"/>
+        <v>70128</v>
       </c>
       <c r="B72">
         <v>70.5</v>
@@ -3646,13 +3794,14 @@
         <v>2303717.901747026</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4495160.2832379378</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70859</v>
+        <f t="shared" si="3"/>
+        <v>70494</v>
       </c>
       <c r="B73">
         <v>71.5</v>
@@ -3667,13 +3816,14 @@
         <v>1865008.7193233322</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3682514.1955013438</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>71224</v>
+        <f t="shared" si="3"/>
+        <v>70859</v>
       </c>
       <c r="B74">
         <v>72.5</v>
@@ -3688,13 +3838,14 @@
         <v>1490976.663464851</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2980710.5997226508</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71589</v>
+        <f t="shared" si="3"/>
+        <v>71224</v>
       </c>
       <c r="B75">
         <v>73.5</v>
@@ -3709,13 +3860,14 @@
         <v>1176068.601249408</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2381734.5020340187</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71955</v>
+        <f t="shared" si="3"/>
+        <v>71589</v>
       </c>
       <c r="B76">
         <v>74.5</v>
@@ -3730,13 +3882,14 @@
         <v>914425.98314517189</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1876733.5989177078</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>72320</v>
+        <f t="shared" si="3"/>
+        <v>71955</v>
       </c>
       <c r="B77">
         <v>75.5</v>
@@ -3751,13 +3904,14 @@
         <v>700152.25580501626</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1456704.8701808252</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72685</v>
+        <f t="shared" si="3"/>
+        <v>72320</v>
       </c>
       <c r="B78">
         <v>76.5</v>
@@ -3772,13 +3926,14 @@
         <v>527400.94828807283</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1112594.7415723156</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>73050</v>
+        <f t="shared" si="3"/>
+        <v>72685</v>
       </c>
       <c r="B79">
         <v>77.5</v>
@@ -3793,13 +3948,14 @@
         <v>390438.00132461288</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>835246.51611859258</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73415</v>
+        <f t="shared" si="3"/>
+        <v>73050</v>
       </c>
       <c r="B80">
         <v>78.5</v>
@@ -3814,14 +3970,14 @@
         <v>283781.92345908063</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>615617.08377454244</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f>+EOMONTH(A80,12)</f>
-        <v>73780</v>
+        <f t="shared" si="3"/>
+        <v>73415</v>
       </c>
       <c r="B81">
         <v>79.5</v>
@@ -3836,7 +3992,7 @@
         <v>202299.55102132255</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>444959.8221414939</v>
       </c>
     </row>

--- a/data/time_series/annual_cashflows_data.xlsx
+++ b/data/time_series/annual_cashflows_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BE3C3-A949-49B1-85A7-35E395747081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4241F-F505-4D7F-9D17-79E3EAF286B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="375" windowWidth="16095" windowHeight="14565" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027456B0-4AAC-4E49-B406-E9435788ACC8}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,1682 +441,1682 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1213627245.4200001</v>
+        <v>1271759689.7769001</v>
       </c>
       <c r="D2">
-        <v>262659142.11859041</v>
+        <v>305022772.88198435</v>
       </c>
       <c r="E2">
-        <v>424015774.05129546</v>
+        <v>459298244.26983428</v>
       </c>
       <c r="F2">
         <f>SUM(C2:E2)</f>
-        <v>1900302161.589886</v>
+        <v>2036080706.9287188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>1269439337.4100001</v>
+        <v>1334294692.5545442</v>
       </c>
       <c r="D3">
-        <v>293647149.88196254</v>
+        <v>334678729.58018476</v>
       </c>
       <c r="E3">
-        <v>457065275.86267245</v>
+        <v>493177112.01833278</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
-        <v>2020151763.154635</v>
+        <v>2162150534.1530619</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
       <c r="C4">
-        <v>1329411806.5599999</v>
+        <v>1397593768.3513997</v>
       </c>
       <c r="D4">
-        <v>325472217.7202239</v>
+        <v>365464525.65352702</v>
       </c>
       <c r="E4">
-        <v>488405515.40864128</v>
+        <v>524325396.02390504</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2143289539.6888652</v>
+        <v>2287383690.0288315</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
       <c r="C5">
-        <v>1388611025.73</v>
+        <v>1460384784.8013945</v>
       </c>
       <c r="D5">
-        <v>357745042.83172649</v>
+        <v>396812766.02631873</v>
       </c>
       <c r="E5">
-        <v>516863212.12272674</v>
+        <v>552369651.00817847</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2263219280.6844535</v>
+        <v>2409567201.8358917</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="B6">
         <v>4.5</v>
       </c>
       <c r="C6">
-        <v>1447252732.9300001</v>
+        <v>1518688643.4243913</v>
       </c>
       <c r="D6">
-        <v>390014113.85726863</v>
+        <v>428583310.74099493</v>
       </c>
       <c r="E6">
-        <v>540963075.93295217</v>
+        <v>578800917.21694338</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>2378229922.7202206</v>
+        <v>2526072871.3823295</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
       <c r="C7">
-        <v>1502556821.4100001</v>
+        <v>1573651909.6858552</v>
       </c>
       <c r="D7">
-        <v>422013825.0374046</v>
+        <v>460234201.94615793</v>
       </c>
       <c r="E7">
-        <v>563238770.2817446</v>
+        <v>601983532.09984112</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2487809416.7291493</v>
+        <v>2635869643.7318544</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
       <c r="C8">
-        <v>1552050232.1099999</v>
+        <v>1621415906.4887469</v>
       </c>
       <c r="D8">
-        <v>453322828.62352318</v>
+        <v>491068600.34740913</v>
       </c>
       <c r="E8">
-        <v>583346925.73878193</v>
+        <v>622116400.31004858</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2588719986.4723053</v>
+        <v>2734600907.1462045</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="B9">
         <v>7.5</v>
       </c>
       <c r="C9">
-        <v>1593034537.02</v>
+        <v>1664355823.2208059</v>
       </c>
       <c r="D9">
-        <v>483346116.48300433</v>
+        <v>520292280.49876076</v>
       </c>
       <c r="E9">
-        <v>600262968.05763745</v>
+        <v>639585731.86171794</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>2676643621.5606418</v>
+        <v>2824233835.5812845</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="B10">
         <v>8.5</v>
       </c>
       <c r="C10">
-        <v>1628726662.4400001</v>
+        <v>1698659239.821311</v>
       </c>
       <c r="D10">
-        <v>512106964.06418198</v>
+        <v>548283956.89675975</v>
       </c>
       <c r="E10">
-        <v>614431256.93380749</v>
+        <v>654603444.66221559</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2755264883.4379897</v>
+        <v>2901546641.3802867</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>47848</v>
+        <v>48213</v>
       </c>
       <c r="B11">
         <v>9.5</v>
       </c>
       <c r="C11">
-        <v>1660081684.1800001</v>
+        <v>1726319156.6193519</v>
       </c>
       <c r="D11">
-        <v>539789358.94055665</v>
+        <v>574417544.81819165</v>
       </c>
       <c r="E11">
-        <v>626399997.06846392</v>
+        <v>668491171.58578992</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>2826271040.1890206</v>
+        <v>2969227873.0233335</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48213</v>
+        <v>48579</v>
       </c>
       <c r="B12">
         <v>10.5</v>
       </c>
       <c r="C12">
-        <v>1685320815.6700001</v>
+        <v>1747970264.9983914</v>
       </c>
       <c r="D12">
-        <v>565726574.31639421</v>
+        <v>598042643.40131104</v>
       </c>
       <c r="E12">
-        <v>637224083.46310794</v>
+        <v>680668478.31782186</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>2888271473.4495025</v>
+        <v>3026681386.7175245</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="B13">
         <v>11.5</v>
       </c>
       <c r="C13">
-        <v>1703990977.27</v>
+        <v>1761555850.7748008</v>
       </c>
       <c r="D13">
-        <v>589160498.98871207</v>
+        <v>618736094.63673258</v>
       </c>
       <c r="E13">
-        <v>646549908.19188178</v>
+        <v>690962961.71915913</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>2939701384.4505935</v>
+        <v>3071254907.1306925</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>48944</v>
+        <v>49309</v>
       </c>
       <c r="B14">
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>1715411808.22</v>
+        <v>1766053814.525099</v>
       </c>
       <c r="D14">
-        <v>609690875.99307108</v>
+        <v>637022140.72788215</v>
       </c>
       <c r="E14">
-        <v>654004643.88014925</v>
+        <v>698824487.46484196</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>2979107328.0932202</v>
+        <v>3101900442.717823</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49309</v>
+        <v>49674</v>
       </c>
       <c r="B15">
         <v>13.5</v>
       </c>
       <c r="C15">
-        <v>1717248496.4400001</v>
+        <v>1764603265.5145733</v>
       </c>
       <c r="D15">
-        <v>627819121.28365505</v>
+        <v>653490577.60374677</v>
       </c>
       <c r="E15">
-        <v>659341735.95668685</v>
+        <v>705199039.34577358</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>3004409353.6803422</v>
+        <v>3123292882.4640937</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>49674</v>
+        <v>50040</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
       <c r="C16">
-        <v>1714174177.53</v>
+        <v>1756262301.4851317</v>
       </c>
       <c r="D16">
-        <v>643839652.0939014</v>
+        <v>667516102.32476294</v>
       </c>
       <c r="E16">
-        <v>663292666.11693799</v>
+        <v>711578889.11167371</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>3021306495.7408395</v>
+        <v>3135357292.9215684</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50040</v>
+        <v>50405</v>
       </c>
       <c r="B17">
         <v>15.5</v>
       </c>
       <c r="C17">
-        <v>1703777499.29</v>
+        <v>1742245786.3029013</v>
       </c>
       <c r="D17">
-        <v>657553816.45534825</v>
+        <v>679020499.51931417</v>
       </c>
       <c r="E17">
-        <v>667565374.02980375</v>
+        <v>718364513.9474448</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>3028896689.7751517</v>
+        <v>3139630799.7696605</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50405</v>
+        <v>50770</v>
       </c>
       <c r="B18">
         <v>16.5</v>
       </c>
       <c r="C18">
-        <v>1687725805.77</v>
+        <v>1723830470.0975688</v>
       </c>
       <c r="D18">
-        <v>668853099.22501326</v>
+        <v>688617191.80382884</v>
       </c>
       <c r="E18">
-        <v>672200031.14548743</v>
+        <v>724198648.05080462</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>3028778936.1405005</v>
+        <v>3136646309.9522023</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>50770</v>
+        <v>51135</v>
       </c>
       <c r="B19">
         <v>17.5</v>
       </c>
       <c r="C19">
-        <v>1666142611.4100001</v>
+        <v>1700518522.7057946</v>
       </c>
       <c r="D19">
-        <v>678179158.23396182</v>
+        <v>696437415.80981278</v>
       </c>
       <c r="E19">
-        <v>675957099.92138398</v>
+        <v>728677172.56834304</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>3020278869.5653458</v>
+        <v>3125633111.0839505</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51135</v>
+        <v>51501</v>
       </c>
       <c r="B20">
         <v>18.5</v>
       </c>
       <c r="C20">
-        <v>1640558569.6800001</v>
+        <v>1670307044.4425259</v>
       </c>
       <c r="D20">
-        <v>685713582.29591227</v>
+        <v>702649190.08809543</v>
       </c>
       <c r="E20">
-        <v>678178758.23305225</v>
+        <v>731041506.33586216</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>3004450910.2089643</v>
+        <v>3103997740.8664837</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51501</v>
+        <v>51866</v>
       </c>
       <c r="B21">
         <v>19.5</v>
       </c>
       <c r="C21">
-        <v>1608435694.3599999</v>
+        <v>1636253620.4177864</v>
       </c>
       <c r="D21">
-        <v>691498472.09422243</v>
+        <v>707360677.87979913</v>
       </c>
       <c r="E21">
-        <v>678671493.26447356</v>
+        <v>731709072.51195467</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>2978605659.7186956</v>
+        <v>3075323370.8095403</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>51866</v>
+        <v>52231</v>
       </c>
       <c r="B22">
         <v>20.5</v>
       </c>
       <c r="C22">
-        <v>1573397888.3099999</v>
+        <v>1598963911.5332575</v>
       </c>
       <c r="D22">
-        <v>695759069.0108918</v>
+        <v>710538512.42913449</v>
       </c>
       <c r="E22">
-        <v>677334354.24249148</v>
+        <v>730277868.1947974</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>2946491311.5633831</v>
+        <v>3039780292.1571894</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52231</v>
+        <v>52596</v>
       </c>
       <c r="B23">
         <v>21.5</v>
       </c>
       <c r="C23">
-        <v>1534121579.9400001</v>
+        <v>1559542557.267529</v>
       </c>
       <c r="D23">
-        <v>698467634.44513285</v>
+        <v>711965568.59028137</v>
       </c>
       <c r="E23">
-        <v>674115982.06267798</v>
+        <v>727287282.14898837</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>2906705196.4478106</v>
+        <v>2998795408.0067987</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52596</v>
+        <v>52962</v>
       </c>
       <c r="B24">
         <v>22.5</v>
       </c>
       <c r="C24">
-        <v>1492897667.3299999</v>
+        <v>1514382944.9147952</v>
       </c>
       <c r="D24">
-        <v>699372552.20554912</v>
+        <v>711062641.59387386</v>
       </c>
       <c r="E24">
-        <v>669200470.54096711</v>
+        <v>722125089.84558666</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>2861470690.0765162</v>
+        <v>2947570676.3542557</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>52962</v>
+        <v>53327</v>
       </c>
       <c r="B25">
         <v>23.5</v>
       </c>
       <c r="C25">
-        <v>1446057869.3800001</v>
+        <v>1463983103.9177673</v>
       </c>
       <c r="D25">
-        <v>697911404.50421655</v>
+        <v>707805764.38457477</v>
       </c>
       <c r="E25">
-        <v>662461057.13785613</v>
+        <v>715084107.32578897</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>2806430331.0220728</v>
+        <v>2886872975.6281309</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53327</v>
+        <v>53692</v>
       </c>
       <c r="B26">
         <v>24.5</v>
       </c>
       <c r="C26">
-        <v>1394912230.05</v>
+        <v>1411837088.1223538</v>
       </c>
       <c r="D26">
-        <v>693950320.83901548</v>
+        <v>702713972.46224046</v>
       </c>
       <c r="E26">
-        <v>653748623.38036883</v>
+        <v>705829904.31104696</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>2742611174.2693844</v>
+        <v>2820380964.8956413</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>53692</v>
+        <v>54057</v>
       </c>
       <c r="B27">
         <v>25.5</v>
       </c>
       <c r="C27">
-        <v>1341111105.48</v>
+        <v>1353903304.0999784</v>
       </c>
       <c r="D27">
-        <v>688190164.6527648</v>
+        <v>695938373.14723229</v>
       </c>
       <c r="E27">
-        <v>643184810.84966457</v>
+        <v>694727896.54767823</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>2672486080.9824295</v>
+        <v>2744569573.794889</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54057</v>
+        <v>54423</v>
       </c>
       <c r="B28">
         <v>26.5</v>
       </c>
       <c r="C28">
-        <v>1283077822.3499999</v>
+        <v>1292858740.181284</v>
       </c>
       <c r="D28">
-        <v>680810227.93361127</v>
+        <v>687254005.24733424</v>
       </c>
       <c r="E28">
-        <v>630714294.71687984</v>
+        <v>681391948.12679505</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>2594602345.0004911</v>
+        <v>2661504693.5554132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54423</v>
+        <v>54788</v>
       </c>
       <c r="B29">
         <v>27.5</v>
       </c>
       <c r="C29">
-        <v>1221426484.76</v>
+        <v>1228505656.5652938</v>
       </c>
       <c r="D29">
-        <v>671477097.23769784</v>
+        <v>676127273.38512707</v>
       </c>
       <c r="E29">
-        <v>616448234.49187398</v>
+        <v>666247510.02993393</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>2509351816.4895716</v>
+        <v>2570880439.9803548</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>54788</v>
+        <v>55153</v>
       </c>
       <c r="B30">
         <v>28.5</v>
       </c>
       <c r="C30">
-        <v>1156480555.03</v>
+        <v>1156301354.144197</v>
       </c>
       <c r="D30">
-        <v>659790275.68906605</v>
+        <v>662330235.21019256</v>
       </c>
       <c r="E30">
-        <v>600573880.64061856</v>
+        <v>643668495.11074221</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>2416844711.3596849</v>
+        <v>2462300084.4651318</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55153</v>
+        <v>55518</v>
       </c>
       <c r="B31">
         <v>29.5</v>
       </c>
       <c r="C31">
-        <v>1087328191.0699999</v>
+        <v>1084853850.4292223</v>
       </c>
       <c r="D31">
-        <v>645402297.92353272</v>
+        <v>646383920.98619473</v>
       </c>
       <c r="E31">
-        <v>588969020.39382529</v>
+        <v>713610444.43016827</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>2321699509.3873577</v>
+        <v>2444848215.8455853</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55518</v>
+        <v>55884</v>
       </c>
       <c r="B32">
         <v>30.5</v>
       </c>
       <c r="C32">
-        <v>1018731306.6</v>
+        <v>1008392519.5457664</v>
       </c>
       <c r="D32">
-        <v>628845197.47830248</v>
+        <v>628880974.23014629</v>
       </c>
       <c r="E32">
-        <v>654617847.92331505</v>
+        <v>755960292.79888093</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>2302194352.0016174</v>
+        <v>2393233786.5747938</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>55884</v>
+        <v>56249</v>
       </c>
       <c r="B33">
         <v>31.5</v>
       </c>
       <c r="C33">
-        <v>946062645.11000001</v>
+        <v>931937201.45806503</v>
       </c>
       <c r="D33">
-        <v>610738672.94004881</v>
+        <v>610262473.10487366</v>
       </c>
       <c r="E33">
-        <v>700458249.75067556</v>
+        <v>718309614.40364277</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>2257259567.8007245</v>
+        <v>2260509288.9665813</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56249</v>
+        <v>56614</v>
       </c>
       <c r="B34">
         <v>32.5</v>
       </c>
       <c r="C34">
-        <v>874426793.99000001</v>
+        <v>858266545.62756312</v>
       </c>
       <c r="D34">
-        <v>591468532.89777243</v>
+        <v>590661553.62762797</v>
       </c>
       <c r="E34">
-        <v>661931725.8571496</v>
+        <v>679869460.16369355</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>2127827052.7449222</v>
+        <v>2128797559.4188848</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56614</v>
+        <v>56979</v>
       </c>
       <c r="B35">
         <v>33.5</v>
       </c>
       <c r="C35">
-        <v>804894914.36000001</v>
+        <v>784062943.83360577</v>
       </c>
       <c r="D35">
-        <v>571328378.64560461</v>
+        <v>570197664.20564258</v>
       </c>
       <c r="E35">
-        <v>622775801.94075274</v>
+        <v>640986014.1720655</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>1998999094.9463575</v>
+        <v>1995246622.211314</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>56979</v>
+        <v>57345</v>
       </c>
       <c r="B36">
         <v>34.5</v>
       </c>
       <c r="C36">
-        <v>736476970.73000002</v>
+        <v>713532635.04887354</v>
       </c>
       <c r="D36">
-        <v>550575773.560853</v>
+        <v>549092291.91338325</v>
       </c>
       <c r="E36">
-        <v>583337433.7355845</v>
+        <v>608309191.78368604</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>1870390178.0264375</v>
+        <v>1870934118.7459431</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57345</v>
+        <v>57710</v>
       </c>
       <c r="B37">
         <v>35.5</v>
       </c>
       <c r="C37">
-        <v>670670606.39999998</v>
+        <v>646878564.23565769</v>
       </c>
       <c r="D37">
-        <v>529361071.24776328</v>
+        <v>527767079.00643659</v>
       </c>
       <c r="E37">
-        <v>550942897.15521514</v>
+        <v>577174847.05027175</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>1750974574.8029785</v>
+        <v>1751820490.292366</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>57710</v>
+        <v>58075</v>
       </c>
       <c r="B38">
         <v>36.5</v>
       </c>
       <c r="C38">
-        <v>608971991.13</v>
+        <v>584820948.61958647</v>
       </c>
       <c r="D38">
-        <v>507995421.29784733</v>
+        <v>506426167.88870275</v>
       </c>
       <c r="E38">
-        <v>520626161.2241593</v>
+        <v>540626290.90940654</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>1637593573.6520066</v>
+        <v>1631873407.417696</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58075</v>
+        <v>58440</v>
       </c>
       <c r="B39">
         <v>37.5</v>
       </c>
       <c r="C39">
-        <v>551270901.30999994</v>
+        <v>526431218.57979035</v>
       </c>
       <c r="D39">
-        <v>486650182.30266255</v>
+        <v>485038717.66617429</v>
       </c>
       <c r="E39">
-        <v>484646188.42140341</v>
+        <v>504756425.04548085</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>1522567272.034066</v>
+        <v>1516226361.2914455</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58440</v>
+        <v>58806</v>
       </c>
       <c r="B40">
         <v>38.5</v>
       </c>
       <c r="C40">
-        <v>496897872.72000003</v>
+        <v>472608088.1582405</v>
       </c>
       <c r="D40">
-        <v>465188469.71478313</v>
+        <v>463612183.0578903</v>
       </c>
       <c r="E40">
-        <v>449628286.54489565</v>
+        <v>469778067.14511913</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>1411714628.9796789</v>
+        <v>1405998338.3612499</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>58806</v>
+        <v>59171</v>
       </c>
       <c r="B41">
         <v>39.5</v>
       </c>
       <c r="C41">
-        <v>446392131.32999998</v>
+        <v>423242881.88589311</v>
       </c>
       <c r="D41">
-        <v>443033598.73878902</v>
+        <v>441475180.26532054</v>
       </c>
       <c r="E41">
-        <v>415783852.15479821</v>
+        <v>435940339.52474833</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>1305209582.2235873</v>
+        <v>1300658401.675962</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59171</v>
+        <v>59536</v>
       </c>
       <c r="B42">
         <v>40.5</v>
       </c>
       <c r="C42">
-        <v>399563847.73000002</v>
+        <v>377639587.14273655</v>
       </c>
       <c r="D42">
-        <v>420445956.41725731</v>
+        <v>419006833.0370754</v>
       </c>
       <c r="E42">
-        <v>383281984.03516048</v>
+        <v>403344019.67850673</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>1203291788.1824179</v>
+        <v>1199990439.8583188</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59536</v>
+        <v>59901</v>
       </c>
       <c r="B43">
         <v>41.5</v>
       </c>
       <c r="C43">
-        <v>356279034.27999997</v>
+        <v>335669786.73149925</v>
       </c>
       <c r="D43">
-        <v>398395271.62121898</v>
+        <v>397219959.98980606</v>
       </c>
       <c r="E43">
-        <v>352252008.24275076</v>
+        <v>372158214.45647258</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>1106926314.1439695</v>
+        <v>1105047961.177778</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>59901</v>
+        <v>60267</v>
       </c>
       <c r="B44">
         <v>42.5</v>
       </c>
       <c r="C44">
-        <v>316424106.57999998</v>
+        <v>297214071.65897828</v>
       </c>
       <c r="D44">
-        <v>377046021.55714232</v>
+        <v>376166207.61411351</v>
       </c>
       <c r="E44">
-        <v>322811822.83203197</v>
+        <v>342497803.14479679</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>1016281950.9691743</v>
+        <v>1015878082.4178886</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60267</v>
+        <v>60632</v>
       </c>
       <c r="B45">
         <v>43.5</v>
       </c>
       <c r="C45">
-        <v>279903321.61000001</v>
+        <v>262119466.60905999</v>
       </c>
       <c r="D45">
-        <v>355000804.03109366</v>
+        <v>354338265.51383376</v>
       </c>
       <c r="E45">
-        <v>295036481.24885195</v>
+        <v>314422417.07093894</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>929940606.88994575</v>
+        <v>930880149.19383276</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60632</v>
+        <v>60997</v>
       </c>
       <c r="B46">
         <v>44.5</v>
       </c>
       <c r="C46">
-        <v>246586556.37</v>
+        <v>230229572.12651294</v>
       </c>
       <c r="D46">
-        <v>332154553.53467178</v>
+        <v>331591713.11608648</v>
       </c>
       <c r="E46">
-        <v>268953117.07541275</v>
+        <v>287954554.61554396</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>847694226.98008454</v>
+        <v>849775839.85814345</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>60997</v>
+        <v>61362</v>
       </c>
       <c r="B47">
         <v>45.5</v>
       </c>
       <c r="C47">
-        <v>216326458.81999999</v>
+        <v>201357781.62511665</v>
       </c>
       <c r="D47">
-        <v>309922789.65834373</v>
+        <v>309429245.02088314</v>
       </c>
       <c r="E47">
-        <v>244555347.35137379</v>
+        <v>263094524.18681964</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>770804595.82971752</v>
+        <v>773881550.83281946</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61362</v>
+        <v>61728</v>
       </c>
       <c r="B48">
         <v>46.5</v>
       </c>
       <c r="C48">
-        <v>188953210.80000001</v>
+        <v>175305077.05706888</v>
       </c>
       <c r="D48">
-        <v>288462425.10470229</v>
+        <v>288035801.12158203</v>
       </c>
       <c r="E48">
-        <v>221813807.83115515</v>
+        <v>239819936.56882191</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>699229443.73585749</v>
+        <v>703160814.74747276</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>61728</v>
+        <v>62093</v>
       </c>
       <c r="B49">
         <v>47.5</v>
       </c>
       <c r="C49">
-        <v>164278363.03999999</v>
+        <v>151884547.16669726</v>
       </c>
       <c r="D49">
-        <v>267788518.32217118</v>
+        <v>267421756.88784146</v>
       </c>
       <c r="E49">
-        <v>200684753.11110151</v>
+        <v>218083562.22713736</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>632751634.47327268</v>
+        <v>637389866.28167605</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62093</v>
+        <v>62458</v>
       </c>
       <c r="B50">
         <v>48.5</v>
       </c>
       <c r="C50">
-        <v>142120875.03999999</v>
+        <v>130909874.01529619</v>
       </c>
       <c r="D50">
-        <v>247910874.3647587</v>
+        <v>247598458.02949399</v>
       </c>
       <c r="E50">
-        <v>181108394.59670976</v>
+        <v>197836071.68163317</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>571140144.00146842</v>
+        <v>576344403.72642326</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62458</v>
+        <v>62823</v>
       </c>
       <c r="B51">
         <v>49.5</v>
       </c>
       <c r="C51">
-        <v>122300164.87</v>
+        <v>112199790.5994508</v>
       </c>
       <c r="D51">
-        <v>228839536.62758189</v>
+        <v>228578066.31299326</v>
       </c>
       <c r="E51">
-        <v>163019465.61501855</v>
+        <v>179021291.66429055</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>514159167.11260045</v>
+        <v>519799148.5767346</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>62823</v>
+        <v>63189</v>
       </c>
       <c r="B52">
         <v>50.5</v>
       </c>
       <c r="C52">
-        <v>104640857.15000001</v>
+        <v>95580166.77406545</v>
       </c>
       <c r="D52">
-        <v>210580402.0469687</v>
+        <v>210369659.391523</v>
       </c>
       <c r="E52">
-        <v>146345463.57891101</v>
+        <v>161573353.0712963</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>461566722.77587968</v>
+        <v>467523179.23688471</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63189</v>
+        <v>63554</v>
       </c>
       <c r="B53">
         <v>51.5</v>
       </c>
       <c r="C53">
-        <v>88974717.420000002</v>
+        <v>80887059.067299634</v>
       </c>
       <c r="D53">
-        <v>193136441.03002697</v>
+        <v>192978626.21988341</v>
       </c>
       <c r="E53">
-        <v>131006499.70167373</v>
+        <v>145420330.01086167</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>413117658.15170074</v>
+        <v>419286015.29804468</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63554</v>
+        <v>63919</v>
       </c>
       <c r="B54">
         <v>52.5</v>
       </c>
       <c r="C54">
-        <v>75143356.760000005</v>
+        <v>67965738.375762537</v>
       </c>
       <c r="D54">
-        <v>176511591.38236633</v>
+        <v>176410618.2879369</v>
       </c>
       <c r="E54">
-        <v>116922505.81858487</v>
+        <v>130491817.09782808</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>368577453.96095121</v>
+        <v>374868173.76152754</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>63919</v>
+        <v>64284</v>
       </c>
       <c r="B55">
         <v>53.5</v>
       </c>
       <c r="C55">
-        <v>62997487.109999999</v>
+        <v>56669785.993774988</v>
       </c>
       <c r="D55">
-        <v>160710529.94410756</v>
+        <v>160671156.90451452</v>
       </c>
       <c r="E55">
-        <v>104016625.59105338</v>
+        <v>116719240.91076991</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>327724642.64516091</v>
+        <v>334060183.80905938</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64284</v>
+        <v>64650</v>
       </c>
       <c r="B56">
         <v>54.5</v>
       </c>
       <c r="C56">
-        <v>52396035.57</v>
+        <v>46860354.658281453</v>
       </c>
       <c r="D56">
-        <v>145737855.10951975</v>
+        <v>145764849.18996802</v>
       </c>
       <c r="E56">
-        <v>92214859.748915792</v>
+        <v>104036697.74655409</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>290348750.42843556</v>
+        <v>296661901.59480357</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>64650</v>
+        <v>65015</v>
       </c>
       <c r="B57">
         <v>55.5</v>
       </c>
       <c r="C57">
-        <v>43205358.789999999</v>
+        <v>38405377.820659772</v>
       </c>
       <c r="D57">
-        <v>131597372.44534118</v>
+        <v>131694546.71225539</v>
       </c>
       <c r="E57">
-        <v>81446613.403591797</v>
+        <v>92381423.904143631</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>256249344.638933</v>
+        <v>262481348.43705881</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65015</v>
+        <v>65380</v>
       </c>
       <c r="B58">
         <v>56.5</v>
       </c>
       <c r="C58">
-        <v>35298638.060000002</v>
+        <v>31178463.374157261</v>
       </c>
       <c r="D58">
-        <v>118291129.90186666</v>
+        <v>118461099.50449316</v>
       </c>
       <c r="E58">
-        <v>71642420.750188708</v>
+        <v>81694176.441762209</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>225232188.71205539</v>
+        <v>231333739.32041264</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65380</v>
+        <v>65745</v>
       </c>
       <c r="B59">
         <v>57.5</v>
       </c>
       <c r="C59">
-        <v>28554178.98</v>
+        <v>25058322.273654137</v>
       </c>
       <c r="D59">
-        <v>105819098.00988619</v>
+        <v>106063581.19564039</v>
       </c>
       <c r="E59">
-        <v>62743807.462651148</v>
+        <v>71919713.996995106</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>197117084.45253736</v>
+        <v>203041617.46628964</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>65745</v>
+        <v>66111</v>
       </c>
       <c r="B60">
         <v>58.5</v>
       </c>
       <c r="C60">
-        <v>22855775.390000001</v>
+        <v>19927982.312217154</v>
       </c>
       <c r="D60">
-        <v>94179444.085991025</v>
+        <v>94498555.314780757</v>
       </c>
       <c r="E60">
-        <v>54688813.412922546</v>
+        <v>63006245.281382397</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>171724032.88891357</v>
+        <v>177432782.90838033</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66111</v>
+        <v>66476</v>
       </c>
       <c r="B61">
         <v>59.5</v>
       </c>
       <c r="C61">
-        <v>18092107.66</v>
+        <v>15674412.878826506</v>
       </c>
       <c r="D61">
-        <v>83367610.267755643</v>
+        <v>83758759.863959819</v>
       </c>
       <c r="E61">
-        <v>47421568.635305598</v>
+        <v>54905320.474890396</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>148881286.56306124</v>
+        <v>154338493.2176767</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66476</v>
+        <v>66841</v>
       </c>
       <c r="B62">
         <v>60.5</v>
       </c>
       <c r="C62">
-        <v>14154394.720000001</v>
+        <v>12189192.256496249</v>
       </c>
       <c r="D62">
-        <v>73375064.046192244</v>
+        <v>73832711.852168337</v>
       </c>
       <c r="E62">
-        <v>40889651.017982721</v>
+        <v>47571875.227477178</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>128419109.78417496</v>
+        <v>133593779.33614177</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>66841</v>
+        <v>67206</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
       <c r="C63">
-        <v>10939135.16</v>
+        <v>9369368.6914237142</v>
       </c>
       <c r="D63">
-        <v>64188864.743345246</v>
+        <v>64704084.349429935</v>
       </c>
       <c r="E63">
-        <v>35044137.800875515</v>
+        <v>40962841.307786398</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>110172137.70422076</v>
+        <v>115036294.34864005</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67206</v>
+        <v>67572</v>
       </c>
       <c r="B64">
         <v>62.5</v>
       </c>
       <c r="C64">
-        <v>8349468.79</v>
+        <v>7118527.2770683486</v>
       </c>
       <c r="D64">
-        <v>55791231.950221665</v>
+        <v>56352279.60659913</v>
       </c>
       <c r="E64">
-        <v>29838429.274073739</v>
+        <v>35036643.3981786</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>93979130.014295399</v>
+        <v>98507450.281846076</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67572</v>
+        <v>67937</v>
       </c>
       <c r="B65">
         <v>63.5</v>
       </c>
       <c r="C65">
-        <v>6292149.3200000003</v>
+        <v>5347464.5089687798</v>
       </c>
       <c r="D65">
-        <v>48159858.818404883</v>
+        <v>48753046.709183998</v>
       </c>
       <c r="E65">
-        <v>25227871.031134009</v>
+        <v>29752648.900215887</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>79679879.169538885</v>
+        <v>83853160.118368655</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>67937</v>
+        <v>68302</v>
       </c>
       <c r="B66">
         <v>64.5</v>
       </c>
       <c r="C66">
-        <v>4681602.5999999996</v>
+        <v>3974601.0257757092</v>
       </c>
       <c r="D66">
-        <v>41268534.154762141</v>
+        <v>41879538.253810994</v>
       </c>
       <c r="E66">
-        <v>21169250.973493949</v>
+        <v>25070882.509470351</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>67119387.728256091</v>
+        <v>70925021.789057046</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68302</v>
+        <v>68667</v>
       </c>
       <c r="B67">
         <v>65.5</v>
       </c>
       <c r="C67">
-        <v>3442042.69</v>
+        <v>2926612.2941942741</v>
       </c>
       <c r="D67">
-        <v>35088009.083248474</v>
+        <v>35702494.527509771</v>
       </c>
       <c r="E67">
-        <v>17620572.402046002</v>
+        <v>20951568.088949773</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
-        <v>56150624.175294474</v>
+        <v>59580674.910653815</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68667</v>
+        <v>69033</v>
       </c>
       <c r="B68">
         <v>66.5</v>
       </c>
       <c r="C68">
-        <v>2501370.7400000002</v>
+        <v>2139025.7426917045</v>
       </c>
       <c r="D68">
-        <v>29585938.246604353</v>
+        <v>30190186.413493596</v>
       </c>
       <c r="E68">
-        <v>14540723.948767908</v>
+        <v>17354788.973000962</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
-        <v>46628032.935372263</v>
+        <v>49684001.129186258</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69033</v>
+        <v>69398</v>
       </c>
       <c r="B69">
         <v>67.5</v>
       </c>
       <c r="C69">
-        <v>1801365.37</v>
+        <v>1556318.4052462426</v>
       </c>
       <c r="D69">
-        <v>24727341.601288818</v>
+        <v>25308736.757348087</v>
       </c>
       <c r="E69">
-        <v>11889269.356152872</v>
+        <v>14240527.220934518</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
-        <v>38417976.327441692</v>
+        <v>41105582.383528844</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69398</v>
+        <v>69763</v>
       </c>
       <c r="B70">
         <v>68.5</v>
       </c>
       <c r="C70">
-        <v>1288860.3899999999</v>
+        <v>1131707.1675049842</v>
       </c>
       <c r="D70">
-        <v>20474491.845707566</v>
+        <v>21022372.510020766</v>
       </c>
       <c r="E70">
-        <v>9626534.1361398604</v>
+        <v>11568579.141365441</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
-        <v>31389886.371847428</v>
+        <v>33722658.81889119</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69763</v>
+        <v>70128</v>
       </c>
       <c r="B71">
         <v>69.5</v>
       </c>
       <c r="C71">
-        <v>921855.78</v>
+        <v>826736.9177242124</v>
       </c>
       <c r="D71">
-        <v>16786740.768610012</v>
+        <v>17292846.728694666</v>
       </c>
       <c r="E71">
-        <v>7713663.9164395034</v>
+        <v>9298318.4225368463</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
-        <v>25422260.465049516</v>
+        <v>27417902.068955723</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70128</v>
+        <v>70494</v>
       </c>
       <c r="B72">
         <v>70.5</v>
       </c>
       <c r="C72">
-        <v>662042.9</v>
+        <v>610521.08438066335</v>
       </c>
       <c r="D72">
-        <v>13620604.391801871</v>
+        <v>14079137.35034631</v>
       </c>
       <c r="E72">
-        <v>6112659.9901514407</v>
+        <v>7389257.5130524738</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
-        <v>20395307.281953312</v>
+        <v>22078915.947779447</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70494</v>
+        <v>70859</v>
       </c>
       <c r="B73">
         <v>71.5</v>
       </c>
       <c r="C73">
-        <v>482102.5</v>
+        <v>458847.99147915194</v>
       </c>
       <c r="D73">
-        <v>10930497.129484463</v>
+        <v>11338009.655142978</v>
       </c>
       <c r="E73">
-        <v>4786871.5371281961</v>
+        <v>5801607.5625329381</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
-        <v>16199471.166612659</v>
+        <v>17598465.209155068</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>70859</v>
+        <v>71224</v>
       </c>
       <c r="B74">
         <v>72.5</v>
       </c>
       <c r="C74">
-        <v>358689.48</v>
+        <v>353202.87355161901</v>
       </c>
       <c r="D74">
-        <v>8669542.5472833775</v>
+        <v>9024725.3219705001</v>
       </c>
       <c r="E74">
-        <v>3701449.3464187072</v>
+        <v>4496651.3166605122</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
-        <v>12729681.373702085</v>
+        <v>13874579.512182631</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71224</v>
+        <v>71589</v>
       </c>
       <c r="B75">
         <v>73.5</v>
       </c>
       <c r="C75">
-        <v>274637.03000000003</v>
+        <v>279786.82445820147</v>
       </c>
       <c r="D75">
-        <v>6790276.0898670088</v>
+        <v>7093652.8318085792</v>
       </c>
       <c r="E75">
-        <v>2823622.4151561731</v>
+        <v>3437463.892661015</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
-        <v>9888535.5350231826</v>
+        <v>10810903.548927795</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71589</v>
+        <v>71955</v>
       </c>
       <c r="B76">
         <v>74.5</v>
       </c>
       <c r="C76">
-        <v>217960.23</v>
+        <v>228557.27128435677</v>
       </c>
       <c r="D76">
-        <v>5246397.4382971078</v>
+        <v>5500143.6029817322</v>
       </c>
       <c r="E76">
-        <v>2123037.990304952</v>
+        <v>2589425.9400129542</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
-        <v>7587395.6586020608</v>
+        <v>8318126.8142790431</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>71955</v>
+        <v>72320</v>
       </c>
       <c r="B77">
         <v>75.5</v>
       </c>
       <c r="C77">
-        <v>179288.09</v>
+        <v>192338.07935743497</v>
       </c>
       <c r="D77">
-        <v>3994524.3894720506</v>
+        <v>4202245.0832424928</v>
       </c>
       <c r="E77">
-        <v>1571921.1952047334</v>
+        <v>1920370.2593577267</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
-        <v>5745733.6746767834</v>
+        <v>6314953.4219576549</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72320</v>
+        <v>72685</v>
       </c>
       <c r="B78">
         <v>76.5</v>
       </c>
       <c r="C78">
-        <v>152044.59</v>
+        <v>166097.95073007379</v>
       </c>
       <c r="D78">
-        <v>2993947.7880517975</v>
+        <v>3160257.3911741138</v>
       </c>
       <c r="E78">
-        <v>1145057.9585733623</v>
+        <v>1400829.0865221191</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
-        <v>4291050.3366251597</v>
+        <v>4727184.4284263067</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>72685</v>
+        <v>73050</v>
       </c>
       <c r="B79">
         <v>77.5</v>
       </c>
       <c r="C79">
-        <v>131376.57</v>
+        <v>146429.9482509373</v>
       </c>
       <c r="D79">
-        <v>2206544.1572660301</v>
+        <v>2336674.9577224143</v>
       </c>
       <c r="E79">
-        <v>819894.01799540711</v>
+        <v>1004176.7292778747</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
-        <v>3157814.7452614373</v>
+        <v>3487281.6352512264</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73050</v>
+        <v>73415</v>
       </c>
       <c r="B80">
         <v>78.5</v>
       </c>
       <c r="C80">
-        <v>116384.47</v>
+        <v>131038.89077916009</v>
       </c>
       <c r="D80">
-        <v>1597268.9566045678</v>
+        <v>1696688.7340415488</v>
       </c>
       <c r="E80">
-        <v>576571.23908656347</v>
+        <v>706766.93077111209</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
-        <v>2290224.6656911313</v>
+        <v>2534494.5555918212</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>73415</v>
+        <v>73780</v>
       </c>
       <c r="B81">
         <v>79.5</v>
       </c>
       <c r="C81">
-        <v>104942.29</v>
+        <v>118398.75713734548</v>
       </c>
       <c r="D81">
-        <v>1134320.121852173</v>
+        <v>1208410.3406522111</v>
       </c>
       <c r="E81">
-        <v>397899.28710025933</v>
+        <v>488009.76598200144</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
-        <v>1637161.6989524323</v>
+        <v>1814818.8637715578</v>
       </c>
     </row>
   </sheetData>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B07887-8F52-4ACD-9003-CB270BD2655C}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,1682 +2160,1682 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1480324.2242113794</v>
+        <v>77846.880000000005</v>
       </c>
       <c r="D2">
-        <v>151542.48964270126</v>
+        <v>150067.7618867612</v>
       </c>
       <c r="E2">
-        <v>853507.28582016868</v>
+        <v>893244.52234809007</v>
       </c>
       <c r="F2">
         <f>SUM(C2:E2)</f>
-        <v>2485373.9996742494</v>
+        <v>1121159.1642348513</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>4293848.9963713167</v>
+        <v>375321.96</v>
       </c>
       <c r="D3">
-        <v>637893.46071151469</v>
+        <v>652189.70386090875</v>
       </c>
       <c r="E3">
-        <v>3257449.0224890145</v>
+        <v>3385552.0942416741</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
-        <v>8189191.4795718454</v>
+        <v>4413063.7581025828</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
       <c r="C4">
-        <v>6250301.123915934</v>
+        <v>818519.29</v>
       </c>
       <c r="D4">
-        <v>1364554.9920054036</v>
+        <v>1405435.8122873553</v>
       </c>
       <c r="E4">
-        <v>6362006.883028524</v>
+        <v>6591705.487235764</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>13976862.998949861</v>
+        <v>8815660.5895231199</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
       <c r="C5">
-        <v>8255049.3938409537</v>
+        <v>1318267.68</v>
       </c>
       <c r="D5">
-        <v>2184632.6095532193</v>
+        <v>2249949.172186533</v>
       </c>
       <c r="E5">
-        <v>9494575.7567297313</v>
+        <v>9829412.1167093925</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>19934257.760123905</v>
+        <v>13397628.968895925</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="B6">
         <v>4.5</v>
       </c>
       <c r="C6">
-        <v>10381431.015817547</v>
+        <v>1851868.18</v>
       </c>
       <c r="D6">
-        <v>3092235.2306645936</v>
+        <v>3176185.0790408938</v>
       </c>
       <c r="E6">
-        <v>12675105.103187175</v>
+        <v>13067104.602643413</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>26148771.349669315</v>
+        <v>18095157.861684307</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
       <c r="C7">
-        <v>12468679.159448257</v>
+        <v>2382479.7000000002</v>
       </c>
       <c r="D7">
-        <v>4048521.5742307245</v>
+        <v>4138698.9288963252</v>
       </c>
       <c r="E7">
-        <v>15830626.075603152</v>
+        <v>16235101.558962604</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>32347826.809282131</v>
+        <v>22756280.187858932</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
       <c r="C8">
-        <v>14510734.540319595</v>
+        <v>2910564.14</v>
       </c>
       <c r="D8">
-        <v>5009412.0818245653</v>
+        <v>5095182.9684691736</v>
       </c>
       <c r="E8">
-        <v>18885035.388521247</v>
+        <v>19277921.261779893</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>38405182.010665409</v>
+        <v>27283668.370249067</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="B9">
         <v>7.5</v>
       </c>
       <c r="C9">
-        <v>16421348.350879114</v>
+        <v>3387924.58</v>
       </c>
       <c r="D9">
-        <v>5973902.2814260796</v>
+        <v>6048736.1218665559</v>
       </c>
       <c r="E9">
-        <v>21832458.516819932</v>
+        <v>22206397.967894923</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>44227709.149125129</v>
+        <v>31643058.669761479</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="B10">
         <v>8.5</v>
       </c>
       <c r="C10">
-        <v>18213902.233152557</v>
+        <v>3781650.22</v>
       </c>
       <c r="D10">
-        <v>6931660.0427241577</v>
+        <v>7001757.8972421223</v>
       </c>
       <c r="E10">
-        <v>24681967.311602328</v>
+        <v>25050295.643037103</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>49827529.58747904</v>
+        <v>35833703.760279223</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>47848</v>
+        <v>48213</v>
       </c>
       <c r="B11">
         <v>9.5</v>
       </c>
       <c r="C11">
-        <v>19988908.498620246</v>
+        <v>4116432.62</v>
       </c>
       <c r="D11">
-        <v>7885857.5997140491</v>
+        <v>7949823.1965242364</v>
       </c>
       <c r="E11">
-        <v>27444356.326740008</v>
+        <v>27812453.978251498</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>55319122.425074302</v>
+        <v>39878709.794775739</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48213</v>
+        <v>48579</v>
       </c>
       <c r="B12">
         <v>10.5</v>
       </c>
       <c r="C12">
-        <v>21694750.859167647</v>
+        <v>4435645.74</v>
       </c>
       <c r="D12">
-        <v>8830605.4775795564</v>
+        <v>8871402.36902906</v>
       </c>
       <c r="E12">
-        <v>30119575.722258911</v>
+        <v>30484509.76319389</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>60644932.05900611</v>
+        <v>43791557.872222953</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="B13">
         <v>11.5</v>
       </c>
       <c r="C13">
-        <v>23342197.322482944</v>
+        <v>4719494.28</v>
       </c>
       <c r="D13">
-        <v>9744476.111208722</v>
+        <v>9751219.8051034398</v>
       </c>
       <c r="E13">
-        <v>32708480.127799407</v>
+        <v>33055314.697431654</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>65795153.561491072</v>
+        <v>47526028.782535091</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>48944</v>
+        <v>49309</v>
       </c>
       <c r="B14">
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>24839304.334838618</v>
+        <v>4967300.1900000004</v>
       </c>
       <c r="D14">
-        <v>10617709.88625619</v>
+        <v>10596082.588185811</v>
       </c>
       <c r="E14">
-        <v>35190409.831031986</v>
+        <v>35506043.945944235</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>70647424.052126795</v>
+        <v>51069426.724130049</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49309</v>
+        <v>49674</v>
       </c>
       <c r="B15">
         <v>13.5</v>
       </c>
       <c r="C15">
-        <v>26159309.899691425</v>
+        <v>5207547.66</v>
       </c>
       <c r="D15">
-        <v>11456942.424841568</v>
+        <v>11408929.92353484</v>
       </c>
       <c r="E15">
-        <v>37541587.01752907</v>
+        <v>37857465.585880861</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>75157839.342062056</v>
+        <v>54473943.169415697</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>49674</v>
+        <v>50040</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
       <c r="C16">
-        <v>27541802.855674695</v>
+        <v>5423264.9199999999</v>
       </c>
       <c r="D16">
-        <v>12263050.863420643</v>
+        <v>12185260.034251103</v>
       </c>
       <c r="E16">
-        <v>39780960.034711972</v>
+        <v>40131106.384087749</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>79585813.753807306</v>
+        <v>57739631.338338852</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50040</v>
+        <v>50405</v>
       </c>
       <c r="B17">
         <v>15.5</v>
       </c>
       <c r="C17">
-        <v>28663625.78265458</v>
+        <v>5615188.29</v>
       </c>
       <c r="D17">
-        <v>13032920.820406914</v>
+        <v>12939158.622378085</v>
       </c>
       <c r="E17">
-        <v>41929905.526509926</v>
+        <v>42333197.007620141</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>83626452.129571423</v>
+        <v>60887543.919998229</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50405</v>
+        <v>50770</v>
       </c>
       <c r="B18">
         <v>16.5</v>
       </c>
       <c r="C18">
-        <v>29624272.753358331</v>
+        <v>5785851.2000000002</v>
       </c>
       <c r="D18">
-        <v>13772547.003720837</v>
+        <v>13672946.99463976</v>
       </c>
       <c r="E18">
-        <v>43991417.091912232</v>
+        <v>44472547.160179123</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>87388236.848991394</v>
+        <v>63931345.354818881</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>50770</v>
+        <v>51135</v>
       </c>
       <c r="B19">
         <v>17.5</v>
       </c>
       <c r="C19">
-        <v>30571984.938739978</v>
+        <v>5927330.6600000001</v>
       </c>
       <c r="D19">
-        <v>14483340.795611482</v>
+        <v>14387760.179627614</v>
       </c>
       <c r="E19">
-        <v>45972334.145702273</v>
+        <v>46560771.674792446</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>91027659.880053729</v>
+        <v>66875862.514420062</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51135</v>
+        <v>51501</v>
       </c>
       <c r="B20">
         <v>18.5</v>
       </c>
       <c r="C20">
-        <v>31449101.197673738</v>
+        <v>6055790.4900000002</v>
       </c>
       <c r="D20">
-        <v>15180895.092506493</v>
+        <v>15083633.628544874</v>
       </c>
       <c r="E20">
-        <v>47878551.280887984</v>
+        <v>48578992.332065262</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>94508547.571068212</v>
+        <v>69718416.450610131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51501</v>
+        <v>51866</v>
       </c>
       <c r="B21">
         <v>19.5</v>
       </c>
       <c r="C21">
-        <v>32082190.115630936</v>
+        <v>6165655.5899999999</v>
       </c>
       <c r="D21">
-        <v>15872676.626797147</v>
+        <v>15769622.961180741</v>
       </c>
       <c r="E21">
-        <v>49688877.118642777</v>
+        <v>50500742.462843902</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>97643743.861070856</v>
+        <v>72436021.014024645</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>51866</v>
+        <v>52231</v>
       </c>
       <c r="B22">
         <v>20.5</v>
       </c>
       <c r="C22">
-        <v>32466828.128840819</v>
+        <v>6256318.9000000004</v>
       </c>
       <c r="D22">
-        <v>16554119.549562899</v>
+        <v>16455303.951919915</v>
       </c>
       <c r="E22">
-        <v>51370824.041904785</v>
+        <v>52312707.682628036</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>100391771.72030851</v>
+        <v>75024330.534547955</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52231</v>
+        <v>52596</v>
       </c>
       <c r="B23">
         <v>21.5</v>
       </c>
       <c r="C23">
-        <v>32863528.714063067</v>
+        <v>6315677.96</v>
       </c>
       <c r="D23">
-        <v>17230708.401595533</v>
+        <v>17116131.268193495</v>
       </c>
       <c r="E23">
-        <v>52920128.813968949</v>
+        <v>54021398.187091641</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>103014365.92962754</v>
+        <v>77453207.41528514</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52596</v>
+        <v>52962</v>
       </c>
       <c r="B24">
         <v>22.5</v>
       </c>
       <c r="C24">
-        <v>33271445.956951413</v>
+        <v>6342099.6600000001</v>
       </c>
       <c r="D24">
-        <v>17895388.289553553</v>
+        <v>17721066.160138026</v>
       </c>
       <c r="E24">
-        <v>54364576.493288949</v>
+        <v>55626927.518012106</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>105531410.73979391</v>
+        <v>79690093.338150129</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>52962</v>
+        <v>53327</v>
       </c>
       <c r="B25">
         <v>23.5</v>
       </c>
       <c r="C25">
-        <v>33414888.481506739</v>
+        <v>6356267.5499999998</v>
       </c>
       <c r="D25">
-        <v>18517954.886238046</v>
+        <v>18279942.957298703</v>
       </c>
       <c r="E25">
-        <v>55690624.237227231</v>
+        <v>57123440.292451642</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>107623467.60497202</v>
+        <v>81759650.799750343</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53327</v>
+        <v>53692</v>
       </c>
       <c r="B26">
         <v>24.5</v>
       </c>
       <c r="C26">
-        <v>33329289.380176775</v>
+        <v>6342662.8300000001</v>
       </c>
       <c r="D26">
-        <v>19091146.451081488</v>
+        <v>18807748.911265697</v>
       </c>
       <c r="E26">
-        <v>56870661.085454665</v>
+        <v>58503139.119926326</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>109291096.91671294</v>
+        <v>83653550.861192018</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>53692</v>
+        <v>54057</v>
       </c>
       <c r="B27">
         <v>25.5</v>
       </c>
       <c r="C27">
-        <v>33296628.442636512</v>
+        <v>6294681.4800000004</v>
       </c>
       <c r="D27">
-        <v>19620356.494179282</v>
+        <v>19287486.234614551</v>
       </c>
       <c r="E27">
-        <v>57901126.505298585</v>
+        <v>59730143.003568374</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>110818111.44211438</v>
+        <v>85312310.718182921</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54057</v>
+        <v>54423</v>
       </c>
       <c r="B28">
         <v>26.5</v>
       </c>
       <c r="C28">
-        <v>32909262.32598212</v>
+        <v>6214540.0499999998</v>
       </c>
       <c r="D28">
-        <v>20093583.240090195</v>
+        <v>19717083.467986975</v>
       </c>
       <c r="E28">
-        <v>58764914.32565318</v>
+        <v>60797882.713201106</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>111767759.8917255</v>
+        <v>86729506.231188089</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54423</v>
+        <v>54788</v>
       </c>
       <c r="B29">
         <v>27.5</v>
       </c>
       <c r="C29">
-        <v>32393279.247077141</v>
+        <v>6099538.8399999999</v>
       </c>
       <c r="D29">
-        <v>20522452.530372437</v>
+        <v>20100763.355836984</v>
       </c>
       <c r="E29">
-        <v>59466380.726221606</v>
+        <v>61714853.536240473</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>112382112.50367118</v>
+        <v>87915155.73207745</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>54788</v>
+        <v>55153</v>
       </c>
       <c r="B30">
         <v>28.5</v>
       </c>
       <c r="C30">
-        <v>31598504.885900326</v>
+        <v>5958957.96</v>
       </c>
       <c r="D30">
-        <v>20916694.573058076</v>
+        <v>20437780.779836498</v>
       </c>
       <c r="E30">
-        <v>59996396.29226508</v>
+        <v>62459690.436061032</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>112511595.75122347</v>
+        <v>88856429.175897539</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55153</v>
+        <v>55518</v>
       </c>
       <c r="B31">
         <v>29.5</v>
       </c>
       <c r="C31">
-        <v>30417478.432316311</v>
+        <v>5785385.3600000003</v>
       </c>
       <c r="D31">
-        <v>21265439.918048091</v>
+        <v>20718104.221399348</v>
       </c>
       <c r="E31">
-        <v>60316347.911723316</v>
+        <v>63000286.612817973</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>111999266.26208772</v>
+        <v>89503776.194217324</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55518</v>
+        <v>55884</v>
       </c>
       <c r="B32">
         <v>30.5</v>
       </c>
       <c r="C32">
-        <v>29340673.357677847</v>
+        <v>5571024.6399999997</v>
       </c>
       <c r="D32">
-        <v>21551864.035802167</v>
+        <v>20956832.521421291</v>
       </c>
       <c r="E32">
-        <v>60408409.542703725</v>
+        <v>63312081.307784118</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>111300946.93618375</v>
+        <v>89839938.469205409</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>55884</v>
+        <v>56249</v>
       </c>
       <c r="B33">
         <v>31.5</v>
       </c>
       <c r="C33">
-        <v>27821714.537479665</v>
+        <v>5327926.49</v>
       </c>
       <c r="D33">
-        <v>21775329.137692936</v>
+        <v>21174713.029374417</v>
       </c>
       <c r="E33">
-        <v>60260587.801319174</v>
+        <v>63387999.418906763</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>109857631.47649178</v>
+        <v>89890638.938281178</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56249</v>
+        <v>56614</v>
       </c>
       <c r="B34">
         <v>32.5</v>
       </c>
       <c r="C34">
-        <v>26238701.977424517</v>
+        <v>5070520.6399999997</v>
       </c>
       <c r="D34">
-        <v>21971608.712901954</v>
+        <v>21365060.913511738</v>
       </c>
       <c r="E34">
-        <v>59872939.297520421</v>
+        <v>63198950.624290265</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>108083249.98784688</v>
+        <v>89634532.177801996</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56614</v>
+        <v>56979</v>
       </c>
       <c r="B35">
         <v>33.5</v>
       </c>
       <c r="C35">
-        <v>24550017.743211832</v>
+        <v>4802384.8600000003</v>
       </c>
       <c r="D35">
-        <v>22156949.770969369</v>
+        <v>21530521.68941129</v>
       </c>
       <c r="E35">
-        <v>59238695.265142344</v>
+        <v>62746199.053155288</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>105945662.77932355</v>
+        <v>89079105.60256657</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>56979</v>
+        <v>57345</v>
       </c>
       <c r="B36">
         <v>34.5</v>
       </c>
       <c r="C36">
-        <v>22782570.624601971</v>
+        <v>4526688.55</v>
       </c>
       <c r="D36">
-        <v>22333728.214657489</v>
+        <v>21692769.465806767</v>
       </c>
       <c r="E36">
-        <v>58351544.334336862</v>
+        <v>62045019.286080353</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>103467843.17359632</v>
+        <v>88264477.301887125</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57345</v>
+        <v>57710</v>
       </c>
       <c r="B37">
         <v>35.5</v>
       </c>
       <c r="C37">
-        <v>21084668.523620632</v>
+        <v>4246269.88</v>
       </c>
       <c r="D37">
-        <v>22502829.569036476</v>
+        <v>21878980.988597233</v>
       </c>
       <c r="E37">
-        <v>57220748.625263482</v>
+        <v>61053305.048510522</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>100808246.71792059</v>
+        <v>87178555.917107761</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>57710</v>
+        <v>58075</v>
       </c>
       <c r="B38">
         <v>36.5</v>
       </c>
       <c r="C38">
-        <v>19508019.708151761</v>
+        <v>3964711.22</v>
       </c>
       <c r="D38">
-        <v>22678729.438879482</v>
+        <v>22104198.332288269</v>
       </c>
       <c r="E38">
-        <v>55828758.66093234</v>
+        <v>59757527.086442016</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>98015507.80796358</v>
+        <v>85826436.638730288</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58075</v>
+        <v>58440</v>
       </c>
       <c r="B39">
         <v>37.5</v>
       </c>
       <c r="C39">
-        <v>18132405.468249068</v>
+        <v>3686623.09</v>
       </c>
       <c r="D39">
-        <v>22896535.992083035</v>
+        <v>22381651.67835271</v>
       </c>
       <c r="E39">
-        <v>54196650.311278656</v>
+        <v>58199816.040773012</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>95225591.771610767</v>
+        <v>84268090.809125721</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58440</v>
+        <v>58806</v>
       </c>
       <c r="B40">
         <v>38.5</v>
       </c>
       <c r="C40">
-        <v>16755665.273748156</v>
+        <v>3414022.55</v>
       </c>
       <c r="D40">
-        <v>23127980.753175564</v>
+        <v>22675145.469674464</v>
       </c>
       <c r="E40">
-        <v>52397224.67017214</v>
+        <v>56451902.000081114</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>92280870.697095856</v>
+        <v>82541070.019755572</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>58806</v>
+        <v>59171</v>
       </c>
       <c r="B41">
         <v>39.5</v>
       </c>
       <c r="C41">
-        <v>15426787.591633705</v>
+        <v>3148702.86</v>
       </c>
       <c r="D41">
-        <v>23126147.8848808</v>
+        <v>22732032.98119399</v>
       </c>
       <c r="E41">
-        <v>50476353.423770569</v>
+        <v>54556928.758270524</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>89029288.900285065</v>
+        <v>80437664.599464506</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59171</v>
+        <v>59536</v>
       </c>
       <c r="B42">
         <v>40.5</v>
       </c>
       <c r="C42">
-        <v>14145876.529691121</v>
+        <v>2892684.47</v>
       </c>
       <c r="D42">
-        <v>22868412.228984956</v>
+        <v>22534458.159472145</v>
       </c>
       <c r="E42">
-        <v>48451544.969263151</v>
+        <v>52532720.961760052</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>85465833.727939218</v>
+        <v>77959863.591232195</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59536</v>
+        <v>59901</v>
       </c>
       <c r="B43">
         <v>41.5</v>
       </c>
       <c r="C43">
-        <v>12919852.84271335</v>
+        <v>2647285.71</v>
       </c>
       <c r="D43">
-        <v>22624779.604495782</v>
+        <v>22363604.665689718</v>
       </c>
       <c r="E43">
-        <v>46340765.000131123</v>
+        <v>50403924.726559445</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>81885397.44734025</v>
+        <v>75414815.10224916</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>59901</v>
+        <v>60267</v>
       </c>
       <c r="B44">
         <v>42.5</v>
       </c>
       <c r="C44">
-        <v>11750814.934607655</v>
+        <v>2413447.91</v>
       </c>
       <c r="D44">
-        <v>22494908.318431042</v>
+        <v>22330261.995760202</v>
       </c>
       <c r="E44">
-        <v>44172335.55584649</v>
+        <v>48197819.356183551</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>78418058.808885187</v>
+        <v>72941529.261943758</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60267</v>
+        <v>60632</v>
       </c>
       <c r="B45">
         <v>43.5</v>
       </c>
       <c r="C45">
-        <v>10639766.985764632</v>
+        <v>2191770.9900000002</v>
       </c>
       <c r="D45">
-        <v>22172745.674838468</v>
+        <v>22100550.844067201</v>
       </c>
       <c r="E45">
-        <v>41975845.765347295</v>
+        <v>45946153.058519803</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>74788358.425950393</v>
+        <v>70238474.892587006</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60632</v>
+        <v>60997</v>
       </c>
       <c r="B46">
         <v>44.5</v>
       </c>
       <c r="C46">
-        <v>9586917.3109616376</v>
+        <v>1982575.02</v>
       </c>
       <c r="D46">
-        <v>21442606.083639815</v>
+        <v>21418229.890828356</v>
       </c>
       <c r="E46">
-        <v>39774557.724725142</v>
+        <v>43674876.342994027</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>70804081.119326591</v>
+        <v>67075681.253822386</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>60997</v>
+        <v>61362</v>
       </c>
       <c r="B47">
         <v>45.5</v>
       </c>
       <c r="C47">
-        <v>8594509.4848421384</v>
+        <v>1785939.87</v>
       </c>
       <c r="D47">
-        <v>20560953.138471838</v>
+        <v>20553577.285065316</v>
       </c>
       <c r="E47">
-        <v>37587076.486660495</v>
+        <v>41405062.419468939</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>66742539.109974474</v>
+        <v>63744579.574534252</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61362</v>
+        <v>61728</v>
       </c>
       <c r="B48">
         <v>46.5</v>
       </c>
       <c r="C48">
-        <v>7664257.3635288971</v>
+        <v>1601771.88</v>
       </c>
       <c r="D48">
-        <v>19678556.509796891</v>
+        <v>19688490.50469986</v>
       </c>
       <c r="E48">
-        <v>35426194.380697556</v>
+        <v>39151886.09988264</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>62769008.254023343</v>
+        <v>60442148.484582499</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>61728</v>
+        <v>62093</v>
       </c>
       <c r="B49">
         <v>47.5</v>
       </c>
       <c r="C49">
-        <v>6795249.3375787586</v>
+        <v>1429850.68</v>
       </c>
       <c r="D49">
-        <v>18796646.730154343</v>
+        <v>18824070.727937758</v>
       </c>
       <c r="E49">
-        <v>33300674.862129819</v>
+        <v>36921880.355809793</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>58892570.929862916</v>
+        <v>57175801.763747551</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62093</v>
+        <v>62458</v>
       </c>
       <c r="B50">
         <v>48.5</v>
       </c>
       <c r="C50">
-        <v>5988315.8038331578</v>
+        <v>1269911.8500000001</v>
       </c>
       <c r="D50">
-        <v>17915803.031242851</v>
+        <v>17960880.781145781</v>
       </c>
       <c r="E50">
-        <v>31215161.836576086</v>
+        <v>34721597.241830997</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>55119280.671652094</v>
+        <v>53952389.87297678</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62458</v>
+        <v>62823</v>
       </c>
       <c r="B51">
         <v>49.5</v>
       </c>
       <c r="C51">
-        <v>5243532.875479023</v>
+        <v>1121651.79</v>
       </c>
       <c r="D51">
-        <v>17037154.293036271</v>
+        <v>17100140.834045559</v>
       </c>
       <c r="E51">
-        <v>29176454.786744218</v>
+        <v>32559862.436105922</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>51457141.955259517</v>
+        <v>50781655.06015148</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>62823</v>
+        <v>63189</v>
       </c>
       <c r="B52">
         <v>50.5</v>
       </c>
       <c r="C52">
-        <v>4560402.3294574358</v>
+        <v>984748.5</v>
       </c>
       <c r="D52">
-        <v>16162614.783221126</v>
+        <v>16243803.499835158</v>
       </c>
       <c r="E52">
-        <v>27193199.561300345</v>
+        <v>30446504.337904565</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>47916216.67397891</v>
+        <v>47675056.337739721</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63189</v>
+        <v>63554</v>
       </c>
       <c r="B53">
         <v>51.5</v>
       </c>
       <c r="C53">
-        <v>3937869.7548964536</v>
+        <v>858892.52</v>
       </c>
       <c r="D53">
-        <v>15293580.748972112</v>
+        <v>15393191.964602487</v>
       </c>
       <c r="E53">
-        <v>25270062.080512874</v>
+        <v>28387282.596024573</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>44501512.584381439</v>
+        <v>44639367.080627061</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63554</v>
+        <v>63919</v>
       </c>
       <c r="B54">
         <v>52.5</v>
       </c>
       <c r="C54">
-        <v>3374463.1535093179</v>
+        <v>743787.84</v>
       </c>
       <c r="D54">
-        <v>14431269.700461941</v>
+        <v>14549324.446472872</v>
       </c>
       <c r="E54">
-        <v>23408630.367384732</v>
+        <v>26384668.484331548</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>41214363.22135599</v>
+        <v>41677780.77080442</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>63919</v>
+        <v>64284</v>
       </c>
       <c r="B55">
         <v>53.5</v>
       </c>
       <c r="C55">
-        <v>2868292.1742316415</v>
+        <v>639144.06000000006</v>
       </c>
       <c r="D55">
-        <v>13577025.786435066</v>
+        <v>13713254.968848933</v>
       </c>
       <c r="E55">
-        <v>21610641.685887225</v>
+        <v>24441047.590040162</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>38055959.646553934</v>
+        <v>38793446.618889093</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64284</v>
+        <v>64650</v>
       </c>
       <c r="B56">
         <v>54.5</v>
       </c>
       <c r="C56">
-        <v>2417084.1653964114</v>
+        <v>544653.18000000005</v>
       </c>
       <c r="D56">
-        <v>12732317.709305668</v>
+        <v>12886122.425983641</v>
       </c>
       <c r="E56">
-        <v>19877734.39074285</v>
+        <v>22558613.205489703</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>35027136.265444927</v>
+        <v>35989388.81147334</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>64650</v>
+        <v>65015</v>
       </c>
       <c r="B57">
         <v>55.5</v>
       </c>
       <c r="C57">
-        <v>2018206.8440550747</v>
+        <v>459975.16</v>
       </c>
       <c r="D57">
-        <v>11898771.699779557</v>
+        <v>12069176.904869145</v>
       </c>
       <c r="E57">
-        <v>18211438.843848299</v>
+        <v>20739475.076583736</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>32128417.38768293</v>
+        <v>33268627.141452879</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65015</v>
+        <v>65380</v>
       </c>
       <c r="B58">
         <v>56.5</v>
       </c>
       <c r="C58">
-        <v>1668729.3971972333</v>
+        <v>384729.61</v>
       </c>
       <c r="D58">
-        <v>11078149.119256608</v>
+        <v>11263794.123851562</v>
       </c>
       <c r="E58">
-        <v>16613456.139895046</v>
+        <v>18986003.026013166</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>29360334.656348888</v>
+        <v>30634526.759864725</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65380</v>
+        <v>65745</v>
       </c>
       <c r="B59">
         <v>57.5</v>
       </c>
       <c r="C59">
-        <v>1365457.5302280213</v>
+        <v>318491.57</v>
       </c>
       <c r="D59">
-        <v>10272330.594848743</v>
+        <v>10471523.295119584</v>
       </c>
       <c r="E59">
-        <v>15085669.45342824</v>
+        <v>17300971.642626405</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>26723457.578505002</v>
+        <v>28090986.507745989</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>65745</v>
+        <v>66111</v>
       </c>
       <c r="B60">
         <v>58.5</v>
       </c>
       <c r="C60">
-        <v>1105002.8512951622</v>
+        <v>260784.8</v>
       </c>
       <c r="D60">
-        <v>9483344.2336123362</v>
+        <v>9694088.2469958831</v>
       </c>
       <c r="E60">
-        <v>13630066.005969351</v>
+        <v>15687293.016577475</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>24218413.090876848</v>
+        <v>25642166.06357336</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66111</v>
+        <v>66476</v>
       </c>
       <c r="B61">
         <v>59.5</v>
       </c>
       <c r="C61">
-        <v>883802.81156533805</v>
+        <v>211059.14</v>
       </c>
       <c r="D61">
-        <v>8713352.3920996934</v>
+        <v>8933355.0752376206</v>
       </c>
       <c r="E61">
-        <v>12248632.918981988</v>
+        <v>14147977.767778847</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>21845788.122647017</v>
+        <v>23292391.983016469</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66476</v>
+        <v>66841</v>
       </c>
       <c r="B62">
         <v>60.5</v>
       </c>
       <c r="C62">
-        <v>698145.4951142926</v>
+        <v>168713.76</v>
       </c>
       <c r="D62">
-        <v>7964614.8022643244</v>
+        <v>8191303.3377725799</v>
       </c>
       <c r="E62">
-        <v>10943296.157121336</v>
+        <v>12686119.636419913</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>19606056.454499952</v>
+        <v>21046136.734192491</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>66841</v>
+        <v>67206</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
       <c r="C63">
-        <v>544275.02626118413</v>
+        <v>133117.1</v>
       </c>
       <c r="D63">
-        <v>7239428.0390322534</v>
+        <v>7470016.3132153871</v>
       </c>
       <c r="E63">
-        <v>9715927.320641119</v>
+        <v>11304667.600606952</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>17499630.385934558</v>
+        <v>18907801.013822339</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67206</v>
+        <v>67572</v>
       </c>
       <c r="B64">
         <v>62.5</v>
       </c>
       <c r="C64">
-        <v>418457.96356672799</v>
+        <v>103604.46</v>
       </c>
       <c r="D64">
-        <v>6540117.3703037761</v>
+        <v>6771681.340528097</v>
       </c>
       <c r="E64">
-        <v>8568177.0788843464</v>
+        <v>10006286.459590141</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>15526752.41275485</v>
+        <v>16881572.260118239</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67572</v>
+        <v>67937</v>
       </c>
       <c r="B65">
         <v>63.5</v>
       </c>
       <c r="C65">
-        <v>317052.97833790135</v>
+        <v>79493.98</v>
       </c>
       <c r="D65">
-        <v>5869035.2739286441</v>
+        <v>6098549.593219813</v>
       </c>
       <c r="E65">
-        <v>7501367.6877569137</v>
+        <v>8793286.47364562</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>13687455.940023459</v>
+        <v>14971330.046865433</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>67937</v>
+        <v>68302</v>
       </c>
       <c r="B66">
         <v>64.5</v>
       </c>
       <c r="C66">
-        <v>236575.38231801955</v>
+        <v>60096.87</v>
       </c>
       <c r="D66">
-        <v>5228575.3997172499</v>
+        <v>5453027.0975307738</v>
       </c>
       <c r="E66">
-        <v>6516411.0252691954</v>
+        <v>7667574.5026816996</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>11981561.807304464</v>
+        <v>13180698.470212474</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68302</v>
+        <v>68667</v>
       </c>
       <c r="B67">
         <v>65.5</v>
       </c>
       <c r="C67">
-        <v>173731.67822681615</v>
+        <v>44738.62</v>
       </c>
       <c r="D67">
-        <v>4621203.2402388593</v>
+        <v>4837714.9495050432</v>
       </c>
       <c r="E67">
-        <v>5613737.3731370121</v>
+        <v>6630544.276771659</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
-        <v>10408672.291602688</v>
+        <v>11512997.846276702</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68667</v>
+        <v>69033</v>
       </c>
       <c r="B68">
         <v>66.5</v>
       </c>
       <c r="C68">
-        <v>125482.18286134882</v>
+        <v>32778.379999999997</v>
       </c>
       <c r="D68">
-        <v>4049378.8044801741</v>
+        <v>4255295.0394004285</v>
       </c>
       <c r="E68">
-        <v>4793181.7741595935</v>
+        <v>5682940.3272194657</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
-        <v>8968042.7615011167</v>
+        <v>9971013.7466198951</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69033</v>
+        <v>69398</v>
       </c>
       <c r="B69">
         <v>67.5</v>
       </c>
       <c r="C69">
-        <v>89088.003080575509</v>
+        <v>23624.76</v>
       </c>
       <c r="D69">
-        <v>3515540.9959954969</v>
+        <v>3708542.7086408772</v>
       </c>
       <c r="E69">
-        <v>4053910.0508217267</v>
+        <v>4824806.615988981</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
-        <v>7658539.0498977993</v>
+        <v>8556974.0846298579</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69398</v>
+        <v>69763</v>
       </c>
       <c r="B70">
         <v>68.5</v>
       </c>
       <c r="C70">
-        <v>62136.872388721065</v>
+        <v>16743.830000000002</v>
       </c>
       <c r="D70">
-        <v>3022020.7388938004</v>
+        <v>3200261.1237581572</v>
       </c>
       <c r="E70">
-        <v>3394354.6205073437</v>
+        <v>4055350.7354451586</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
-        <v>6478512.2317898646</v>
+        <v>7272355.6892033163</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69763</v>
+        <v>70128</v>
       </c>
       <c r="B71">
         <v>69.5</v>
       </c>
       <c r="C71">
-        <v>42556.714626449655</v>
+        <v>11664.9</v>
       </c>
       <c r="D71">
-        <v>2570728.7250806666</v>
+        <v>2732917.0565961082</v>
       </c>
       <c r="E71">
-        <v>2812082.5552139655</v>
+        <v>3372676.3088405174</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
-        <v>5425367.9949210817</v>
+        <v>6117258.2654366251</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70128</v>
+        <v>70494</v>
       </c>
       <c r="B72">
         <v>70.5</v>
       </c>
       <c r="C72">
-        <v>28609.924424328488</v>
+        <v>7985.3</v>
       </c>
       <c r="D72">
-        <v>2162832.4570665834</v>
+        <v>2308243.8757492304</v>
       </c>
       <c r="E72">
-        <v>2303717.901747026</v>
+        <v>2773730.4597837292</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
-        <v>4495160.2832379378</v>
+        <v>5089959.6355329594</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70494</v>
+        <v>70859</v>
       </c>
       <c r="B73">
         <v>71.5</v>
       </c>
       <c r="C73">
-        <v>18873.381049655458</v>
+        <v>5369.51</v>
       </c>
       <c r="D73">
-        <v>1798632.0951283562</v>
+        <v>1927075.6295116972</v>
       </c>
       <c r="E73">
-        <v>1865008.7193233322</v>
+        <v>2254379.9525247477</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
-        <v>3682514.1955013438</v>
+        <v>4186825.0920364447</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>70859</v>
+        <v>71224</v>
       </c>
       <c r="B74">
         <v>72.5</v>
       </c>
       <c r="C74">
-        <v>12213.693350672356</v>
+        <v>3545.17</v>
       </c>
       <c r="D74">
-        <v>1477520.2429071274</v>
+        <v>1589270.2004678622</v>
       </c>
       <c r="E74">
-        <v>1490976.663464851</v>
+        <v>1809470.3909825333</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
-        <v>2980710.5997226508</v>
+        <v>3402285.7614503955</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71224</v>
+        <v>71589</v>
       </c>
       <c r="B75">
         <v>73.5</v>
       </c>
       <c r="C75">
-        <v>7751.6989021656518</v>
+        <v>2297.56</v>
       </c>
       <c r="D75">
-        <v>1197914.201882445</v>
+        <v>1293616.2331017731</v>
       </c>
       <c r="E75">
-        <v>1176068.601249408</v>
+        <v>1433080.634160406</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
-        <v>2381734.5020340187</v>
+        <v>2728994.4272621791</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71589</v>
+        <v>71955</v>
       </c>
       <c r="B76">
         <v>74.5</v>
       </c>
       <c r="C76">
-        <v>4824.361586256573</v>
+        <v>1461.23</v>
       </c>
       <c r="D76">
-        <v>957483.25418627926</v>
+        <v>1038071.2297752432</v>
       </c>
       <c r="E76">
-        <v>914425.98314517189</v>
+        <v>1118858.2638015014</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
-        <v>1876733.5989177078</v>
+        <v>2158390.7235767446</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>71955</v>
+        <v>72320</v>
       </c>
       <c r="B77">
         <v>75.5</v>
       </c>
       <c r="C77">
-        <v>2944.1059782446609</v>
+        <v>911.72</v>
       </c>
       <c r="D77">
-        <v>753608.50839756418</v>
+        <v>820257.33444551739</v>
       </c>
       <c r="E77">
-        <v>700152.25580501626</v>
+        <v>860272.64003378793</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
-        <v>1456704.8701808252</v>
+        <v>1681441.6944793053</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72320</v>
+        <v>72685</v>
       </c>
       <c r="B78">
         <v>76.5</v>
       </c>
       <c r="C78">
-        <v>1762.0322934518504</v>
+        <v>557.95000000000005</v>
       </c>
       <c r="D78">
-        <v>583431.76099079091</v>
+        <v>637509.4878073053</v>
       </c>
       <c r="E78">
-        <v>527400.94828807283</v>
+        <v>650773.92671308946</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
-        <v>1112594.7415723156</v>
+        <v>1288841.3645203947</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>72685</v>
+        <v>73050</v>
       </c>
       <c r="B79">
         <v>77.5</v>
       </c>
       <c r="C79">
-        <v>1034.4438227360313</v>
+        <v>334.77</v>
       </c>
       <c r="D79">
-        <v>443774.07097124361</v>
+        <v>486774.58880048123</v>
       </c>
       <c r="E79">
-        <v>390438.00132461288</v>
+        <v>483856.07935802185</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
-        <v>835246.51611859258</v>
+        <v>970965.43815850304</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73050</v>
+        <v>73415</v>
       </c>
       <c r="B80">
         <v>78.5</v>
       </c>
       <c r="C80">
-        <v>595.86459984165424</v>
+        <v>196.87</v>
       </c>
       <c r="D80">
-        <v>331239.29571562022</v>
+        <v>364707.74464466877</v>
       </c>
       <c r="E80">
-        <v>283781.92345908063</v>
+        <v>353221.99453852663</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
-        <v>615617.08377454244</v>
+        <v>718126.6091831954</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>73415</v>
+        <v>73780</v>
       </c>
       <c r="B81">
         <v>79.5</v>
       </c>
       <c r="C81">
-        <v>336.86952569318998</v>
+        <v>113.44</v>
       </c>
       <c r="D81">
-        <v>242323.40159447814</v>
+        <v>267789.07107430056</v>
       </c>
       <c r="E81">
-        <v>202299.55102132255</v>
+        <v>252919.51369087139</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
-        <v>444959.8221414939</v>
+        <v>520822.02476517193</v>
       </c>
     </row>
   </sheetData>
@@ -3847,13 +3847,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8773CC19-A081-4E73-B051-09B33C10AE79}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -3878,1362 +3878,642 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1191188083</v>
-      </c>
-      <c r="D2">
-        <v>263594852</v>
-      </c>
-      <c r="E2">
-        <v>413445883</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
-      <c r="C3">
-        <v>1248499566</v>
-      </c>
-      <c r="D3">
-        <v>295780608</v>
-      </c>
-      <c r="E3">
-        <v>453555576</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
-      <c r="C4">
-        <v>1307271855</v>
-      </c>
-      <c r="D4">
-        <v>330113229</v>
-      </c>
-      <c r="E4">
-        <v>494129422</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
-      <c r="C5">
-        <v>1367042353</v>
-      </c>
-      <c r="D5">
-        <v>366427094</v>
-      </c>
-      <c r="E5">
-        <v>636735159</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="B6">
         <v>4.5</v>
       </c>
-      <c r="C6">
-        <v>1427103788</v>
-      </c>
-      <c r="D6">
-        <v>404119980</v>
-      </c>
-      <c r="E6">
-        <v>789591285</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
-      <c r="C7">
-        <v>1484452079</v>
-      </c>
-      <c r="D7">
-        <v>442990038</v>
-      </c>
-      <c r="E7">
-        <v>852563078</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
-      <c r="C8">
-        <v>1536363515</v>
-      </c>
-      <c r="D8">
-        <v>482225574</v>
-      </c>
-      <c r="E8">
-        <v>914676335</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="B9">
         <v>7.5</v>
       </c>
-      <c r="C9">
-        <v>1581469818</v>
-      </c>
-      <c r="D9">
-        <v>521197290</v>
-      </c>
-      <c r="E9">
-        <v>974919705</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="B10">
         <v>8.5</v>
       </c>
-      <c r="C10">
-        <v>1621735840</v>
-      </c>
-      <c r="D10">
-        <v>560436258</v>
-      </c>
-      <c r="E10">
-        <v>1033987023</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>47848</v>
+        <v>48213</v>
       </c>
       <c r="B11">
         <v>9.5</v>
       </c>
-      <c r="C11">
-        <v>1657554698</v>
-      </c>
-      <c r="D11">
-        <v>599527484</v>
-      </c>
-      <c r="E11">
-        <v>1091409435</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>48213</v>
+        <v>48579</v>
       </c>
       <c r="B12">
         <v>10.5</v>
       </c>
-      <c r="C12">
-        <v>1687496410</v>
-      </c>
-      <c r="D12">
-        <v>637181298</v>
-      </c>
-      <c r="E12">
-        <v>1146363153</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="B13">
         <v>11.5</v>
       </c>
-      <c r="C13">
-        <v>1711447598</v>
-      </c>
-      <c r="D13">
-        <v>672566221</v>
-      </c>
-      <c r="E13">
-        <v>1199207211</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>48944</v>
+        <v>49309</v>
       </c>
       <c r="B14">
         <v>12.5</v>
       </c>
-      <c r="C14">
-        <v>1727903278</v>
-      </c>
-      <c r="D14">
-        <v>705046710</v>
-      </c>
-      <c r="E14">
-        <v>1249232842</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>49309</v>
+        <v>49674</v>
       </c>
       <c r="B15">
         <v>13.5</v>
       </c>
-      <c r="C15">
-        <v>1734922953</v>
-      </c>
-      <c r="D15">
-        <v>735063570</v>
-      </c>
-      <c r="E15">
-        <v>1295586837</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>49674</v>
+        <v>50040</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
-      <c r="C16">
-        <v>1735999321</v>
-      </c>
-      <c r="D16">
-        <v>762879059</v>
-      </c>
-      <c r="E16">
-        <v>1338649963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50040</v>
+        <v>50405</v>
       </c>
       <c r="B17">
         <v>15.5</v>
       </c>
-      <c r="C17">
-        <v>1729845699</v>
-      </c>
-      <c r="D17">
-        <v>788316542</v>
-      </c>
-      <c r="E17">
-        <v>1379289971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50405</v>
+        <v>50770</v>
       </c>
       <c r="B18">
         <v>16.5</v>
       </c>
-      <c r="C18">
-        <v>1717408706</v>
-      </c>
-      <c r="D18">
-        <v>811181843</v>
-      </c>
-      <c r="E18">
-        <v>1417865417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>50770</v>
+        <v>51135</v>
       </c>
       <c r="B19">
         <v>17.5</v>
       </c>
-      <c r="C19">
-        <v>1698885662</v>
-      </c>
-      <c r="D19">
-        <v>831811136</v>
-      </c>
-      <c r="E19">
-        <v>1454346394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>51135</v>
+        <v>51501</v>
       </c>
       <c r="B20">
         <v>18.5</v>
       </c>
-      <c r="C20">
-        <v>1675445049</v>
-      </c>
-      <c r="D20">
-        <v>850512879</v>
-      </c>
-      <c r="E20">
-        <v>1488305837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51501</v>
+        <v>51866</v>
       </c>
       <c r="B21">
         <v>19.5</v>
       </c>
-      <c r="C21">
-        <v>1646494324</v>
-      </c>
-      <c r="D21">
-        <v>867258410</v>
-      </c>
-      <c r="E21">
-        <v>1519273519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>51866</v>
+        <v>52231</v>
       </c>
       <c r="B22">
         <v>20.5</v>
       </c>
-      <c r="C22">
-        <v>1612857771</v>
-      </c>
-      <c r="D22">
-        <v>882302383</v>
-      </c>
-      <c r="E22">
-        <v>1546939941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>52231</v>
+        <v>52596</v>
       </c>
       <c r="B23">
         <v>21.5</v>
       </c>
-      <c r="C23">
-        <v>1575847805</v>
-      </c>
-      <c r="D23">
-        <v>895678659</v>
-      </c>
-      <c r="E23">
-        <v>1571566357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>52596</v>
+        <v>52962</v>
       </c>
       <c r="B24">
         <v>22.5</v>
       </c>
-      <c r="C24">
-        <v>1535499269</v>
-      </c>
-      <c r="D24">
-        <v>906967988</v>
-      </c>
-      <c r="E24">
-        <v>1593875828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>52962</v>
+        <v>53327</v>
       </c>
       <c r="B25">
         <v>23.5</v>
       </c>
-      <c r="C25">
-        <v>1489924290</v>
-      </c>
-      <c r="D25">
-        <v>915463355</v>
-      </c>
-      <c r="E25">
-        <v>1613371704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53327</v>
+        <v>53692</v>
       </c>
       <c r="B26">
         <v>24.5</v>
       </c>
-      <c r="C26">
-        <v>1440332453</v>
-      </c>
-      <c r="D26">
-        <v>920678090</v>
-      </c>
-      <c r="E26">
-        <v>1629470088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>53692</v>
+        <v>54057</v>
       </c>
       <c r="B27">
         <v>25.5</v>
       </c>
-      <c r="C27">
-        <v>1387354896</v>
-      </c>
-      <c r="D27">
-        <v>923112787</v>
-      </c>
-      <c r="E27">
-        <v>1642243980</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54057</v>
+        <v>54423</v>
       </c>
       <c r="B28">
         <v>26.5</v>
       </c>
-      <c r="C28">
-        <v>1330010912</v>
-      </c>
-      <c r="D28">
-        <v>922936825</v>
-      </c>
-      <c r="E28">
-        <v>1651322388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>54423</v>
+        <v>54788</v>
       </c>
       <c r="B29">
         <v>27.5</v>
       </c>
-      <c r="C29">
-        <v>1268954059</v>
-      </c>
-      <c r="D29">
-        <v>919904726</v>
-      </c>
-      <c r="E29">
-        <v>1656685374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>54788</v>
+        <v>55153</v>
       </c>
       <c r="B30">
         <v>28.5</v>
       </c>
-      <c r="C30">
-        <v>1204780327</v>
-      </c>
-      <c r="D30">
-        <v>913634861</v>
-      </c>
-      <c r="E30">
-        <v>1658173097</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>55153</v>
+        <v>55518</v>
       </c>
       <c r="B31">
         <v>29.5</v>
       </c>
-      <c r="C31">
-        <v>1136631081</v>
-      </c>
-      <c r="D31">
-        <v>903555313</v>
-      </c>
-      <c r="E31">
-        <v>1654964781</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>55518</v>
+        <v>55884</v>
       </c>
       <c r="B32">
         <v>30.5</v>
       </c>
-      <c r="C32">
-        <v>1068013045</v>
-      </c>
-      <c r="D32">
-        <v>889848082</v>
-      </c>
-      <c r="E32">
-        <v>1646575571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>55884</v>
+        <v>56249</v>
       </c>
       <c r="B33">
         <v>31.5</v>
       </c>
-      <c r="C33">
-        <v>996167673</v>
-      </c>
-      <c r="D33">
-        <v>873416674</v>
-      </c>
-      <c r="E33">
-        <v>1632954973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>56249</v>
+        <v>56614</v>
       </c>
       <c r="B34">
         <v>32.5</v>
       </c>
-      <c r="C34">
-        <v>925650294</v>
-      </c>
-      <c r="D34">
-        <v>855102317</v>
-      </c>
-      <c r="E34">
-        <v>1614125151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>56614</v>
+        <v>56979</v>
       </c>
       <c r="B35">
         <v>33.5</v>
       </c>
-      <c r="C35">
-        <v>856283753</v>
-      </c>
-      <c r="D35">
-        <v>835142005</v>
-      </c>
-      <c r="E35">
-        <v>1589982429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>56979</v>
+        <v>57345</v>
       </c>
       <c r="B36">
         <v>34.5</v>
       </c>
-      <c r="C36">
-        <v>788340447</v>
-      </c>
-      <c r="D36">
-        <v>813817844</v>
-      </c>
-      <c r="E36">
-        <v>1560516237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>57345</v>
+        <v>57710</v>
       </c>
       <c r="B37">
         <v>35.5</v>
       </c>
-      <c r="C37">
-        <v>722513225</v>
-      </c>
-      <c r="D37">
-        <v>791207737</v>
-      </c>
-      <c r="E37">
-        <v>1525871688</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>57710</v>
+        <v>58075</v>
       </c>
       <c r="B38">
         <v>36.5</v>
       </c>
-      <c r="C38">
-        <v>659835321</v>
-      </c>
-      <c r="D38">
-        <v>767587011</v>
-      </c>
-      <c r="E38">
-        <v>1486282577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>58075</v>
+        <v>58440</v>
       </c>
       <c r="B39">
         <v>37.5</v>
       </c>
-      <c r="C39">
-        <v>600789201</v>
-      </c>
-      <c r="D39">
-        <v>742857052</v>
-      </c>
-      <c r="E39">
-        <v>1442544315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>58440</v>
+        <v>58806</v>
       </c>
       <c r="B40">
         <v>38.5</v>
       </c>
-      <c r="C40">
-        <v>544745016</v>
-      </c>
-      <c r="D40">
-        <v>715183431</v>
-      </c>
-      <c r="E40">
-        <v>1395153550</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>58806</v>
+        <v>59171</v>
       </c>
       <c r="B41">
         <v>39.5</v>
       </c>
-      <c r="C41">
-        <v>492209500</v>
-      </c>
-      <c r="D41">
-        <v>684737177</v>
-      </c>
-      <c r="E41">
-        <v>1344502376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>59171</v>
+        <v>59536</v>
       </c>
       <c r="B42">
         <v>40.5</v>
       </c>
-      <c r="C42">
-        <v>443006711</v>
-      </c>
-      <c r="D42">
-        <v>653840355</v>
-      </c>
-      <c r="E42">
-        <v>1290990587</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>59536</v>
+        <v>59901</v>
       </c>
       <c r="B43">
         <v>41.5</v>
       </c>
-      <c r="C43">
-        <v>397213541</v>
-      </c>
-      <c r="D43">
-        <v>623424114</v>
-      </c>
-      <c r="E43">
-        <v>1234983136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>59901</v>
+        <v>60267</v>
       </c>
       <c r="B44">
         <v>42.5</v>
       </c>
-      <c r="C44">
-        <v>354785253</v>
-      </c>
-      <c r="D44">
-        <v>591803810</v>
-      </c>
-      <c r="E44">
-        <v>1177428733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>60267</v>
+        <v>60632</v>
       </c>
       <c r="B45">
         <v>43.5</v>
       </c>
-      <c r="C45">
-        <v>315658210</v>
-      </c>
-      <c r="D45">
-        <v>558425426</v>
-      </c>
-      <c r="E45">
-        <v>1119232403</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>60632</v>
+        <v>60997</v>
       </c>
       <c r="B46">
         <v>44.5</v>
       </c>
-      <c r="C46">
-        <v>279723591</v>
-      </c>
-      <c r="D46">
-        <v>525126582</v>
-      </c>
-      <c r="E46">
-        <v>1060927222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>60997</v>
+        <v>61362</v>
       </c>
       <c r="B47">
         <v>45.5</v>
       </c>
-      <c r="C47">
-        <v>246849906</v>
-      </c>
-      <c r="D47">
-        <v>492543561</v>
-      </c>
-      <c r="E47">
-        <v>1002913962</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>61362</v>
+        <v>61728</v>
       </c>
       <c r="B48">
         <v>46.5</v>
       </c>
-      <c r="C48">
-        <v>216889179</v>
-      </c>
-      <c r="D48">
-        <v>460770517</v>
-      </c>
-      <c r="E48">
-        <v>945519189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>61728</v>
+        <v>62093</v>
       </c>
       <c r="B49">
         <v>47.5</v>
       </c>
-      <c r="C49">
-        <v>189682983</v>
-      </c>
-      <c r="D49">
-        <v>429860893</v>
-      </c>
-      <c r="E49">
-        <v>888872805</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>62093</v>
+        <v>62458</v>
       </c>
       <c r="B50">
         <v>48.5</v>
       </c>
-      <c r="C50">
-        <v>165074729</v>
-      </c>
-      <c r="D50">
-        <v>399861361</v>
-      </c>
-      <c r="E50">
-        <v>833101777</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>62458</v>
+        <v>62823</v>
       </c>
       <c r="B51">
         <v>49.5</v>
       </c>
-      <c r="C51">
-        <v>142904875</v>
-      </c>
-      <c r="D51">
-        <v>370831089</v>
-      </c>
-      <c r="E51">
-        <v>778578533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>62823</v>
+        <v>63189</v>
       </c>
       <c r="B52">
         <v>50.5</v>
       </c>
-      <c r="C52">
-        <v>123015196</v>
-      </c>
-      <c r="D52">
-        <v>342807826</v>
-      </c>
-      <c r="E52">
-        <v>725555180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63189</v>
+        <v>63554</v>
       </c>
       <c r="B53">
         <v>51.5</v>
       </c>
-      <c r="C53">
-        <v>105250493</v>
-      </c>
-      <c r="D53">
-        <v>315821041</v>
-      </c>
-      <c r="E53">
-        <v>674066761</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63554</v>
+        <v>63919</v>
       </c>
       <c r="B54">
         <v>52.5</v>
       </c>
-      <c r="C54">
-        <v>89461602</v>
-      </c>
-      <c r="D54">
-        <v>289901073</v>
-      </c>
-      <c r="E54">
-        <v>624157456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>63919</v>
+        <v>64284</v>
       </c>
       <c r="B55">
         <v>53.5</v>
       </c>
-      <c r="C55">
-        <v>75505173</v>
-      </c>
-      <c r="D55">
-        <v>265078419</v>
-      </c>
-      <c r="E55">
-        <v>575878636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>64284</v>
+        <v>64650</v>
       </c>
       <c r="B56">
         <v>54.5</v>
       </c>
-      <c r="C56">
-        <v>63243205</v>
-      </c>
-      <c r="D56">
-        <v>241382949</v>
-      </c>
-      <c r="E56">
-        <v>529273693</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>64650</v>
+        <v>65015</v>
       </c>
       <c r="B57">
         <v>55.5</v>
       </c>
-      <c r="C57">
-        <v>52541143</v>
-      </c>
-      <c r="D57">
-        <v>218842965</v>
-      </c>
-      <c r="E57">
-        <v>484393657</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>65015</v>
+        <v>65380</v>
       </c>
       <c r="B58">
         <v>56.5</v>
       </c>
-      <c r="C58">
-        <v>43269832</v>
-      </c>
-      <c r="D58">
-        <v>197483183</v>
-      </c>
-      <c r="E58">
-        <v>441303798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>65380</v>
+        <v>65745</v>
       </c>
       <c r="B59">
         <v>57.5</v>
       </c>
-      <c r="C59">
-        <v>35303929</v>
-      </c>
-      <c r="D59">
-        <v>177324107</v>
-      </c>
-      <c r="E59">
-        <v>400072156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>65745</v>
+        <v>66111</v>
       </c>
       <c r="B60">
         <v>58.5</v>
       </c>
-      <c r="C60">
-        <v>28522975</v>
-      </c>
-      <c r="D60">
-        <v>158382128</v>
-      </c>
-      <c r="E60">
-        <v>360769886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>66111</v>
+        <v>66476</v>
       </c>
       <c r="B61">
         <v>59.5</v>
       </c>
-      <c r="C61">
-        <v>22806219</v>
-      </c>
-      <c r="D61">
-        <v>140668623</v>
-      </c>
-      <c r="E61">
-        <v>323467408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66476</v>
+        <v>66841</v>
       </c>
       <c r="B62">
         <v>60.5</v>
       </c>
-      <c r="C62">
-        <v>18036808</v>
-      </c>
-      <c r="D62">
-        <v>124188470</v>
-      </c>
-      <c r="E62">
-        <v>288232776</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>66841</v>
+        <v>67206</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
-      <c r="C63">
-        <v>14107744</v>
-      </c>
-      <c r="D63">
-        <v>108939476</v>
-      </c>
-      <c r="E63">
-        <v>255130750</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67206</v>
+        <v>67572</v>
       </c>
       <c r="B64">
         <v>62.5</v>
       </c>
-      <c r="C64">
-        <v>10905306</v>
-      </c>
-      <c r="D64">
-        <v>94911599</v>
-      </c>
-      <c r="E64">
-        <v>224217958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>67572</v>
+        <v>67937</v>
       </c>
       <c r="B65">
         <v>63.5</v>
       </c>
-      <c r="C65">
-        <v>8329235</v>
-      </c>
-      <c r="D65">
-        <v>82087282</v>
-      </c>
-      <c r="E65">
-        <v>195539718</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>67937</v>
+        <v>68302</v>
       </c>
       <c r="B66">
         <v>64.5</v>
       </c>
-      <c r="C66">
-        <v>6288649</v>
-      </c>
-      <c r="D66">
-        <v>70442317</v>
-      </c>
-      <c r="E66">
-        <v>169127901</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68302</v>
+        <v>68667</v>
       </c>
       <c r="B67">
         <v>65.5</v>
       </c>
-      <c r="C67">
-        <v>4693874</v>
-      </c>
-      <c r="D67">
-        <v>59945853</v>
-      </c>
-      <c r="E67">
-        <v>144998964</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68667</v>
+        <v>69033</v>
       </c>
       <c r="B68">
         <v>66.5</v>
       </c>
-      <c r="C68">
-        <v>3462171</v>
-      </c>
-      <c r="D68">
-        <v>50561016</v>
-      </c>
-      <c r="E68">
-        <v>123150132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69033</v>
+        <v>69398</v>
       </c>
       <c r="B69">
         <v>67.5</v>
       </c>
-      <c r="C69">
-        <v>2530386</v>
-      </c>
-      <c r="D69">
-        <v>42244890</v>
-      </c>
-      <c r="E69">
-        <v>103556311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69398</v>
+        <v>69763</v>
       </c>
       <c r="B70">
         <v>68.5</v>
       </c>
-      <c r="C70">
-        <v>1834341</v>
-      </c>
-      <c r="D70">
-        <v>34946583</v>
-      </c>
-      <c r="E70">
-        <v>86168273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69763</v>
+        <v>70128</v>
       </c>
       <c r="B71">
         <v>69.5</v>
       </c>
-      <c r="C71">
-        <v>1323215</v>
-      </c>
-      <c r="D71">
-        <v>28606601</v>
-      </c>
-      <c r="E71">
-        <v>70908819</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70128</v>
+        <v>70494</v>
       </c>
       <c r="B72">
         <v>70.5</v>
       </c>
-      <c r="C72">
-        <v>953097</v>
-      </c>
-      <c r="D72">
-        <v>23157919</v>
-      </c>
-      <c r="E72">
-        <v>57672047</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70494</v>
+        <v>70859</v>
       </c>
       <c r="B73">
         <v>71.5</v>
       </c>
-      <c r="C73">
-        <v>689649</v>
-      </c>
-      <c r="D73">
-        <v>18527311</v>
-      </c>
-      <c r="E73">
-        <v>46328151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>70859</v>
+        <v>71224</v>
       </c>
       <c r="B74">
         <v>72.5</v>
       </c>
-      <c r="C74">
-        <v>503526</v>
-      </c>
-      <c r="D74">
-        <v>14636881</v>
-      </c>
-      <c r="E74">
-        <v>36727939</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71224</v>
+        <v>71589</v>
       </c>
       <c r="B75">
         <v>73.5</v>
       </c>
-      <c r="C75">
-        <v>373781</v>
-      </c>
-      <c r="D75">
-        <v>11407027</v>
-      </c>
-      <c r="E75">
-        <v>28708889</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71589</v>
+        <v>71955</v>
       </c>
       <c r="B76">
         <v>74.5</v>
       </c>
-      <c r="C76">
-        <v>284438</v>
-      </c>
-      <c r="D76">
-        <v>8760607</v>
-      </c>
-      <c r="E76">
-        <v>22104325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>71955</v>
+        <v>72320</v>
       </c>
       <c r="B77">
         <v>75.5</v>
       </c>
-      <c r="C77">
-        <v>222792</v>
-      </c>
-      <c r="D77">
-        <v>6623550</v>
-      </c>
-      <c r="E77">
-        <v>16748288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>72320</v>
+        <v>72685</v>
       </c>
       <c r="B78">
         <v>76.5</v>
       </c>
-      <c r="C78">
-        <v>179373</v>
-      </c>
-      <c r="D78">
-        <v>4924667</v>
-      </c>
-      <c r="E78">
-        <v>12475850</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>72685</v>
+        <v>73050</v>
       </c>
       <c r="B79">
         <v>77.5</v>
       </c>
-      <c r="C79">
-        <v>149037</v>
-      </c>
-      <c r="D79">
-        <v>3596829</v>
-      </c>
-      <c r="E79">
-        <v>9127565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73050</v>
+        <v>73415</v>
       </c>
       <c r="B80">
         <v>78.5</v>
       </c>
-      <c r="C80">
-        <v>127193</v>
-      </c>
-      <c r="D80">
-        <v>2577772</v>
-      </c>
-      <c r="E80">
-        <v>6552450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>73415</v>
+        <v>73780</v>
       </c>
       <c r="B81">
         <v>79.5</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/annual_cashflows_data.xlsx
+++ b/data/time_series/annual_cashflows_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4241F-F505-4D7F-9D17-79E3EAF286B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9599065-18E9-403E-A74E-ED71D587FB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{F3CCDB8E-F5F3-42E2-A382-F3745238F716}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="1" r:id="rId1"/>
@@ -408,18 +408,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027456B0-4AAC-4E49-B406-E9435788ACC8}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -439,1684 +439,1684 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1271759689.7769001</v>
+        <v>1373322019.6739943</v>
       </c>
       <c r="D2">
-        <v>305022772.88198435</v>
+        <v>339750266.15897739</v>
       </c>
       <c r="E2">
-        <v>459298244.26983428</v>
+        <v>499729319.41250658</v>
       </c>
       <c r="F2">
         <f>SUM(C2:E2)</f>
-        <v>2036080706.9287188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2212801605.2454782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>1334294692.5545442</v>
+        <v>1429462747.5462487</v>
       </c>
       <c r="D3">
-        <v>334678729.58018476</v>
+        <v>371780388.86288357</v>
       </c>
       <c r="E3">
-        <v>493177112.01833278</v>
+        <v>541359753.46007133</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
-        <v>2162150534.1530619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2342602889.8692036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
       <c r="C4">
-        <v>1397593768.3513997</v>
+        <v>1485469503.9186175</v>
       </c>
       <c r="D4">
-        <v>365464525.65352702</v>
+        <v>404381509.9978317</v>
       </c>
       <c r="E4">
-        <v>524325396.02390504</v>
+        <v>579561633.14159167</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2287383690.0288315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2469412647.0580406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
       <c r="C5">
-        <v>1460384784.8013945</v>
+        <v>1539126261.1767397</v>
       </c>
       <c r="D5">
-        <v>396812766.02631873</v>
+        <v>437411064.54105878</v>
       </c>
       <c r="E5">
-        <v>552369651.00817847</v>
+        <v>617074769.96865761</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2409567201.8358917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2593612095.6864562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="B6">
         <v>4.5</v>
       </c>
       <c r="C6">
-        <v>1518688643.4243913</v>
+        <v>1590423047.3497596</v>
       </c>
       <c r="D6">
-        <v>428583310.74099493</v>
+        <v>470162962.16468143</v>
       </c>
       <c r="E6">
-        <v>578800917.21694338</v>
+        <v>650213984.3545742</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>2526072871.3823295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2710799993.8690152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
       <c r="C7">
-        <v>1573651909.6858552</v>
+        <v>1633713205.2663982</v>
       </c>
       <c r="D7">
-        <v>460234201.94615793</v>
+        <v>501793116.65503156</v>
       </c>
       <c r="E7">
-        <v>601983532.09984112</v>
+        <v>678076214.04547215</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2635869643.7318544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2813582535.9669018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
       <c r="C8">
-        <v>1621415906.4887469</v>
+        <v>1674194496.2154489</v>
       </c>
       <c r="D8">
-        <v>491068600.34740913</v>
+        <v>532147399.80300546</v>
       </c>
       <c r="E8">
-        <v>622116400.31004858</v>
+        <v>702211682.1000185</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2734600907.1462045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2908553578.1184731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="B9">
         <v>7.5</v>
       </c>
       <c r="C9">
-        <v>1664355823.2208059</v>
+        <v>1707790555.9039917</v>
       </c>
       <c r="D9">
-        <v>520292280.49876076</v>
+        <v>561307799.41944826</v>
       </c>
       <c r="E9">
-        <v>639585731.86171794</v>
+        <v>723305244.49470925</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>2824233835.5812845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2992403599.8181496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>47848</v>
+        <v>48213</v>
       </c>
       <c r="B10">
         <v>8.5</v>
       </c>
       <c r="C10">
-        <v>1698659239.821311</v>
+        <v>1733914130.0057793</v>
       </c>
       <c r="D10">
-        <v>548283956.89675975</v>
+        <v>588498973.50505793</v>
       </c>
       <c r="E10">
-        <v>654603444.66221559</v>
+        <v>742260461.49739206</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2901546641.3802867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3064673565.0082293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>48213</v>
+        <v>48579</v>
       </c>
       <c r="B11">
         <v>9.5</v>
       </c>
       <c r="C11">
-        <v>1726319156.6193519</v>
+        <v>1753414340.6772306</v>
       </c>
       <c r="D11">
-        <v>574417544.81819165</v>
+        <v>613785654.46492112</v>
       </c>
       <c r="E11">
-        <v>668491171.58578992</v>
+        <v>758603226.27426291</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>2969227873.0233335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3125803221.4164147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="B12">
         <v>10.5</v>
       </c>
       <c r="C12">
-        <v>1747970264.9983914</v>
+        <v>1767189026.5776663</v>
       </c>
       <c r="D12">
-        <v>598042643.40131104</v>
+        <v>636882291.72716308</v>
       </c>
       <c r="E12">
-        <v>680668478.31782186</v>
+        <v>772564683.33012116</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3026681386.7175245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3176636001.6349506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>48944</v>
+        <v>49309</v>
       </c>
       <c r="B13">
         <v>11.5</v>
       </c>
       <c r="C13">
-        <v>1761555850.7748008</v>
+        <v>1771275199.9389012</v>
       </c>
       <c r="D13">
-        <v>618736094.63673258</v>
+        <v>657586107.70506179</v>
       </c>
       <c r="E13">
-        <v>690962961.71915913</v>
+        <v>783718616.66907084</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>3071254907.1306925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3212579924.3130336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>49309</v>
+        <v>49674</v>
       </c>
       <c r="B14">
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>1766053814.525099</v>
+        <v>1770111235.3911917</v>
       </c>
       <c r="D14">
-        <v>637022140.72788215</v>
+        <v>676038922.56951118</v>
       </c>
       <c r="E14">
-        <v>698824487.46484196</v>
+        <v>792652328.92568493</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>3101900442.717823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3238802486.8863878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>49674</v>
+        <v>50040</v>
       </c>
       <c r="B15">
         <v>13.5</v>
       </c>
       <c r="C15">
-        <v>1764603265.5145733</v>
+        <v>1762095951.7866755</v>
       </c>
       <c r="D15">
-        <v>653490577.60374677</v>
+        <v>692083043.38907456</v>
       </c>
       <c r="E15">
-        <v>705199039.34577358</v>
+        <v>801432231.32033181</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>3123292882.4640937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3255611226.4960814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>50040</v>
+        <v>50405</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
       <c r="C16">
-        <v>1756262301.4851317</v>
+        <v>1748259133.479032</v>
       </c>
       <c r="D16">
-        <v>667516102.32476294</v>
+        <v>705764174.16403639</v>
       </c>
       <c r="E16">
-        <v>711578889.11167371</v>
+        <v>810375254.22351992</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>3135357292.9215684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3264398561.8665881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>50405</v>
+        <v>50770</v>
       </c>
       <c r="B17">
         <v>15.5</v>
       </c>
       <c r="C17">
-        <v>1742245786.3029013</v>
+        <v>1730123043.9385078</v>
       </c>
       <c r="D17">
-        <v>679020499.51931417</v>
+        <v>717495530.52496529</v>
       </c>
       <c r="E17">
-        <v>718364513.9474448</v>
+        <v>817998733.82960057</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>3139630799.7696605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3265617308.2930737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>50770</v>
+        <v>51135</v>
       </c>
       <c r="B18">
         <v>16.5</v>
       </c>
       <c r="C18">
-        <v>1723830470.0975688</v>
+        <v>1707675697.3116865</v>
       </c>
       <c r="D18">
-        <v>688617191.80382884</v>
+        <v>727303593.64062536</v>
       </c>
       <c r="E18">
-        <v>724198648.05080462</v>
+        <v>824328959.20759654</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>3136646309.9522023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3259308250.1599083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>51135</v>
+        <v>51501</v>
       </c>
       <c r="B19">
         <v>17.5</v>
       </c>
       <c r="C19">
-        <v>1700518522.7057946</v>
+        <v>1678097226.497257</v>
       </c>
       <c r="D19">
-        <v>696437415.80981278</v>
+        <v>735140244.4324795</v>
       </c>
       <c r="E19">
-        <v>728677172.56834304</v>
+        <v>828411796.75307333</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>3125633111.0839505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3241649267.6828098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>51501</v>
+        <v>51866</v>
       </c>
       <c r="B20">
         <v>18.5</v>
       </c>
       <c r="C20">
-        <v>1670307044.4425259</v>
+        <v>1644854569.818738</v>
       </c>
       <c r="D20">
-        <v>702649190.08809543</v>
+        <v>741321399.60979259</v>
       </c>
       <c r="E20">
-        <v>731041506.33586216</v>
+        <v>830380013.49312496</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>3103997740.8664837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3216555982.9216557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>51866</v>
+        <v>52231</v>
       </c>
       <c r="B21">
         <v>19.5</v>
       </c>
       <c r="C21">
-        <v>1636253620.4177864</v>
+        <v>1607098336.2281451</v>
       </c>
       <c r="D21">
-        <v>707360677.87979913</v>
+        <v>745696746.32980895</v>
       </c>
       <c r="E21">
-        <v>731709072.51195467</v>
+        <v>830134170.31817973</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>3075323370.8095403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3182929252.8761334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>52231</v>
+        <v>52596</v>
       </c>
       <c r="B22">
         <v>20.5</v>
       </c>
       <c r="C22">
-        <v>1598963911.5332575</v>
+        <v>1568297536.0804701</v>
       </c>
       <c r="D22">
-        <v>710538512.42913449</v>
+        <v>748102160.57043898</v>
       </c>
       <c r="E22">
-        <v>730277868.1947974</v>
+        <v>828280947.03293538</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>3039780292.1571894</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3144680643.6838446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>52596</v>
+        <v>52962</v>
       </c>
       <c r="B23">
         <v>21.5</v>
       </c>
       <c r="C23">
-        <v>1559542557.267529</v>
+        <v>1523093089.8707104</v>
       </c>
       <c r="D23">
-        <v>711965568.59028137</v>
+        <v>747986791.26438785</v>
       </c>
       <c r="E23">
-        <v>727287282.14898837</v>
+        <v>824164349.54403925</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>2998795408.0067987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3095244230.6791377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>52962</v>
+        <v>53327</v>
       </c>
       <c r="B24">
         <v>22.5</v>
       </c>
       <c r="C24">
-        <v>1514382944.9147952</v>
+        <v>1473012781.1578734</v>
       </c>
       <c r="D24">
-        <v>711062641.59387386</v>
+        <v>745199818.76910651</v>
       </c>
       <c r="E24">
-        <v>722125089.84558666</v>
+        <v>817898467.95577598</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>2947570676.3542557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3036111067.8827562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>53327</v>
+        <v>53692</v>
       </c>
       <c r="B25">
         <v>23.5</v>
       </c>
       <c r="C25">
-        <v>1463983103.9177673</v>
+        <v>1421725987.81428</v>
       </c>
       <c r="D25">
-        <v>707805764.38457477</v>
+        <v>740629349.83712602</v>
       </c>
       <c r="E25">
-        <v>715084107.32578897</v>
+        <v>809160912.6280967</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>2886872975.6281309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2971516250.2795029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>53692</v>
+        <v>54057</v>
       </c>
       <c r="B26">
         <v>24.5</v>
       </c>
       <c r="C26">
-        <v>1411837088.1223538</v>
+        <v>1364612670.7945104</v>
       </c>
       <c r="D26">
-        <v>702713972.46224046</v>
+        <v>734466917.0502634</v>
       </c>
       <c r="E26">
-        <v>705829904.31104696</v>
+        <v>798308297.33159745</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>2820380964.8956413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2897387885.1763711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>54057</v>
+        <v>54423</v>
       </c>
       <c r="B27">
         <v>25.5</v>
       </c>
       <c r="C27">
-        <v>1353903304.0999784</v>
+        <v>1303132601.9253769</v>
       </c>
       <c r="D27">
-        <v>695938373.14723229</v>
+        <v>726330674.17806184</v>
       </c>
       <c r="E27">
-        <v>694727896.54767823</v>
+        <v>784978344.16335595</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>2744569573.794889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2814441620.2667947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>54423</v>
+        <v>54788</v>
       </c>
       <c r="B28">
         <v>26.5</v>
       </c>
       <c r="C28">
-        <v>1292858740.181284</v>
+        <v>1239344311.6773343</v>
       </c>
       <c r="D28">
-        <v>687254005.24733424</v>
+        <v>715681654.01095378</v>
       </c>
       <c r="E28">
-        <v>681391948.12679505</v>
+        <v>769547229.47718227</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>2661504693.5554132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2724573195.1654706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>54788</v>
+        <v>55153</v>
       </c>
       <c r="B29">
         <v>27.5</v>
       </c>
       <c r="C29">
-        <v>1228505656.5652938</v>
+        <v>1166744530.2507663</v>
       </c>
       <c r="D29">
-        <v>676127273.38512707</v>
+        <v>702181202.30205488</v>
       </c>
       <c r="E29">
-        <v>666247510.02993393</v>
+        <v>745174422.71969295</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>2570880439.9803548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2614100155.2725143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>55153</v>
+        <v>55518</v>
       </c>
       <c r="B30">
         <v>28.5</v>
       </c>
       <c r="C30">
-        <v>1156301354.144197</v>
+        <v>1095807362.2225039</v>
       </c>
       <c r="D30">
-        <v>662330235.21019256</v>
+        <v>686398274.50576925</v>
       </c>
       <c r="E30">
-        <v>643668495.11074221</v>
+        <v>823416274.7868433</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>2462300084.4651318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2605621911.5151167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>55518</v>
+        <v>55884</v>
       </c>
       <c r="B31">
         <v>29.5</v>
       </c>
       <c r="C31">
-        <v>1084853850.4292223</v>
+        <v>1018509303.1136431</v>
       </c>
       <c r="D31">
-        <v>646383920.98619473</v>
+        <v>669000615.13082623</v>
       </c>
       <c r="E31">
-        <v>713610444.43016827</v>
+        <v>871039922.31941652</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>2444848215.8455853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2558549840.5638857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>55884</v>
+        <v>56249</v>
       </c>
       <c r="B32">
         <v>30.5</v>
       </c>
       <c r="C32">
-        <v>1008392519.5457664</v>
+        <v>942342314.81355274</v>
       </c>
       <c r="D32">
-        <v>628880974.23014629</v>
+        <v>650312595.08822954</v>
       </c>
       <c r="E32">
-        <v>755960292.79888093</v>
+        <v>829969277.69961154</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>2393233786.5747938</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2422624187.6013937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>56249</v>
+        <v>56614</v>
       </c>
       <c r="B33">
         <v>31.5</v>
       </c>
       <c r="C33">
-        <v>931937201.45806503</v>
+        <v>868627961.58923304</v>
       </c>
       <c r="D33">
-        <v>610262473.10487366</v>
+        <v>630407585.75922966</v>
       </c>
       <c r="E33">
-        <v>718309614.40364277</v>
+        <v>787854083.40234196</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>2260509288.9665813</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2286889630.7508044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>56614</v>
+        <v>56979</v>
       </c>
       <c r="B34">
         <v>32.5</v>
       </c>
       <c r="C34">
-        <v>858266545.62756312</v>
+        <v>793991663.07159638</v>
       </c>
       <c r="D34">
-        <v>590661553.62762797</v>
+        <v>609566245.31329608</v>
       </c>
       <c r="E34">
-        <v>679869460.16369355</v>
+        <v>745183129.29844415</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>2128797559.4188848</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2148741037.6833367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>56979</v>
+        <v>57345</v>
       </c>
       <c r="B35">
         <v>33.5</v>
       </c>
       <c r="C35">
-        <v>784062943.83360577</v>
+        <v>722664907.3349371</v>
       </c>
       <c r="D35">
-        <v>570197664.20564258</v>
+        <v>587957650.73843002</v>
       </c>
       <c r="E35">
-        <v>640986014.1720655</v>
+        <v>707895477.87128627</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>1995246622.211314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018518035.9446535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>57345</v>
+        <v>57710</v>
       </c>
       <c r="B36">
         <v>34.5</v>
       </c>
       <c r="C36">
-        <v>713532635.04887354</v>
+        <v>655056102.4126054</v>
       </c>
       <c r="D36">
-        <v>549092291.91338325</v>
+        <v>565885953.21906626</v>
       </c>
       <c r="E36">
-        <v>608309191.78368604</v>
+        <v>671774546.66550446</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>1870934118.7459431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1892716602.2971761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>57710</v>
+        <v>58075</v>
       </c>
       <c r="B37">
         <v>35.5</v>
       </c>
       <c r="C37">
-        <v>646878564.23565769</v>
+        <v>592326795.60039961</v>
       </c>
       <c r="D37">
-        <v>527767079.00643659</v>
+        <v>543749820.18500459</v>
       </c>
       <c r="E37">
-        <v>577174847.05027175</v>
+        <v>630771093.58691812</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>1751820490.292366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1766847709.3723223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>58075</v>
+        <v>58440</v>
       </c>
       <c r="B38">
         <v>36.5</v>
       </c>
       <c r="C38">
-        <v>584820948.61958647</v>
+        <v>533122354.78383833</v>
       </c>
       <c r="D38">
-        <v>506426167.88870275</v>
+        <v>521595501.25292194</v>
       </c>
       <c r="E38">
-        <v>540626290.90940654</v>
+        <v>590349353.99233747</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>1631873407.417696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1645067210.0290978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>58440</v>
+        <v>58806</v>
       </c>
       <c r="B39">
         <v>37.5</v>
       </c>
       <c r="C39">
-        <v>526431218.57979035</v>
+        <v>478474251.61203676</v>
       </c>
       <c r="D39">
-        <v>485038717.66617429</v>
+        <v>499436358.35009855</v>
       </c>
       <c r="E39">
-        <v>504756425.04548085</v>
+        <v>550808111.89906907</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>1516226361.2914455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1528718721.8612044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>58806</v>
+        <v>59171</v>
       </c>
       <c r="B40">
         <v>38.5</v>
       </c>
       <c r="C40">
-        <v>472608088.1582405</v>
+        <v>428627883.50212365</v>
       </c>
       <c r="D40">
-        <v>463612183.0578903</v>
+        <v>477119725.80310595</v>
       </c>
       <c r="E40">
-        <v>469778067.14511913</v>
+        <v>512444539.19979024</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>1405998338.3612499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1418192148.5050199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>59171</v>
+        <v>59536</v>
       </c>
       <c r="B41">
         <v>39.5</v>
       </c>
       <c r="C41">
-        <v>423242881.88589311</v>
+        <v>382547864.12524712</v>
       </c>
       <c r="D41">
-        <v>441475180.26532054</v>
+        <v>454151304.86725366</v>
       </c>
       <c r="E41">
-        <v>435940339.52474833</v>
+        <v>475426441.14101458</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>1300658401.675962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1312125610.1335154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>59536</v>
+        <v>59901</v>
       </c>
       <c r="B42">
         <v>40.5</v>
       </c>
       <c r="C42">
-        <v>377639587.14273655</v>
+        <v>340127853.90240735</v>
       </c>
       <c r="D42">
-        <v>419006833.0370754</v>
+        <v>431020589.0973382</v>
       </c>
       <c r="E42">
-        <v>403344019.67850673</v>
+        <v>439921852.24627554</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>1199990439.8583188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1211070295.2460213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>59901</v>
+        <v>60267</v>
       </c>
       <c r="B43">
         <v>41.5</v>
       </c>
       <c r="C43">
-        <v>335669786.73149925</v>
+        <v>301226258.93634731</v>
       </c>
       <c r="D43">
-        <v>397219959.98980606</v>
+        <v>408587457.73122466</v>
       </c>
       <c r="E43">
-        <v>372158214.45647258</v>
+        <v>406082779.24908274</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>1105047961.177778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1115896495.9166548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>60267</v>
+        <v>60632</v>
       </c>
       <c r="B44">
         <v>42.5</v>
       </c>
       <c r="C44">
-        <v>297214071.65897828</v>
+        <v>265708985.80053291</v>
       </c>
       <c r="D44">
-        <v>376166207.61411351</v>
+        <v>386832332.17360216</v>
       </c>
       <c r="E44">
-        <v>342497803.14479679</v>
+        <v>373993280.43876785</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>1015878082.4178886</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1026534598.4129028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>60632</v>
+        <v>60997</v>
       </c>
       <c r="B45">
         <v>43.5</v>
       </c>
       <c r="C45">
-        <v>262119466.60905999</v>
+        <v>233419144.77293503</v>
       </c>
       <c r="D45">
-        <v>354338265.51383376</v>
+        <v>364203078.61724913</v>
       </c>
       <c r="E45">
-        <v>314422417.07093894</v>
+        <v>343681819.46101326</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>930880149.19383276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>941304042.85119748</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>60997</v>
+        <v>61362</v>
       </c>
       <c r="B46">
         <v>44.5</v>
       </c>
       <c r="C46">
-        <v>230229572.12651294</v>
+        <v>204165244.84332266</v>
       </c>
       <c r="D46">
-        <v>331591713.11608648</v>
+        <v>340649691.93477809</v>
       </c>
       <c r="E46">
-        <v>287954554.61554396</v>
+        <v>315155778.82297075</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>849775839.85814345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>859970715.60107148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>61362</v>
+        <v>61728</v>
       </c>
       <c r="B47">
         <v>45.5</v>
       </c>
       <c r="C47">
-        <v>201357781.62511665</v>
+        <v>177750077.23683867</v>
       </c>
       <c r="D47">
-        <v>309429245.02088314</v>
+        <v>317754499.23360085</v>
       </c>
       <c r="E47">
-        <v>263094524.18681964</v>
+        <v>288390299.23042423</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>773881550.83281946</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>783894875.70086384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>61728</v>
+        <v>62093</v>
       </c>
       <c r="B48">
         <v>46.5</v>
       </c>
       <c r="C48">
-        <v>175305077.05706888</v>
+        <v>153989280.2324658</v>
       </c>
       <c r="D48">
-        <v>288035801.12158203</v>
+        <v>295665475.75173622</v>
       </c>
       <c r="E48">
-        <v>239819936.56882191</v>
+        <v>263331172.72335327</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>703160814.74747276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>712985928.70755529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>62093</v>
+        <v>62458</v>
       </c>
       <c r="B49">
         <v>47.5</v>
       </c>
       <c r="C49">
-        <v>151884547.16669726</v>
+        <v>132697636.41500403</v>
       </c>
       <c r="D49">
-        <v>267421756.88784146</v>
+        <v>274396094.53491247</v>
       </c>
       <c r="E49">
-        <v>218083562.22713736</v>
+        <v>239924650.06678554</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>637389866.28167605</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>647018381.01670206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>62458</v>
+        <v>62823</v>
       </c>
       <c r="B50">
         <v>48.5</v>
       </c>
       <c r="C50">
-        <v>130909874.01529619</v>
+        <v>113694827.64500624</v>
       </c>
       <c r="D50">
-        <v>247598458.02949399</v>
+        <v>253957116.90480375</v>
       </c>
       <c r="E50">
-        <v>197836071.68163317</v>
+        <v>218106296.26564488</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>576344403.72642326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>585758240.81545484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>62823</v>
+        <v>63189</v>
       </c>
       <c r="B51">
         <v>49.5</v>
       </c>
       <c r="C51">
-        <v>112199790.5994508</v>
+        <v>96807400.237805828</v>
       </c>
       <c r="D51">
-        <v>228578066.31299326</v>
+        <v>234361808.29276326</v>
       </c>
       <c r="E51">
-        <v>179021291.66429055</v>
+        <v>197803425.18458107</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>519799148.5767346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>528972633.71515012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>63189</v>
+        <v>63554</v>
       </c>
       <c r="B52">
         <v>50.5</v>
       </c>
       <c r="C52">
-        <v>95580166.77406545</v>
+        <v>81872008.718496859</v>
       </c>
       <c r="D52">
-        <v>210369659.391523</v>
+        <v>215621583.89934388</v>
       </c>
       <c r="E52">
-        <v>161573353.0712963</v>
+        <v>178937686.41710919</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>467523179.23688471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>476431279.03494996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>63554</v>
+        <v>63919</v>
       </c>
       <c r="B53">
         <v>51.5</v>
       </c>
       <c r="C53">
-        <v>80887059.067299634</v>
+        <v>68734354.73143886</v>
       </c>
       <c r="D53">
-        <v>192978626.21988341</v>
+        <v>197742912.66271061</v>
       </c>
       <c r="E53">
-        <v>145420330.01086167</v>
+        <v>161429757.01814947</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>419286015.29804468</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>427907024.41229892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>63919</v>
+        <v>64284</v>
       </c>
       <c r="B54">
         <v>52.5</v>
       </c>
       <c r="C54">
-        <v>67965738.375762537</v>
+        <v>57248124.717034981</v>
       </c>
       <c r="D54">
-        <v>176410618.2879369</v>
+        <v>180731541.83055943</v>
       </c>
       <c r="E54">
-        <v>130491817.09782808</v>
+        <v>145202492.37593529</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>374868173.76152754</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>383182158.92352974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>64284</v>
+        <v>64650</v>
       </c>
       <c r="B55">
         <v>53.5</v>
       </c>
       <c r="C55">
-        <v>56669785.993774988</v>
+        <v>47274178.822357319</v>
       </c>
       <c r="D55">
-        <v>160671156.90451452</v>
+        <v>164591913.0711889</v>
       </c>
       <c r="E55">
-        <v>116719240.91076991</v>
+        <v>130182879.50146903</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>334060183.80905938</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>342048971.39501524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>64650</v>
+        <v>65015</v>
       </c>
       <c r="B56">
         <v>54.5</v>
       </c>
       <c r="C56">
-        <v>46860354.658281453</v>
+        <v>38679683.448490292</v>
       </c>
       <c r="D56">
-        <v>145764849.18996802</v>
+        <v>149326380.84965712</v>
       </c>
       <c r="E56">
-        <v>104036697.74655409</v>
+        <v>116302314.11722837</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>296661901.59480357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>304308378.41537577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>65015</v>
+        <v>65380</v>
       </c>
       <c r="B57">
         <v>55.5</v>
       </c>
       <c r="C57">
-        <v>38405377.820659772</v>
+        <v>31337086.353482302</v>
       </c>
       <c r="D57">
-        <v>131694546.71225539</v>
+        <v>134935103.69364351</v>
       </c>
       <c r="E57">
-        <v>92381423.904143631</v>
+        <v>103497158.53653358</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>262481348.43705881</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269769348.58365941</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>65380</v>
+        <v>65745</v>
       </c>
       <c r="B58">
         <v>56.5</v>
       </c>
       <c r="C58">
-        <v>31178463.374157261</v>
+        <v>25123596.678533737</v>
       </c>
       <c r="D58">
-        <v>118461099.50449316</v>
+        <v>121416449.56769334</v>
       </c>
       <c r="E58">
-        <v>81694176.441762209</v>
+        <v>91709302.382271439</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>231333739.32041264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>238249348.62849852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>65745</v>
+        <v>66111</v>
       </c>
       <c r="B59">
         <v>57.5</v>
       </c>
       <c r="C59">
-        <v>25058322.273654137</v>
+        <v>19920431.196143918</v>
       </c>
       <c r="D59">
-        <v>106063581.19564039</v>
+        <v>108766397.39429492</v>
       </c>
       <c r="E59">
-        <v>71919713.996995106</v>
+        <v>80885327.046183616</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>203041617.46628964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209572155.63662246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>66111</v>
+        <v>66476</v>
       </c>
       <c r="B60">
         <v>58.5</v>
       </c>
       <c r="C60">
-        <v>19927982.312217154</v>
+        <v>15612445.386140397</v>
       </c>
       <c r="D60">
-        <v>94498555.314780757</v>
+        <v>96977141.074121028</v>
       </c>
       <c r="E60">
-        <v>63006245.281382397</v>
+        <v>70976199.903992012</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>177432782.90838033</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183565786.36425343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>66476</v>
+        <v>66841</v>
       </c>
       <c r="B61">
         <v>59.5</v>
       </c>
       <c r="C61">
-        <v>15674412.878826506</v>
+        <v>12089017.057254644</v>
       </c>
       <c r="D61">
-        <v>83758759.863959819</v>
+        <v>86036701.666382417</v>
       </c>
       <c r="E61">
-        <v>54905320.474890396</v>
+        <v>61937106.982075132</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>154338493.2176767</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160062825.7057122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>66841</v>
+        <v>67206</v>
       </c>
       <c r="B62">
         <v>60.5</v>
       </c>
       <c r="C62">
-        <v>12189192.256496249</v>
+        <v>9244918.1479484905</v>
       </c>
       <c r="D62">
-        <v>73832711.852168337</v>
+        <v>75928349.218451679</v>
       </c>
       <c r="E62">
-        <v>47571875.227477178</v>
+        <v>53725766.330331013</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>133593779.33614177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138899033.69673118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>67206</v>
+        <v>67572</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
       <c r="C63">
-        <v>9369368.6914237142</v>
+        <v>6981398.9926413549</v>
       </c>
       <c r="D63">
-        <v>64704084.349429935</v>
+        <v>66631251.240446121</v>
       </c>
       <c r="E63">
-        <v>40962841.307786398</v>
+        <v>46301612.342968576</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>115036294.34864005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119914262.57605606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>67572</v>
+        <v>67937</v>
       </c>
       <c r="B64">
         <v>62.5</v>
       </c>
       <c r="C64">
-        <v>7118527.2770683486</v>
+        <v>5206973.8155731391</v>
       </c>
       <c r="D64">
-        <v>56352279.60659913</v>
+        <v>58121100.914731264</v>
       </c>
       <c r="E64">
-        <v>35036643.3981786</v>
+        <v>39624979.315010302</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>98507450.281846076</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102953054.0453147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>67937</v>
+        <v>68302</v>
       </c>
       <c r="B65">
         <v>63.5</v>
       </c>
       <c r="C65">
-        <v>5347464.5089687798</v>
+        <v>3837888.184433273</v>
       </c>
       <c r="D65">
-        <v>48753046.709183998</v>
+        <v>50371059.422703519</v>
       </c>
       <c r="E65">
-        <v>29752648.900215887</v>
+        <v>33656659.585387878</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>83853160.118368655</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87865607.192524672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>68302</v>
+        <v>68667</v>
       </c>
       <c r="B66">
         <v>64.5</v>
       </c>
       <c r="C66">
-        <v>3974601.0257757092</v>
+        <v>2798836.1922585457</v>
       </c>
       <c r="D66">
-        <v>41879538.253810994</v>
+        <v>43352326.899427101</v>
       </c>
       <c r="E66">
-        <v>25070882.509470351</v>
+        <v>28357173.597944204</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>70925021.789057046</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74508336.689629853</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>68667</v>
+        <v>69033</v>
       </c>
       <c r="B67">
         <v>65.5</v>
       </c>
       <c r="C67">
-        <v>2926612.2941942741</v>
+        <v>2023593.7851787007</v>
       </c>
       <c r="D67">
-        <v>35702494.527509771</v>
+        <v>37034393.326257914</v>
       </c>
       <c r="E67">
-        <v>20951568.088949773</v>
+        <v>23686341.639386546</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
-        <v>59580674.910653815</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62744328.750823155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>69033</v>
+        <v>69398</v>
       </c>
       <c r="B68">
         <v>66.5</v>
       </c>
       <c r="C68">
-        <v>2139025.7426917045</v>
+        <v>1455164.6010767773</v>
       </c>
       <c r="D68">
-        <v>30190186.413493596</v>
+        <v>31384904.163066234</v>
       </c>
       <c r="E68">
-        <v>17354788.973000962</v>
+        <v>19603217.280034732</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
-        <v>49684001.129186258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52443286.044177741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>69398</v>
+        <v>69763</v>
       </c>
       <c r="B69">
         <v>67.5</v>
       </c>
       <c r="C69">
-        <v>1556318.4052462426</v>
+        <v>1045600.863133507</v>
       </c>
       <c r="D69">
-        <v>25308736.757348087</v>
+        <v>26370361.516211238</v>
       </c>
       <c r="E69">
-        <v>14240527.220934518</v>
+        <v>16065704.553068738</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
-        <v>41105582.383528844</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43481666.932413489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69763</v>
+        <v>70128</v>
       </c>
       <c r="B70">
         <v>68.5</v>
       </c>
       <c r="C70">
-        <v>1131707.1675049842</v>
+        <v>755502.0370358848</v>
       </c>
       <c r="D70">
-        <v>21022372.510020766</v>
+        <v>21955973.66711387</v>
       </c>
       <c r="E70">
-        <v>11568579.141365441</v>
+        <v>13030158.254395094</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
-        <v>33722658.81889119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35741633.95854485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70128</v>
+        <v>70494</v>
       </c>
       <c r="B71">
         <v>69.5</v>
       </c>
       <c r="C71">
-        <v>826736.9177242124</v>
+        <v>553282.60301581176</v>
       </c>
       <c r="D71">
-        <v>17292846.728694666</v>
+        <v>18104682.122132864</v>
       </c>
       <c r="E71">
-        <v>9298318.4225368463</v>
+        <v>10451905.186933555</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
-        <v>27417902.068955723</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29109869.912082229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>70494</v>
+        <v>70859</v>
       </c>
       <c r="B72">
         <v>70.5</v>
       </c>
       <c r="C72">
-        <v>610521.08438066335</v>
+        <v>414264.53627457604</v>
       </c>
       <c r="D72">
-        <v>14079137.35034631</v>
+        <v>14776550.045790944</v>
       </c>
       <c r="E72">
-        <v>7389257.5130524738</v>
+        <v>8285797.0366229918</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
-        <v>22078915.947779447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23476611.618688513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>70859</v>
+        <v>71224</v>
       </c>
       <c r="B73">
         <v>71.5</v>
       </c>
       <c r="C73">
-        <v>458847.99147915194</v>
+        <v>319661.94293464278</v>
       </c>
       <c r="D73">
-        <v>11338009.655142978</v>
+        <v>11929239.070590543</v>
       </c>
       <c r="E73">
-        <v>5801607.5625329381</v>
+        <v>6486751.1570965853</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
-        <v>17598465.209155068</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18735652.170621771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>71224</v>
+        <v>71589</v>
       </c>
       <c r="B74">
         <v>72.5</v>
       </c>
       <c r="C74">
-        <v>353202.87355161901</v>
+        <v>255578.37498473478</v>
       </c>
       <c r="D74">
-        <v>9024725.3219705001</v>
+        <v>9518696.6846692991</v>
       </c>
       <c r="E74">
-        <v>4496651.3166605122</v>
+        <v>5010798.6988733429</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
-        <v>13874579.512182631</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14785073.758527378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>71589</v>
+        <v>71955</v>
       </c>
       <c r="B75">
         <v>73.5</v>
       </c>
       <c r="C75">
-        <v>279786.82445820147</v>
+        <v>212003.67197197338</v>
       </c>
       <c r="D75">
-        <v>7093652.8318085792</v>
+        <v>7499873.0221679397</v>
       </c>
       <c r="E75">
-        <v>3437463.892661015</v>
+        <v>3815847.4044241295</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
-        <v>10810903.548927795</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11527724.098564042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>71955</v>
+        <v>72320</v>
       </c>
       <c r="B76">
         <v>74.5</v>
       </c>
       <c r="C76">
-        <v>228557.27128435677</v>
+        <v>181902.65418303126</v>
       </c>
       <c r="D76">
-        <v>5500143.6029817322</v>
+        <v>5828576.7285327418</v>
       </c>
       <c r="E76">
-        <v>2589425.9400129542</v>
+        <v>2862094.8920087544</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
-        <v>8318126.8142790431</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8872574.2747245282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>72320</v>
+        <v>72685</v>
       </c>
       <c r="B77">
         <v>75.5</v>
       </c>
       <c r="C77">
-        <v>192338.07935743497</v>
+        <v>160444.9531294769</v>
       </c>
       <c r="D77">
-        <v>4202245.0832424928</v>
+        <v>4463046.9834788283</v>
       </c>
       <c r="E77">
-        <v>1920370.2593577267</v>
+        <v>2112466.6873836364</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
-        <v>6314953.4219576549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6735958.623991942</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>72685</v>
+        <v>73050</v>
       </c>
       <c r="B78">
         <v>76.5</v>
       </c>
       <c r="C78">
-        <v>166097.95073007379</v>
+        <v>144422.40229482067</v>
       </c>
       <c r="D78">
-        <v>3160257.3911741138</v>
+        <v>3363483.9817510229</v>
       </c>
       <c r="E78">
-        <v>1400829.0865221191</v>
+        <v>1532902.2209515965</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
-        <v>4727184.4284263067</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5040808.6049974402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>73050</v>
+        <v>73415</v>
       </c>
       <c r="B79">
         <v>77.5</v>
       </c>
       <c r="C79">
-        <v>146429.9482509373</v>
+        <v>131748.09495509215</v>
       </c>
       <c r="D79">
-        <v>2336674.9577224143</v>
+        <v>2491935.3677231157</v>
       </c>
       <c r="E79">
-        <v>1004176.7292778747</v>
+        <v>1092610.5659482984</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
-        <v>3487281.6352512264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3716294.0286265062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>73415</v>
+        <v>73780</v>
       </c>
       <c r="B80">
         <v>78.5</v>
       </c>
       <c r="C80">
-        <v>131038.89077916009</v>
+        <v>121086.24164267779</v>
       </c>
       <c r="D80">
-        <v>1696688.7340415488</v>
+        <v>1812889.7100188383</v>
       </c>
       <c r="E80">
-        <v>706766.93077111209</v>
+        <v>764317.70603660983</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
-        <v>2534494.5555918212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2698293.6576981256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>73780</v>
+        <v>74145</v>
       </c>
       <c r="B81">
         <v>79.5</v>
       </c>
       <c r="C81">
-        <v>118398.75713734548</v>
+        <v>111614.79137458862</v>
       </c>
       <c r="D81">
-        <v>1208410.3406522111</v>
+        <v>1293580.1802420681</v>
       </c>
       <c r="E81">
-        <v>488009.76598200144</v>
+        <v>524330.68339911569</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
-        <v>1814818.8637715578</v>
+        <v>1929525.6550157724</v>
       </c>
     </row>
   </sheetData>
@@ -2128,17 +2128,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B07887-8F52-4ACD-9003-CB270BD2655C}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2158,1684 +2158,1684 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>77846.880000000005</v>
+        <v>72771.80032437398</v>
       </c>
       <c r="D2">
-        <v>150067.7618867612</v>
+        <v>177464.42698958149</v>
       </c>
       <c r="E2">
-        <v>893244.52234809007</v>
+        <v>965775.58824944135</v>
       </c>
       <c r="F2">
         <f>SUM(C2:E2)</f>
-        <v>1121159.1642348513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1216011.8155633968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>375321.96</v>
+        <v>306159.98416596366</v>
       </c>
       <c r="D3">
-        <v>652189.70386090875</v>
+        <v>750911.73545306374</v>
       </c>
       <c r="E3">
-        <v>3385552.0942416741</v>
+        <v>3528912.8894307534</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
-        <v>4413063.7581025828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4585984.6090497803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
       <c r="C4">
-        <v>818519.29</v>
+        <v>671576.52076659957</v>
       </c>
       <c r="D4">
-        <v>1405435.8122873553</v>
+        <v>1608494.8015452409</v>
       </c>
       <c r="E4">
-        <v>6591705.487235764</v>
+        <v>6739523.1389516024</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>8815660.5895231199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9019594.4612634424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
       <c r="C5">
-        <v>1318267.68</v>
+        <v>1066998.7043058577</v>
       </c>
       <c r="D5">
-        <v>2249949.172186533</v>
+        <v>2577009.1786195692</v>
       </c>
       <c r="E5">
-        <v>9829412.1167093925</v>
+        <v>9935049.5052611958</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>13397628.968895925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13579057.388186622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="B6">
         <v>4.5</v>
       </c>
       <c r="C6">
-        <v>1851868.18</v>
+        <v>1483701.3053002157</v>
       </c>
       <c r="D6">
-        <v>3176185.0790408938</v>
+        <v>3653608.475762838</v>
       </c>
       <c r="E6">
-        <v>13067104.602643413</v>
+        <v>13097052.150619233</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>18095157.861684307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18234361.931682289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
       <c r="C7">
-        <v>2382479.7000000002</v>
+        <v>1936560.7234457438</v>
       </c>
       <c r="D7">
-        <v>4138698.9288963252</v>
+        <v>4763453.2448138297</v>
       </c>
       <c r="E7">
-        <v>16235101.558962604</v>
+        <v>16201407.37712601</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>22756280.187858932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22901421.345385581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
       <c r="C8">
-        <v>2910564.14</v>
+        <v>2375935.6398847671</v>
       </c>
       <c r="D8">
-        <v>5095182.9684691736</v>
+        <v>5834135.6156361299</v>
       </c>
       <c r="E8">
-        <v>19277921.261779893</v>
+        <v>19204572.72648403</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>27283668.370249067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27414643.982004926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>47483</v>
+        <v>47848</v>
       </c>
       <c r="B9">
         <v>7.5</v>
       </c>
       <c r="C9">
-        <v>3387924.58</v>
+        <v>2757369.9773275829</v>
       </c>
       <c r="D9">
-        <v>6048736.1218665559</v>
+        <v>6894007.0482303184</v>
       </c>
       <c r="E9">
-        <v>22206397.967894923</v>
+        <v>22132462.933259532</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>31643058.669761479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31783839.958817434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>47848</v>
+        <v>48213</v>
       </c>
       <c r="B10">
         <v>8.5</v>
       </c>
       <c r="C10">
-        <v>3781650.22</v>
+        <v>3091861.4745630282</v>
       </c>
       <c r="D10">
-        <v>7001757.8972421223</v>
+        <v>7947923.4681398747</v>
       </c>
       <c r="E10">
-        <v>25050295.643037103</v>
+        <v>25003215.70856474</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>35833703.760279223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36043000.65126764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>48213</v>
+        <v>48579</v>
       </c>
       <c r="B11">
         <v>9.5</v>
       </c>
       <c r="C11">
-        <v>4116432.62</v>
+        <v>3423925.1694616345</v>
       </c>
       <c r="D11">
-        <v>7949823.1965242364</v>
+        <v>8980680.332138367</v>
       </c>
       <c r="E11">
-        <v>27812453.978251498</v>
+        <v>27824584.971314386</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>39878709.794775739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40229190.472914383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="B12">
         <v>10.5</v>
       </c>
       <c r="C12">
-        <v>4435645.74</v>
+        <v>3729805.2970696134</v>
       </c>
       <c r="D12">
-        <v>8871402.36902906</v>
+        <v>9971165.054259561</v>
       </c>
       <c r="E12">
-        <v>30484509.76319389</v>
+        <v>30580692.060145281</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>43791557.872222953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44281662.411474451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>48944</v>
+        <v>49309</v>
       </c>
       <c r="B13">
         <v>11.5</v>
       </c>
       <c r="C13">
-        <v>4719494.28</v>
+        <v>4003182.0646350044</v>
       </c>
       <c r="D13">
-        <v>9751219.8051034398</v>
+        <v>10920236.163193503</v>
       </c>
       <c r="E13">
-        <v>33055314.697431654</v>
+        <v>33246237.106070064</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>47526028.782535091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48169655.333898574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>49309</v>
+        <v>49674</v>
       </c>
       <c r="B14">
         <v>12.5</v>
       </c>
       <c r="C14">
-        <v>4967300.1900000004</v>
+        <v>4275328.1865917668</v>
       </c>
       <c r="D14">
-        <v>10596082.588185811</v>
+        <v>11836946.42913226</v>
       </c>
       <c r="E14">
-        <v>35506043.945944235</v>
+        <v>35837952.596104912</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>51069426.724130049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51950227.21182894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>49674</v>
+        <v>50040</v>
       </c>
       <c r="B15">
         <v>13.5</v>
       </c>
       <c r="C15">
-        <v>5207547.66</v>
+        <v>4527364.3223877735</v>
       </c>
       <c r="D15">
-        <v>11408929.92353484</v>
+        <v>12712192.178676147</v>
       </c>
       <c r="E15">
-        <v>37857465.585880861</v>
+        <v>38378570.324450068</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>54473943.169415697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55618126.825513989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>50040</v>
+        <v>50405</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
       <c r="C16">
-        <v>5423264.9199999999</v>
+        <v>4764604.178078956</v>
       </c>
       <c r="D16">
-        <v>12185260.034251103</v>
+        <v>13555630.122654112</v>
       </c>
       <c r="E16">
-        <v>40131106.384087749</v>
+        <v>40867671.32649491</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>57739631.338338852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59187905.627227977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>50405</v>
+        <v>50770</v>
       </c>
       <c r="B17">
         <v>15.5</v>
       </c>
       <c r="C17">
-        <v>5615188.29</v>
+        <v>4989474.6013234546</v>
       </c>
       <c r="D17">
-        <v>12939158.622378085</v>
+        <v>14379645.789431527</v>
       </c>
       <c r="E17">
-        <v>42333197.007620141</v>
+        <v>43304573.323545307</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>60887543.919998229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62673693.71430029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>50770</v>
+        <v>51135</v>
       </c>
       <c r="B18">
         <v>16.5</v>
       </c>
       <c r="C18">
-        <v>5785851.2000000002</v>
+        <v>5182859.7178554283</v>
       </c>
       <c r="D18">
-        <v>13672946.99463976</v>
+        <v>15185220.575955097</v>
       </c>
       <c r="E18">
-        <v>44472547.160179123</v>
+        <v>45695836.945055395</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>63931345.354818881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66063917.238865919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>51135</v>
+        <v>51501</v>
       </c>
       <c r="B19">
         <v>17.5</v>
       </c>
       <c r="C19">
-        <v>5927330.6600000001</v>
+        <v>5362464.2344171181</v>
       </c>
       <c r="D19">
-        <v>14387760.179627614</v>
+        <v>15967586.541546524</v>
       </c>
       <c r="E19">
-        <v>46560771.674792446</v>
+        <v>48034798.455710277</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>66875862.514420062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69364849.231673926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>51501</v>
+        <v>51866</v>
       </c>
       <c r="B20">
         <v>18.5</v>
       </c>
       <c r="C20">
-        <v>6055790.4900000002</v>
+        <v>5528674.4011129607</v>
       </c>
       <c r="D20">
-        <v>15083633.628544874</v>
+        <v>16733273.470331112</v>
       </c>
       <c r="E20">
-        <v>48578992.332065262</v>
+        <v>50288773.511698306</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>69718416.450610131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72550721.383142382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>51866</v>
+        <v>52231</v>
       </c>
       <c r="B21">
         <v>19.5</v>
       </c>
       <c r="C21">
-        <v>6165655.5899999999</v>
+        <v>5680719.8152656127</v>
       </c>
       <c r="D21">
-        <v>15769622.961180741</v>
+        <v>17495802.950941537</v>
       </c>
       <c r="E21">
-        <v>50500742.462843902</v>
+        <v>52441919.461787142</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>72436021.014024645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75618442.227994293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>52231</v>
+        <v>52596</v>
       </c>
       <c r="B22">
         <v>20.5</v>
       </c>
       <c r="C22">
-        <v>6256318.9000000004</v>
+        <v>5807227.3568064841</v>
       </c>
       <c r="D22">
-        <v>16455303.951919915</v>
+        <v>18246113.593777481</v>
       </c>
       <c r="E22">
-        <v>52312707.682628036</v>
+        <v>54510363.164517142</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>75024330.534547955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78563704.115101099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>52596</v>
+        <v>52962</v>
       </c>
       <c r="B23">
         <v>21.5</v>
       </c>
       <c r="C23">
-        <v>6315677.96</v>
+        <v>5904517.6440829635</v>
       </c>
       <c r="D23">
-        <v>17116131.268193495</v>
+        <v>18940054.084129229</v>
       </c>
       <c r="E23">
-        <v>54021398.187091641</v>
+        <v>56479798.40966434</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>77453207.41528514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81324370.13787654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>52962</v>
+        <v>53327</v>
       </c>
       <c r="B24">
         <v>22.5</v>
       </c>
       <c r="C24">
-        <v>6342099.6600000001</v>
+        <v>5988781.5076424368</v>
       </c>
       <c r="D24">
-        <v>17721066.160138026</v>
+        <v>19573697.422852647</v>
       </c>
       <c r="E24">
-        <v>55626927.518012106</v>
+        <v>58344190.777100928</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>79690093.338150129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83906669.707596004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>53327</v>
+        <v>53692</v>
       </c>
       <c r="B25">
         <v>23.5</v>
       </c>
       <c r="C25">
-        <v>6356267.5499999998</v>
+        <v>6045074.3088858854</v>
       </c>
       <c r="D25">
-        <v>18279942.957298703</v>
+        <v>20176039.311403371</v>
       </c>
       <c r="E25">
-        <v>57123440.292451642</v>
+        <v>60100677.154142365</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>81759650.799750343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86321790.774431616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>53692</v>
+        <v>54057</v>
       </c>
       <c r="B26">
         <v>24.5</v>
       </c>
       <c r="C26">
-        <v>6342662.8300000001</v>
+        <v>6069364.3391083954</v>
       </c>
       <c r="D26">
-        <v>18807748.911265697</v>
+        <v>20753035.969552781</v>
       </c>
       <c r="E26">
-        <v>58503139.119926326</v>
+        <v>61707511.704928845</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>83653550.861192018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88529912.013590023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>54057</v>
+        <v>54423</v>
       </c>
       <c r="B27">
         <v>25.5</v>
       </c>
       <c r="C27">
-        <v>6294681.4800000004</v>
+        <v>6066575.9212257564</v>
       </c>
       <c r="D27">
-        <v>19287486.234614551</v>
+        <v>21295627.636774462</v>
       </c>
       <c r="E27">
-        <v>59730143.003568374</v>
+        <v>63149062.290190779</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>85312310.718182921</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90511265.848190993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>54423</v>
+        <v>54788</v>
       </c>
       <c r="B28">
         <v>26.5</v>
       </c>
       <c r="C28">
-        <v>6214540.0499999998</v>
+        <v>6029918.3699446227</v>
       </c>
       <c r="D28">
-        <v>19717083.467986975</v>
+        <v>21774787.24836291</v>
       </c>
       <c r="E28">
-        <v>60797882.713201106</v>
+        <v>64423260.792275697</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>86729506.231188089</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92227966.410583228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>54788</v>
+        <v>55153</v>
       </c>
       <c r="B29">
         <v>27.5</v>
       </c>
       <c r="C29">
-        <v>6099538.8399999999</v>
+        <v>5961628.1602434553</v>
       </c>
       <c r="D29">
-        <v>20100763.355836984</v>
+        <v>22180954.787842605</v>
       </c>
       <c r="E29">
-        <v>61714853.536240473</v>
+        <v>65508674.302369557</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>87915155.73207745</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93651257.250455618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>55153</v>
+        <v>55518</v>
       </c>
       <c r="B30">
         <v>28.5</v>
       </c>
       <c r="C30">
-        <v>5958957.96</v>
+        <v>5850916.2273299815</v>
       </c>
       <c r="D30">
-        <v>20437780.779836498</v>
+        <v>22520034.080789819</v>
       </c>
       <c r="E30">
-        <v>62459690.436061032</v>
+        <v>66373276.454252981</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>88856429.175897539</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94744226.762372777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>55518</v>
+        <v>55884</v>
       </c>
       <c r="B31">
         <v>29.5</v>
       </c>
       <c r="C31">
-        <v>5785385.3600000003</v>
+        <v>5694231.5568855843</v>
       </c>
       <c r="D31">
-        <v>20718104.221399348</v>
+        <v>22821907.872636441</v>
       </c>
       <c r="E31">
-        <v>63000286.612817973</v>
+        <v>66991639.169685028</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>89503776.194217324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95507778.599207059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>55884</v>
+        <v>56249</v>
       </c>
       <c r="B32">
         <v>30.5</v>
       </c>
       <c r="C32">
-        <v>5571024.6399999997</v>
+        <v>5506346.2136883875</v>
       </c>
       <c r="D32">
-        <v>20956832.521421291</v>
+        <v>23105652.342151131</v>
       </c>
       <c r="E32">
-        <v>63312081.307784118</v>
+        <v>67348439.949188411</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>89839938.469205409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95960438.505027935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>56249</v>
+        <v>56614</v>
       </c>
       <c r="B33">
         <v>31.5</v>
       </c>
       <c r="C33">
-        <v>5327926.49</v>
+        <v>5303254.8292722097</v>
       </c>
       <c r="D33">
-        <v>21174713.029374417</v>
+        <v>23342592.337297857</v>
       </c>
       <c r="E33">
-        <v>63387999.418906763</v>
+        <v>67413829.020718157</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>89890638.938281178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96059676.187288225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>56614</v>
+        <v>56979</v>
       </c>
       <c r="B34">
         <v>32.5</v>
       </c>
       <c r="C34">
-        <v>5070520.6399999997</v>
+        <v>5085208.3644563155</v>
       </c>
       <c r="D34">
-        <v>21365060.913511738</v>
+        <v>23527732.891550135</v>
       </c>
       <c r="E34">
-        <v>63198950.624290265</v>
+        <v>67187111.68767333</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>89634532.177801996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95800052.94367978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>56979</v>
+        <v>57345</v>
       </c>
       <c r="B35">
         <v>33.5</v>
       </c>
       <c r="C35">
-        <v>4802384.8600000003</v>
+        <v>4850206.4343097173</v>
       </c>
       <c r="D35">
-        <v>21530521.68941129</v>
+        <v>23686075.303323604</v>
       </c>
       <c r="E35">
-        <v>62746199.053155288</v>
+        <v>66662668.354720213</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>89079105.60256657</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95198950.092353538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>57345</v>
+        <v>57710</v>
       </c>
       <c r="B36">
         <v>34.5</v>
       </c>
       <c r="C36">
-        <v>4526688.55</v>
+        <v>4604346.8834955916</v>
       </c>
       <c r="D36">
-        <v>21692769.465806767</v>
+        <v>23859625.947518785</v>
       </c>
       <c r="E36">
-        <v>62045019.286080353</v>
+        <v>65813220.407746866</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>88264477.301887125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94277193.238761246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>57710</v>
+        <v>58075</v>
       </c>
       <c r="B37">
         <v>35.5</v>
       </c>
       <c r="C37">
-        <v>4246269.88</v>
+        <v>4351728.3801072128</v>
       </c>
       <c r="D37">
-        <v>21878980.988597233</v>
+        <v>24084389.331684839</v>
       </c>
       <c r="E37">
-        <v>61053305.048510522</v>
+        <v>64652362.6961568</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>87178555.917107761</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93088480.407948852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>58075</v>
+        <v>58440</v>
       </c>
       <c r="B38">
         <v>36.5</v>
       </c>
       <c r="C38">
-        <v>3964711.22</v>
+        <v>4097303.8126994427</v>
       </c>
       <c r="D38">
-        <v>22104198.332288269</v>
+        <v>24345718.374628063</v>
       </c>
       <c r="E38">
-        <v>59757527.086442016</v>
+        <v>63199946.878036387</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>85826436.638730288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91642969.065363884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>58440</v>
+        <v>58806</v>
       </c>
       <c r="B39">
         <v>37.5</v>
       </c>
       <c r="C39">
-        <v>3686623.09</v>
+        <v>3842104.5548687773</v>
       </c>
       <c r="D39">
-        <v>22381651.67835271</v>
+        <v>24639966.779594369</v>
       </c>
       <c r="E39">
-        <v>58199816.040773012</v>
+        <v>61489155.945694536</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>84268090.809125721</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89971227.280157685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>58806</v>
+        <v>59171</v>
       </c>
       <c r="B40">
         <v>38.5</v>
       </c>
       <c r="C40">
-        <v>3414022.55</v>
+        <v>3586865.1671211724</v>
       </c>
       <c r="D40">
-        <v>22675145.469674464</v>
+        <v>24926319.818440434</v>
       </c>
       <c r="E40">
-        <v>56451902.000081114</v>
+        <v>59574635.611837476</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>82541070.019755572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88087820.597399086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>59171</v>
+        <v>59536</v>
       </c>
       <c r="B41">
         <v>39.5</v>
       </c>
       <c r="C41">
-        <v>3148702.86</v>
+        <v>3334570.7960938327</v>
       </c>
       <c r="D41">
-        <v>22732032.98119399</v>
+        <v>24950781.12177293</v>
       </c>
       <c r="E41">
-        <v>54556928.758270524</v>
+        <v>57497147.830955565</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>80437664.599464506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85782499.748822331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>59536</v>
+        <v>59901</v>
       </c>
       <c r="B42">
         <v>40.5</v>
       </c>
       <c r="C42">
-        <v>2892684.47</v>
+        <v>3087811.9407089963</v>
       </c>
       <c r="D42">
-        <v>22534458.159472145</v>
+        <v>24727321.375946153</v>
       </c>
       <c r="E42">
-        <v>52532720.961760052</v>
+        <v>55288778.940996267</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>77959863.591232195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83103912.257651418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>59901</v>
+        <v>60267</v>
       </c>
       <c r="B43">
         <v>41.5</v>
       </c>
       <c r="C43">
-        <v>2647285.71</v>
+        <v>2847926.4608056676</v>
       </c>
       <c r="D43">
-        <v>22363604.665689718</v>
+        <v>24541530.244220577</v>
       </c>
       <c r="E43">
-        <v>50403924.726559445</v>
+        <v>52980695.287904076</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>75414815.10224916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80370151.992930323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>60267</v>
+        <v>60632</v>
       </c>
       <c r="B44">
         <v>42.5</v>
       </c>
       <c r="C44">
-        <v>2413447.91</v>
+        <v>2616005.9155070838</v>
       </c>
       <c r="D44">
-        <v>22330261.995760202</v>
+        <v>24471479.741723377</v>
       </c>
       <c r="E44">
-        <v>48197819.356183551</v>
+        <v>50600842.566382915</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>72941529.261943758</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77688328.223613381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>60632</v>
+        <v>60997</v>
       </c>
       <c r="B45">
         <v>43.5</v>
       </c>
       <c r="C45">
-        <v>2191770.9900000002</v>
+        <v>2392916.8145932881</v>
       </c>
       <c r="D45">
-        <v>22100550.844067201</v>
+        <v>24144067.705091767</v>
       </c>
       <c r="E45">
-        <v>45946153.058519803</v>
+        <v>48180283.60102462</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>70238474.892587006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74717268.120709673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>60997</v>
+        <v>61362</v>
       </c>
       <c r="B46">
         <v>44.5</v>
       </c>
       <c r="C46">
-        <v>1982575.02</v>
+        <v>2179314.0940557346</v>
       </c>
       <c r="D46">
-        <v>21418229.890828356</v>
+        <v>23347516.365740295</v>
       </c>
       <c r="E46">
-        <v>43674876.342994027</v>
+        <v>45745818.437779978</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>67075681.253822386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71272648.897576004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>61362</v>
+        <v>61728</v>
       </c>
       <c r="B47">
         <v>45.5</v>
       </c>
       <c r="C47">
-        <v>1785939.87</v>
+        <v>1975685.8753442138</v>
       </c>
       <c r="D47">
-        <v>20553577.285065316</v>
+        <v>22399021.474281408</v>
       </c>
       <c r="E47">
-        <v>41405062.419468939</v>
+        <v>43314980.064678378</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>63744579.574534252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67689687.414304003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>61728</v>
+        <v>62093</v>
       </c>
       <c r="B48">
         <v>46.5</v>
       </c>
       <c r="C48">
-        <v>1601771.88</v>
+        <v>1782369.4618177321</v>
       </c>
       <c r="D48">
-        <v>19688490.50469986</v>
+        <v>21449904.030640997</v>
       </c>
       <c r="E48">
-        <v>39151886.09988264</v>
+        <v>40899138.515155621</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>60442148.484582499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64131412.007614352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>62093</v>
+        <v>62458</v>
       </c>
       <c r="B49">
         <v>47.5</v>
       </c>
       <c r="C49">
-        <v>1429850.68</v>
+        <v>1599610.7079457934</v>
       </c>
       <c r="D49">
-        <v>18824070.727937758</v>
+        <v>20501508.229541045</v>
       </c>
       <c r="E49">
-        <v>36921880.355809793</v>
+        <v>38511337.550541446</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>57175801.763747551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60612456.488028288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>62458</v>
+        <v>62823</v>
       </c>
       <c r="B50">
         <v>48.5</v>
       </c>
       <c r="C50">
-        <v>1269911.8500000001</v>
+        <v>1427577.6908498642</v>
       </c>
       <c r="D50">
-        <v>17960880.781145781</v>
+        <v>19554646.115213819</v>
       </c>
       <c r="E50">
-        <v>34721597.241830997</v>
+        <v>36159984.615720049</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>53952389.87297678</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57142208.42178373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>62823</v>
+        <v>63189</v>
       </c>
       <c r="B51">
         <v>49.5</v>
       </c>
       <c r="C51">
-        <v>1121651.79</v>
+        <v>1266391.6568639553</v>
       </c>
       <c r="D51">
-        <v>17100140.834045559</v>
+        <v>18610733.731921304</v>
       </c>
       <c r="E51">
-        <v>32559862.436105922</v>
+        <v>33852582.616286203</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>50781655.06015148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53729708.005071461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>63189</v>
+        <v>63554</v>
       </c>
       <c r="B52">
         <v>50.5</v>
       </c>
       <c r="C52">
-        <v>984748.5</v>
+        <v>1116143.6790025788</v>
       </c>
       <c r="D52">
-        <v>16243803.499835158</v>
+        <v>17672103.583818275</v>
       </c>
       <c r="E52">
-        <v>30446504.337904565</v>
+        <v>31598306.584025946</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>47675056.337739721</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50386553.846846804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>63554</v>
+        <v>63919</v>
       </c>
       <c r="B53">
         <v>51.5</v>
       </c>
       <c r="C53">
-        <v>858892.52</v>
+        <v>976894.32707455894</v>
       </c>
       <c r="D53">
-        <v>15393191.964602487</v>
+        <v>16740221.484414572</v>
       </c>
       <c r="E53">
-        <v>28387282.596024573</v>
+        <v>29403005.907350045</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>44639367.080627061</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47120121.718839176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>63919</v>
+        <v>64284</v>
       </c>
       <c r="B54">
         <v>52.5</v>
       </c>
       <c r="C54">
-        <v>743787.84</v>
+        <v>848673.34711659106</v>
       </c>
       <c r="D54">
-        <v>14549324.446472872</v>
+        <v>15816233.107635615</v>
       </c>
       <c r="E54">
-        <v>26384668.484331548</v>
+        <v>27269560.982332487</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>41677780.77080442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43934467.43708469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>64284</v>
+        <v>64650</v>
       </c>
       <c r="B55">
         <v>53.5</v>
       </c>
       <c r="C55">
-        <v>639144.06000000006</v>
+        <v>731449.83350302675</v>
       </c>
       <c r="D55">
-        <v>13713254.968848933</v>
+        <v>14901327.722096797</v>
       </c>
       <c r="E55">
-        <v>24441047.590040162</v>
+        <v>25200939.369909637</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>38793446.618889093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40833716.92550946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>64650</v>
+        <v>65015</v>
       </c>
       <c r="B56">
         <v>54.5</v>
       </c>
       <c r="C56">
-        <v>544653.18000000005</v>
+        <v>625117.50209478172</v>
       </c>
       <c r="D56">
-        <v>12886122.425983641</v>
+        <v>13996770.757690893</v>
       </c>
       <c r="E56">
-        <v>22558613.205489703</v>
+        <v>23199989.018412698</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>35989388.81147334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37821877.278198376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>65015</v>
+        <v>65380</v>
       </c>
       <c r="B57">
         <v>55.5</v>
       </c>
       <c r="C57">
-        <v>459975.16</v>
+        <v>529481.65742549626</v>
       </c>
       <c r="D57">
-        <v>12069176.904869145</v>
+        <v>13103931.270369213</v>
       </c>
       <c r="E57">
-        <v>20739475.076583736</v>
+        <v>21269471.504213531</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>33268627.141452879</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34902884.432008237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>65380</v>
+        <v>65745</v>
       </c>
       <c r="B58">
         <v>56.5</v>
       </c>
       <c r="C58">
-        <v>384729.61</v>
+        <v>444250.77907996526</v>
       </c>
       <c r="D58">
-        <v>11263794.123851562</v>
+        <v>12224350.481825596</v>
       </c>
       <c r="E58">
-        <v>18986003.026013166</v>
+        <v>19412442.149142299</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>30634526.759864725</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32081043.410047859</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>65745</v>
+        <v>66111</v>
       </c>
       <c r="B59">
         <v>57.5</v>
       </c>
       <c r="C59">
-        <v>318491.57</v>
+        <v>369045.20742421946</v>
       </c>
       <c r="D59">
-        <v>10471523.295119584</v>
+        <v>11359762.007459346</v>
       </c>
       <c r="E59">
-        <v>17300971.642626405</v>
+        <v>17632181.722071242</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>28090986.507745989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29360988.936954807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>66111</v>
+        <v>66476</v>
       </c>
       <c r="B60">
         <v>58.5</v>
       </c>
       <c r="C60">
-        <v>260784.8</v>
+        <v>303375.62693369086</v>
       </c>
       <c r="D60">
-        <v>9694088.2469958831</v>
+        <v>10512050.862408891</v>
       </c>
       <c r="E60">
-        <v>15687293.016577475</v>
+        <v>15932051.471404547</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>25642166.06357336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26747477.96074713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>66476</v>
+        <v>66841</v>
       </c>
       <c r="B61">
         <v>59.5</v>
       </c>
       <c r="C61">
-        <v>211059.14</v>
+        <v>246672.57897391249</v>
       </c>
       <c r="D61">
-        <v>8933355.0752376206</v>
+        <v>9683224.8919474725</v>
       </c>
       <c r="E61">
-        <v>14147977.767778847</v>
+        <v>14315480.741325365</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>23292391.983016469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24245378.21224675</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>66841</v>
+        <v>67206</v>
       </c>
       <c r="B62">
         <v>60.5</v>
       </c>
       <c r="C62">
-        <v>168713.76</v>
+        <v>198298.33444524027</v>
       </c>
       <c r="D62">
-        <v>8191303.3377725799</v>
+        <v>8875389.4219531976</v>
       </c>
       <c r="E62">
-        <v>12686119.636419913</v>
+        <v>12785749.822815048</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>21046136.734192491</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21859437.579213485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>67206</v>
+        <v>67572</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
       <c r="C63">
-        <v>133117.1</v>
+        <v>157551.99018909762</v>
       </c>
       <c r="D63">
-        <v>7470016.3132153871</v>
+        <v>8090753.1432746788</v>
       </c>
       <c r="E63">
-        <v>11304667.600606952</v>
+        <v>11345826.222618757</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>18907801.013822339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19594131.356082533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>67572</v>
+        <v>67937</v>
       </c>
       <c r="B64">
         <v>62.5</v>
       </c>
       <c r="C64">
-        <v>103604.46</v>
+        <v>123683.14037814221</v>
       </c>
       <c r="D64">
-        <v>6771681.340528097</v>
+        <v>7331588.994704783</v>
       </c>
       <c r="E64">
-        <v>10006286.459590141</v>
+        <v>9998283.3281803057</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>16881572.260118239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17453555.463263229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>67937</v>
+        <v>68302</v>
       </c>
       <c r="B65">
         <v>63.5</v>
       </c>
       <c r="C65">
-        <v>79493.98</v>
+        <v>95908.424161760558</v>
       </c>
       <c r="D65">
-        <v>6098549.593219813</v>
+        <v>6600263.3273885632</v>
       </c>
       <c r="E65">
-        <v>8793286.47364562</v>
+        <v>8745237.5196869206</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>14971330.046865433</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15441409.271237243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>68302</v>
+        <v>68667</v>
       </c>
       <c r="B66">
         <v>64.5</v>
       </c>
       <c r="C66">
-        <v>60096.87</v>
+        <v>73440.373367095483</v>
       </c>
       <c r="D66">
-        <v>5453027.0975307738</v>
+        <v>5899327.2855516253</v>
       </c>
       <c r="E66">
-        <v>7667574.5026816996</v>
+        <v>7588221.5423531858</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>13180698.470212474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13560989.201271906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>68667</v>
+        <v>69033</v>
       </c>
       <c r="B67">
         <v>65.5</v>
       </c>
       <c r="C67">
-        <v>44738.62</v>
+        <v>55518.091189105384</v>
       </c>
       <c r="D67">
-        <v>4837714.9495050432</v>
+        <v>5231517.7382389288</v>
       </c>
       <c r="E67">
-        <v>6630544.276771659</v>
+        <v>6528136.6722141728</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F81" si="1">SUM(C67:E67)</f>
-        <v>11512997.846276702</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11815172.501642207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>69033</v>
+        <v>69398</v>
       </c>
       <c r="B68">
         <v>66.5</v>
       </c>
       <c r="C68">
-        <v>32778.379999999997</v>
+        <v>41425.481155556015</v>
       </c>
       <c r="D68">
-        <v>4255295.0394004285</v>
+        <v>4599683.4440315571</v>
       </c>
       <c r="E68">
-        <v>5682940.3272194657</v>
+        <v>5565177.4500213917</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
-        <v>9971013.7466198951</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10206286.375208504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>69398</v>
+        <v>69763</v>
       </c>
       <c r="B69">
         <v>67.5</v>
       </c>
       <c r="C69">
-        <v>23624.76</v>
+        <v>30503.164132491031</v>
       </c>
       <c r="D69">
-        <v>3708542.7086408772</v>
+        <v>4006838.9937306931</v>
       </c>
       <c r="E69">
-        <v>4824806.615988981</v>
+        <v>4698621.5718206642</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
-        <v>8556974.0846298579</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8735963.7296838481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69763</v>
+        <v>70128</v>
       </c>
       <c r="B70">
         <v>68.5</v>
       </c>
       <c r="C70">
-        <v>16743.830000000002</v>
+        <v>22157.705029166562</v>
       </c>
       <c r="D70">
-        <v>3200261.1237581572</v>
+        <v>3456032.8391464073</v>
       </c>
       <c r="E70">
-        <v>4055350.7354451586</v>
+        <v>3926671.2394719822</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
-        <v>7272355.6892033163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7404861.7836475559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70128</v>
+        <v>70494</v>
       </c>
       <c r="B71">
         <v>69.5</v>
       </c>
       <c r="C71">
-        <v>11664.9</v>
+        <v>15872.660199364222</v>
       </c>
       <c r="D71">
-        <v>2732917.0565961082</v>
+        <v>2949927.0439884998</v>
       </c>
       <c r="E71">
-        <v>3372676.3088405174</v>
+        <v>3246390.9214468687</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
-        <v>6117258.2654366251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6212190.6256347327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>70494</v>
+        <v>70859</v>
       </c>
       <c r="B72">
         <v>70.5</v>
       </c>
       <c r="C72">
-        <v>7985.3</v>
+        <v>11208.533871991396</v>
       </c>
       <c r="D72">
-        <v>2308243.8757492304</v>
+        <v>2490358.9631513627</v>
       </c>
       <c r="E72">
-        <v>2773730.4597837292</v>
+        <v>2653649.3664118415</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
-        <v>5089959.6355329594</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5155216.8634351958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>70859</v>
+        <v>71224</v>
       </c>
       <c r="B73">
         <v>71.5</v>
       </c>
       <c r="C73">
-        <v>5369.51</v>
+        <v>7798.4210700492404</v>
       </c>
       <c r="D73">
-        <v>1927075.6295116972</v>
+        <v>2078138.5883057974</v>
       </c>
       <c r="E73">
-        <v>2254379.9525247477</v>
+        <v>2143197.3756314297</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
-        <v>4186825.0920364447</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4229134.3850072762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>71224</v>
+        <v>71589</v>
       </c>
       <c r="B74">
         <v>72.5</v>
       </c>
       <c r="C74">
-        <v>3545.17</v>
+        <v>5343.0363239127346</v>
       </c>
       <c r="D74">
-        <v>1589270.2004678622</v>
+        <v>1712995.086175415</v>
       </c>
       <c r="E74">
-        <v>1809470.3909825333</v>
+        <v>1708961.7942459458</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
-        <v>3402285.7614503955</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3427299.9167452734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>71589</v>
+        <v>71955</v>
       </c>
       <c r="B75">
         <v>73.5</v>
       </c>
       <c r="C75">
-        <v>2297.56</v>
+        <v>3602.4726471449876</v>
       </c>
       <c r="D75">
-        <v>1293616.2331017731</v>
+        <v>1393522.2886637126</v>
       </c>
       <c r="E75">
-        <v>1433080.634160406</v>
+        <v>1344288.1993869469</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
-        <v>2728994.4272621791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2741412.9606978046</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>71955</v>
+        <v>72320</v>
       </c>
       <c r="B76">
         <v>74.5</v>
       </c>
       <c r="C76">
-        <v>1461.23</v>
+        <v>2388.2343735553541</v>
       </c>
       <c r="D76">
-        <v>1038071.2297752432</v>
+        <v>1117476.7053035055</v>
       </c>
       <c r="E76">
-        <v>1118858.2638015014</v>
+        <v>1042166.2714711443</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
-        <v>2158390.7235767446</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2162031.2111482052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>72320</v>
+        <v>72685</v>
       </c>
       <c r="B77">
         <v>75.5</v>
       </c>
       <c r="C77">
-        <v>911.72</v>
+        <v>1555.4265660271103</v>
       </c>
       <c r="D77">
-        <v>820257.33444551739</v>
+        <v>882293.87538093468</v>
       </c>
       <c r="E77">
-        <v>860272.64003378793</v>
+        <v>795513.46712459926</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
-        <v>1681441.6944793053</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1679362.7690715611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>72685</v>
+        <v>73050</v>
       </c>
       <c r="B78">
         <v>76.5</v>
       </c>
       <c r="C78">
-        <v>557.95000000000005</v>
+        <v>994.26323043094726</v>
       </c>
       <c r="D78">
-        <v>637509.4878073053</v>
+        <v>685089.4248500024</v>
       </c>
       <c r="E78">
-        <v>650773.92671308946</v>
+        <v>597326.51804733765</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
-        <v>1288841.3645203947</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1283410.2061277709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>73050</v>
+        <v>73415</v>
       </c>
       <c r="B79">
         <v>77.5</v>
       </c>
       <c r="C79">
-        <v>334.77</v>
+        <v>623.11627787904831</v>
       </c>
       <c r="D79">
-        <v>486774.58880048123</v>
+        <v>522537.33866159775</v>
       </c>
       <c r="E79">
-        <v>483856.07935802185</v>
+        <v>440755.36914216698</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
-        <v>970965.43815850304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>963915.82408164372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>73415</v>
+        <v>73780</v>
       </c>
       <c r="B80">
         <v>78.5</v>
       </c>
       <c r="C80">
-        <v>196.87</v>
+        <v>382.50768883598539</v>
       </c>
       <c r="D80">
-        <v>364707.74464466877</v>
+        <v>391005.69133188727</v>
       </c>
       <c r="E80">
-        <v>353221.99453852663</v>
+        <v>319287.96559253283</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
-        <v>718126.6091831954</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710676.164613256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>73780</v>
+        <v>74145</v>
       </c>
       <c r="B81">
         <v>79.5</v>
       </c>
       <c r="C81">
-        <v>113.44</v>
+        <v>229.76988138846303</v>
       </c>
       <c r="D81">
-        <v>267789.07107430056</v>
+        <v>286676.53228185087</v>
       </c>
       <c r="E81">
-        <v>252919.51369087139</v>
+        <v>226858.86975870773</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
-        <v>520822.02476517193</v>
+        <v>513765.17192194704</v>
       </c>
     </row>
   </sheetData>
@@ -3847,19 +3847,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8773CC19-A081-4E73-B051-09B33C10AE79}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44926</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45291</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45657</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>46022</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>46387</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>46752</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>47118</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>47483</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>47848</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>48213</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>48579</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>48944</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>49309</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>49674</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>50040</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>50405</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>50770</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>51135</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>51501</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>51866</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>52231</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>52596</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>52962</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>53327</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>53692</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>54057</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>54423</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>54788</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>55153</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>55518</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>55884</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>56249</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>56614</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>56979</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>57345</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>57710</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>58075</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>58440</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>58806</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>59171</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>59536</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>59901</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>60267</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>60632</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>60997</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>61362</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>61728</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>62093</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>62458</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>62823</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>63189</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>63554</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>63919</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>64284</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>64650</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>65015</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>65380</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>65745</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>66111</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>66476</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>66841</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>67206</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>67572</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>67937</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>68302</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>68667</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>69033</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>69398</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69763</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70128</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70494</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>70859</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>71224</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>71589</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>71955</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>72320</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>72685</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>73050</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>73415</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>73780</v>
       </c>
